--- a/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
@@ -421,31 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9941544361467572</v>
+        <v>0.9941544361467582</v>
       </c>
       <c r="D2">
-        <v>1.014995063363755</v>
+        <v>1.014995063363756</v>
       </c>
       <c r="E2">
         <v>1.004839949428866</v>
       </c>
       <c r="F2">
-        <v>1.013374146625342</v>
+        <v>1.013374146625343</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044710476483752</v>
+        <v>1.044710476483753</v>
       </c>
       <c r="J2">
         <v>1.016511403927594</v>
       </c>
       <c r="K2">
-        <v>1.026249372306729</v>
+        <v>1.02624937230673</v>
       </c>
       <c r="L2">
-        <v>1.016232265386919</v>
+        <v>1.01623226538692</v>
       </c>
       <c r="M2">
         <v>1.024650250442847</v>
@@ -465,7 +465,7 @@
         <v>1.023462667076227</v>
       </c>
       <c r="E3">
-        <v>1.014982727445646</v>
+        <v>1.014982727445645</v>
       </c>
       <c r="F3">
         <v>1.023259736354001</v>
@@ -480,13 +480,13 @@
         <v>1.025222265174237</v>
       </c>
       <c r="K3">
-        <v>1.033803888540994</v>
+        <v>1.033803888540993</v>
       </c>
       <c r="L3">
-        <v>1.025427424550311</v>
+        <v>1.02542742455031</v>
       </c>
       <c r="M3">
-        <v>1.033603409188198</v>
+        <v>1.033603409188197</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011488344574952</v>
+        <v>1.011488344574953</v>
       </c>
       <c r="D4">
         <v>1.028704594821269</v>
       </c>
       <c r="E4">
-        <v>1.021263883181523</v>
+        <v>1.021263883181524</v>
       </c>
       <c r="F4">
-        <v>1.029385879562256</v>
+        <v>1.029385879562257</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.051283317987655</v>
       </c>
       <c r="J4">
-        <v>1.030602673743558</v>
+        <v>1.030602673743559</v>
       </c>
       <c r="K4">
         <v>1.038468497440189</v>
       </c>
       <c r="L4">
-        <v>1.031112270788661</v>
+        <v>1.031112270788662</v>
       </c>
       <c r="M4">
-        <v>1.039142121761938</v>
+        <v>1.039142121761939</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014206608189834</v>
+        <v>1.014206608189833</v>
       </c>
       <c r="D5">
         <v>1.030855999497368</v>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052305625846363</v>
+        <v>1.052305625846364</v>
       </c>
       <c r="J5">
         <v>1.032808135014796</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014659251996551</v>
+        <v>1.014659251996553</v>
       </c>
       <c r="D6">
-        <v>1.031214282284098</v>
+        <v>1.031214282284099</v>
       </c>
       <c r="E6">
-        <v>1.024271913458628</v>
+        <v>1.02427191345863</v>
       </c>
       <c r="F6">
         <v>1.032320842792275</v>
@@ -591,16 +591,16 @@
         <v>1.052475613664546</v>
       </c>
       <c r="J6">
-        <v>1.033175259937573</v>
+        <v>1.033175259937575</v>
       </c>
       <c r="K6">
-        <v>1.040698306632772</v>
+        <v>1.040698306632773</v>
       </c>
       <c r="L6">
-        <v>1.033831965620831</v>
+        <v>1.033831965620833</v>
       </c>
       <c r="M6">
-        <v>1.041792864792697</v>
+        <v>1.041792864792698</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011524921742835</v>
+        <v>1.011524921742836</v>
       </c>
       <c r="D7">
-        <v>1.028733542018126</v>
+        <v>1.028733542018128</v>
       </c>
       <c r="E7">
-        <v>1.021298575193684</v>
+        <v>1.021298575193685</v>
       </c>
       <c r="F7">
-        <v>1.029419724549346</v>
+        <v>1.029419724549347</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05129709080484</v>
+        <v>1.051297090804841</v>
       </c>
       <c r="J7">
-        <v>1.030632359146477</v>
+        <v>1.030632359146479</v>
       </c>
       <c r="K7">
-        <v>1.038494229563809</v>
+        <v>1.03849422956381</v>
       </c>
       <c r="L7">
-        <v>1.031143647849406</v>
+        <v>1.031143647849408</v>
       </c>
       <c r="M7">
-        <v>1.0391726997575</v>
+        <v>1.039172699757502</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.997840406246828</v>
+        <v>0.9978404062468272</v>
       </c>
       <c r="D8">
-        <v>1.017908731092655</v>
+        <v>1.017908731092654</v>
       </c>
       <c r="E8">
-        <v>1.008329643871652</v>
+        <v>1.008329643871651</v>
       </c>
       <c r="F8">
-        <v>1.016774402368642</v>
+        <v>1.016774402368641</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>1.01951143973476</v>
       </c>
       <c r="K8">
-        <v>1.028851460713973</v>
+        <v>1.028851460713972</v>
       </c>
       <c r="L8">
         <v>1.019397954706106</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9710768766657757</v>
+        <v>0.9710768766657722</v>
       </c>
       <c r="D9">
-        <v>0.996778065962335</v>
+        <v>0.9967780659623318</v>
       </c>
       <c r="E9">
-        <v>0.9830255772748837</v>
+        <v>0.9830255772748804</v>
       </c>
       <c r="F9">
-        <v>0.992141235459141</v>
+        <v>0.9921412354591382</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035843843173439</v>
+        <v>1.035843843173437</v>
       </c>
       <c r="J9">
-        <v>0.9976940185514918</v>
+        <v>0.9976940185514885</v>
       </c>
       <c r="K9">
-        <v>1.009923633988659</v>
+        <v>1.009923633988656</v>
       </c>
       <c r="L9">
-        <v>0.9964001900905479</v>
+        <v>0.9964001900905449</v>
       </c>
       <c r="M9">
-        <v>1.005363115586454</v>
+        <v>1.005363115586451</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9508984662278518</v>
+        <v>0.9508984662278536</v>
       </c>
       <c r="D10">
-        <v>0.980893554447658</v>
+        <v>0.9808935544476597</v>
       </c>
       <c r="E10">
-        <v>0.9640011058649254</v>
+        <v>0.9640011058649273</v>
       </c>
       <c r="F10">
-        <v>0.9736552250071187</v>
+        <v>0.9736552250071211</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028012804273079</v>
+        <v>1.02801280427308</v>
       </c>
       <c r="J10">
-        <v>0.9812053834841162</v>
+        <v>0.981205383484118</v>
       </c>
       <c r="K10">
-        <v>0.9956165688022098</v>
+        <v>0.9956165688022115</v>
       </c>
       <c r="L10">
-        <v>0.9790522424591238</v>
+        <v>0.9790522424591256</v>
       </c>
       <c r="M10">
-        <v>0.9885170111847946</v>
+        <v>0.988517011184797</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9414386787281241</v>
+        <v>0.9414386787281217</v>
       </c>
       <c r="D11">
-        <v>0.9734636587298234</v>
+        <v>0.9734636587298214</v>
       </c>
       <c r="E11">
-        <v>0.9550986612107892</v>
+        <v>0.9550986612107867</v>
       </c>
       <c r="F11">
-        <v>0.9650148556553206</v>
+        <v>0.9650148556553181</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024323188073529</v>
+        <v>1.024323188073528</v>
       </c>
       <c r="J11">
-        <v>0.9734682731548705</v>
+        <v>0.9734682731548681</v>
       </c>
       <c r="K11">
-        <v>0.9889039840895631</v>
+        <v>0.988903984089561</v>
       </c>
       <c r="L11">
-        <v>0.970920114625658</v>
+        <v>0.9709201146256554</v>
       </c>
       <c r="M11">
-        <v>0.9806281393925944</v>
+        <v>0.980628139392592</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9377973227613635</v>
+        <v>0.9377973227613658</v>
       </c>
       <c r="D12">
-        <v>0.970606820707513</v>
+        <v>0.9706068207075151</v>
       </c>
       <c r="E12">
-        <v>0.9516746949815938</v>
+        <v>0.951674694981596</v>
       </c>
       <c r="F12">
-        <v>0.9616934191816067</v>
+        <v>0.961693419181609</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022900441146336</v>
+        <v>1.022900441146337</v>
       </c>
       <c r="J12">
-        <v>0.9704892130939849</v>
+        <v>0.9704892130939872</v>
       </c>
       <c r="K12">
-        <v>0.9863196772497144</v>
+        <v>0.9863196772497165</v>
       </c>
       <c r="L12">
-        <v>0.9677902338784987</v>
+        <v>0.9677902338785012</v>
       </c>
       <c r="M12">
-        <v>0.9775932462581016</v>
+        <v>0.977593246258104</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9385845403503059</v>
+        <v>0.9385845403503045</v>
       </c>
       <c r="D13">
-        <v>0.9712242817174832</v>
+        <v>0.971224281717482</v>
       </c>
       <c r="E13">
-        <v>0.9524147798993237</v>
+        <v>0.9524147798993223</v>
       </c>
       <c r="F13">
-        <v>0.9624112604851704</v>
+        <v>0.9624112604851691</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023208129909826</v>
+        <v>1.023208129909825</v>
       </c>
       <c r="J13">
-        <v>0.9711332820911049</v>
+        <v>0.9711332820911037</v>
       </c>
       <c r="K13">
-        <v>0.986878386049669</v>
+        <v>0.9868783860496678</v>
       </c>
       <c r="L13">
-        <v>0.9684668519713655</v>
+        <v>0.9684668519713642</v>
       </c>
       <c r="M13">
-        <v>0.9782492655995433</v>
+        <v>0.9782492655995422</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.941140413783371</v>
+        <v>0.9411404137833731</v>
       </c>
       <c r="D14">
-        <v>0.9732295864198144</v>
+        <v>0.9732295864198163</v>
       </c>
       <c r="E14">
-        <v>0.9548181426878773</v>
+        <v>0.9548181426878798</v>
       </c>
       <c r="F14">
-        <v>0.964742700835605</v>
+        <v>0.9647427008356074</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02420669907961</v>
+        <v>1.024206699079611</v>
       </c>
       <c r="J14">
-        <v>0.9732242718623607</v>
+        <v>0.9732242718623628</v>
       </c>
       <c r="K14">
-        <v>0.9886923087528311</v>
+        <v>0.9886923087528329</v>
       </c>
       <c r="L14">
-        <v>0.9706637343220119</v>
+        <v>0.9706637343220142</v>
       </c>
       <c r="M14">
-        <v>0.9803795113485484</v>
+        <v>0.9803795113485507</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9426976122416146</v>
+        <v>0.9426976122416155</v>
       </c>
       <c r="D15">
-        <v>0.9744517755087309</v>
+        <v>0.9744517755087317</v>
       </c>
       <c r="E15">
-        <v>0.9562828072466208</v>
+        <v>0.9562828072466224</v>
       </c>
       <c r="F15">
-        <v>0.9661637675412834</v>
+        <v>0.9661637675412845</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024814772063145</v>
+        <v>1.024814772063146</v>
       </c>
       <c r="J15">
-        <v>0.9744981364003467</v>
+        <v>0.9744981364003475</v>
       </c>
       <c r="K15">
-        <v>0.9897974202811446</v>
+        <v>0.9897974202811454</v>
       </c>
       <c r="L15">
-        <v>0.9720022780298356</v>
+        <v>0.9720022780298367</v>
       </c>
       <c r="M15">
-        <v>0.9816776371112795</v>
+        <v>0.9816776371112808</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9515095456642076</v>
+        <v>0.9515095456642084</v>
       </c>
       <c r="D16">
-        <v>0.98137389973482</v>
+        <v>0.9813738997348205</v>
       </c>
       <c r="E16">
-        <v>0.964576546375249</v>
+        <v>0.9645765463752499</v>
       </c>
       <c r="F16">
-        <v>0.974213948195281</v>
+        <v>0.974213948195282</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028250790267614</v>
+        <v>1.028250790267615</v>
       </c>
       <c r="J16">
-        <v>0.9817050568348563</v>
+        <v>0.9817050568348571</v>
       </c>
       <c r="K16">
-        <v>0.9960501056752898</v>
+        <v>0.9960501056752901</v>
       </c>
       <c r="L16">
-        <v>0.9795775970520401</v>
+        <v>0.9795775970520409</v>
       </c>
       <c r="M16">
-        <v>0.9890268266016642</v>
+        <v>0.9890268266016653</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9568316496931011</v>
+        <v>0.9568316496931027</v>
       </c>
       <c r="D17">
-        <v>0.9855593202099128</v>
+        <v>0.9855593202099139</v>
       </c>
       <c r="E17">
-        <v>0.9695901061662243</v>
+        <v>0.9695901061662263</v>
       </c>
       <c r="F17">
-        <v>0.9790829966265701</v>
+        <v>0.9790829966265713</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030321485593325</v>
       </c>
       <c r="J17">
-        <v>0.98605612242132</v>
+        <v>0.9860561224213213</v>
       </c>
       <c r="K17">
-        <v>0.9998253747538697</v>
+        <v>0.9998253747538707</v>
       </c>
       <c r="L17">
-        <v>0.9841532017344162</v>
+        <v>0.984153201734418</v>
       </c>
       <c r="M17">
-        <v>0.9934679933868138</v>
+        <v>0.993467993386815</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9598677488838272</v>
+        <v>0.9598677488838299</v>
       </c>
       <c r="D18">
-        <v>0.9879484828314676</v>
+        <v>0.9879484828314695</v>
       </c>
       <c r="E18">
-        <v>0.9724516660631283</v>
+        <v>0.9724516660631307</v>
       </c>
       <c r="F18">
-        <v>0.9818629887710772</v>
+        <v>0.9818629887710792</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031501047906063</v>
+        <v>1.031501047906064</v>
       </c>
       <c r="J18">
-        <v>0.9885376007993972</v>
+        <v>0.9885376007993997</v>
       </c>
       <c r="K18">
-        <v>1.001978535066248</v>
+        <v>1.00197853506625</v>
       </c>
       <c r="L18">
-        <v>0.9867634889048799</v>
+        <v>0.9867634889048822</v>
       </c>
       <c r="M18">
-        <v>0.9960023111574363</v>
+        <v>0.9960023111574383</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9608919151179812</v>
+        <v>0.9608919151179774</v>
       </c>
       <c r="D19">
-        <v>0.9887546581029804</v>
+        <v>0.988754658102977</v>
       </c>
       <c r="E19">
-        <v>0.9734171953950213</v>
+        <v>0.9734171953950173</v>
       </c>
       <c r="F19">
-        <v>0.9828011456068791</v>
+        <v>0.9828011456068755</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03189865315886</v>
+        <v>1.031898653158858</v>
       </c>
       <c r="J19">
-        <v>0.9893745564476274</v>
+        <v>0.9893745564476237</v>
       </c>
       <c r="K19">
-        <v>1.002704762877932</v>
+        <v>1.002704762877928</v>
       </c>
       <c r="L19">
-        <v>0.9876440155906416</v>
+        <v>0.9876440155906376</v>
       </c>
       <c r="M19">
-        <v>0.9968573299446015</v>
+        <v>0.9968573299445979</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9562678140839</v>
+        <v>0.9562678140839032</v>
       </c>
       <c r="D20">
-        <v>0.9851157463435272</v>
+        <v>0.9851157463435297</v>
       </c>
       <c r="E20">
-        <v>0.9690588020200802</v>
+        <v>0.9690588020200835</v>
       </c>
       <c r="F20">
-        <v>0.9785669101575946</v>
+        <v>0.9785669101575974</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030102287922312</v>
+        <v>1.030102287922313</v>
       </c>
       <c r="J20">
-        <v>0.9855952294021454</v>
+        <v>0.9855952294021483</v>
       </c>
       <c r="K20">
-        <v>0.9994254658670204</v>
+        <v>0.9994254658670231</v>
       </c>
       <c r="L20">
-        <v>0.9836684454916035</v>
+        <v>0.9836684454916067</v>
       </c>
       <c r="M20">
-        <v>0.9929974033896848</v>
+        <v>0.9929974033896878</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9403914727009497</v>
+        <v>0.9403914727009476</v>
       </c>
       <c r="D21">
-        <v>0.9726418853537916</v>
+        <v>0.9726418853537898</v>
       </c>
       <c r="E21">
-        <v>0.9541138098821502</v>
+        <v>0.9541138098821483</v>
       </c>
       <c r="F21">
-        <v>0.9640593963839253</v>
+        <v>0.9640593963839236</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023914156981104</v>
+        <v>1.023914156981103</v>
       </c>
       <c r="J21">
-        <v>0.9726115743582988</v>
+        <v>0.9726115743582968</v>
       </c>
       <c r="K21">
-        <v>0.9881607880343972</v>
+        <v>0.9881607880343956</v>
       </c>
       <c r="L21">
-        <v>0.9700199731664875</v>
+        <v>0.9700199731664855</v>
       </c>
       <c r="M21">
-        <v>0.9797552382554209</v>
+        <v>0.9797552382554191</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9296577525116152</v>
+        <v>0.929657752511613</v>
       </c>
       <c r="D22">
-        <v>0.9642275765232219</v>
+        <v>0.96422757652322</v>
       </c>
       <c r="E22">
-        <v>0.9440268894889541</v>
+        <v>0.9440268894889515</v>
       </c>
       <c r="F22">
-        <v>0.9542781338216551</v>
+        <v>0.9542781338216533</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019715845137296</v>
+        <v>1.019715845137295</v>
       </c>
       <c r="J22">
-        <v>0.963828915355136</v>
+        <v>0.9638289153551337</v>
       </c>
       <c r="K22">
-        <v>0.9805426361063979</v>
+        <v>0.9805426361063961</v>
       </c>
       <c r="L22">
-        <v>0.960795172379056</v>
+        <v>0.9607951723790534</v>
       </c>
       <c r="M22">
-        <v>0.9708132240978321</v>
+        <v>0.9708132240978302</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9354269417527843</v>
+        <v>0.9354269417527818</v>
       </c>
       <c r="D23">
-        <v>0.9687481095564888</v>
+        <v>0.9687481095564866</v>
       </c>
       <c r="E23">
-        <v>0.9494466885399532</v>
+        <v>0.9494466885399506</v>
       </c>
       <c r="F23">
-        <v>0.9595326501890157</v>
+        <v>0.9595326501890132</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021973619569326</v>
+        <v>1.021973619569324</v>
       </c>
       <c r="J23">
-        <v>0.9685497691579438</v>
+        <v>0.9685497691579417</v>
       </c>
       <c r="K23">
-        <v>0.9846373265098072</v>
+        <v>0.9846373265098051</v>
       </c>
       <c r="L23">
-        <v>0.9657529676793494</v>
+        <v>0.965752967679347</v>
       </c>
       <c r="M23">
-        <v>0.9756182164025674</v>
+        <v>0.9756182164025652</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9565227964797082</v>
+        <v>0.9565227964797093</v>
       </c>
       <c r="D24">
-        <v>0.9853163383238096</v>
+        <v>0.9853163383238099</v>
       </c>
       <c r="E24">
-        <v>0.9692990681933723</v>
+        <v>0.9692990681933735</v>
       </c>
       <c r="F24">
-        <v>0.9788002917628246</v>
+        <v>0.9788002917628253</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030201420644586</v>
       </c>
       <c r="J24">
-        <v>0.9858036603659686</v>
+        <v>0.9858036603659693</v>
       </c>
       <c r="K24">
-        <v>0.999606317603091</v>
+        <v>0.9996063176030914</v>
       </c>
       <c r="L24">
-        <v>0.983887665850151</v>
+        <v>0.9838876658501522</v>
       </c>
       <c r="M24">
-        <v>0.9932102151261176</v>
+        <v>0.9932102151261183</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9783602114209802</v>
+        <v>0.9783602114209816</v>
       </c>
       <c r="D25">
-        <v>1.002522221367702</v>
+        <v>1.002522221367703</v>
       </c>
       <c r="E25">
-        <v>0.9899038149227585</v>
+        <v>0.9899038149227595</v>
       </c>
       <c r="F25">
-        <v>0.99883198616431</v>
+        <v>0.998831986164311</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.038654102130949</v>
       </c>
       <c r="J25">
-        <v>1.003638450916645</v>
+        <v>1.003638450916646</v>
       </c>
       <c r="K25">
-        <v>1.015081508872098</v>
+        <v>1.015081508872099</v>
       </c>
       <c r="L25">
-        <v>1.002660909507683</v>
+        <v>1.002660909507684</v>
       </c>
       <c r="M25">
-        <v>1.011448461143453</v>
+        <v>1.011448461143454</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
@@ -421,31 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9941544361467582</v>
+        <v>0.9941544361467572</v>
       </c>
       <c r="D2">
-        <v>1.014995063363756</v>
+        <v>1.014995063363755</v>
       </c>
       <c r="E2">
         <v>1.004839949428866</v>
       </c>
       <c r="F2">
-        <v>1.013374146625343</v>
+        <v>1.013374146625342</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044710476483753</v>
+        <v>1.044710476483752</v>
       </c>
       <c r="J2">
         <v>1.016511403927594</v>
       </c>
       <c r="K2">
-        <v>1.02624937230673</v>
+        <v>1.026249372306729</v>
       </c>
       <c r="L2">
-        <v>1.01623226538692</v>
+        <v>1.016232265386919</v>
       </c>
       <c r="M2">
         <v>1.024650250442847</v>
@@ -465,7 +465,7 @@
         <v>1.023462667076227</v>
       </c>
       <c r="E3">
-        <v>1.014982727445645</v>
+        <v>1.014982727445646</v>
       </c>
       <c r="F3">
         <v>1.023259736354001</v>
@@ -480,13 +480,13 @@
         <v>1.025222265174237</v>
       </c>
       <c r="K3">
-        <v>1.033803888540993</v>
+        <v>1.033803888540994</v>
       </c>
       <c r="L3">
-        <v>1.02542742455031</v>
+        <v>1.025427424550311</v>
       </c>
       <c r="M3">
-        <v>1.033603409188197</v>
+        <v>1.033603409188198</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011488344574953</v>
+        <v>1.011488344574952</v>
       </c>
       <c r="D4">
         <v>1.028704594821269</v>
       </c>
       <c r="E4">
-        <v>1.021263883181524</v>
+        <v>1.021263883181523</v>
       </c>
       <c r="F4">
-        <v>1.029385879562257</v>
+        <v>1.029385879562256</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.051283317987655</v>
       </c>
       <c r="J4">
-        <v>1.030602673743559</v>
+        <v>1.030602673743558</v>
       </c>
       <c r="K4">
         <v>1.038468497440189</v>
       </c>
       <c r="L4">
-        <v>1.031112270788662</v>
+        <v>1.031112270788661</v>
       </c>
       <c r="M4">
-        <v>1.039142121761939</v>
+        <v>1.039142121761938</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014206608189833</v>
+        <v>1.014206608189834</v>
       </c>
       <c r="D5">
         <v>1.030855999497368</v>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052305625846364</v>
+        <v>1.052305625846363</v>
       </c>
       <c r="J5">
         <v>1.032808135014796</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014659251996553</v>
+        <v>1.014659251996551</v>
       </c>
       <c r="D6">
-        <v>1.031214282284099</v>
+        <v>1.031214282284098</v>
       </c>
       <c r="E6">
-        <v>1.02427191345863</v>
+        <v>1.024271913458628</v>
       </c>
       <c r="F6">
         <v>1.032320842792275</v>
@@ -591,16 +591,16 @@
         <v>1.052475613664546</v>
       </c>
       <c r="J6">
-        <v>1.033175259937575</v>
+        <v>1.033175259937573</v>
       </c>
       <c r="K6">
-        <v>1.040698306632773</v>
+        <v>1.040698306632772</v>
       </c>
       <c r="L6">
-        <v>1.033831965620833</v>
+        <v>1.033831965620831</v>
       </c>
       <c r="M6">
-        <v>1.041792864792698</v>
+        <v>1.041792864792697</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011524921742836</v>
+        <v>1.011524921742835</v>
       </c>
       <c r="D7">
-        <v>1.028733542018128</v>
+        <v>1.028733542018126</v>
       </c>
       <c r="E7">
-        <v>1.021298575193685</v>
+        <v>1.021298575193684</v>
       </c>
       <c r="F7">
-        <v>1.029419724549347</v>
+        <v>1.029419724549346</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051297090804841</v>
+        <v>1.05129709080484</v>
       </c>
       <c r="J7">
-        <v>1.030632359146479</v>
+        <v>1.030632359146477</v>
       </c>
       <c r="K7">
-        <v>1.03849422956381</v>
+        <v>1.038494229563809</v>
       </c>
       <c r="L7">
-        <v>1.031143647849408</v>
+        <v>1.031143647849406</v>
       </c>
       <c r="M7">
-        <v>1.039172699757502</v>
+        <v>1.0391726997575</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9978404062468272</v>
+        <v>0.997840406246828</v>
       </c>
       <c r="D8">
-        <v>1.017908731092654</v>
+        <v>1.017908731092655</v>
       </c>
       <c r="E8">
-        <v>1.008329643871651</v>
+        <v>1.008329643871652</v>
       </c>
       <c r="F8">
-        <v>1.016774402368641</v>
+        <v>1.016774402368642</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>1.01951143973476</v>
       </c>
       <c r="K8">
-        <v>1.028851460713972</v>
+        <v>1.028851460713973</v>
       </c>
       <c r="L8">
         <v>1.019397954706106</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9710768766657722</v>
+        <v>0.9710768766657757</v>
       </c>
       <c r="D9">
-        <v>0.9967780659623318</v>
+        <v>0.996778065962335</v>
       </c>
       <c r="E9">
-        <v>0.9830255772748804</v>
+        <v>0.9830255772748837</v>
       </c>
       <c r="F9">
-        <v>0.9921412354591382</v>
+        <v>0.992141235459141</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035843843173437</v>
+        <v>1.035843843173439</v>
       </c>
       <c r="J9">
-        <v>0.9976940185514885</v>
+        <v>0.9976940185514918</v>
       </c>
       <c r="K9">
-        <v>1.009923633988656</v>
+        <v>1.009923633988659</v>
       </c>
       <c r="L9">
-        <v>0.9964001900905449</v>
+        <v>0.9964001900905479</v>
       </c>
       <c r="M9">
-        <v>1.005363115586451</v>
+        <v>1.005363115586454</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9508984662278536</v>
+        <v>0.9508984662278518</v>
       </c>
       <c r="D10">
-        <v>0.9808935544476597</v>
+        <v>0.980893554447658</v>
       </c>
       <c r="E10">
-        <v>0.9640011058649273</v>
+        <v>0.9640011058649254</v>
       </c>
       <c r="F10">
-        <v>0.9736552250071211</v>
+        <v>0.9736552250071187</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02801280427308</v>
+        <v>1.028012804273079</v>
       </c>
       <c r="J10">
-        <v>0.981205383484118</v>
+        <v>0.9812053834841162</v>
       </c>
       <c r="K10">
-        <v>0.9956165688022115</v>
+        <v>0.9956165688022098</v>
       </c>
       <c r="L10">
-        <v>0.9790522424591256</v>
+        <v>0.9790522424591238</v>
       </c>
       <c r="M10">
-        <v>0.988517011184797</v>
+        <v>0.9885170111847946</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9414386787281217</v>
+        <v>0.9414386787281241</v>
       </c>
       <c r="D11">
-        <v>0.9734636587298214</v>
+        <v>0.9734636587298234</v>
       </c>
       <c r="E11">
-        <v>0.9550986612107867</v>
+        <v>0.9550986612107892</v>
       </c>
       <c r="F11">
-        <v>0.9650148556553181</v>
+        <v>0.9650148556553206</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024323188073528</v>
+        <v>1.024323188073529</v>
       </c>
       <c r="J11">
-        <v>0.9734682731548681</v>
+        <v>0.9734682731548705</v>
       </c>
       <c r="K11">
-        <v>0.988903984089561</v>
+        <v>0.9889039840895631</v>
       </c>
       <c r="L11">
-        <v>0.9709201146256554</v>
+        <v>0.970920114625658</v>
       </c>
       <c r="M11">
-        <v>0.980628139392592</v>
+        <v>0.9806281393925944</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9377973227613658</v>
+        <v>0.9377973227613635</v>
       </c>
       <c r="D12">
-        <v>0.9706068207075151</v>
+        <v>0.970606820707513</v>
       </c>
       <c r="E12">
-        <v>0.951674694981596</v>
+        <v>0.9516746949815938</v>
       </c>
       <c r="F12">
-        <v>0.961693419181609</v>
+        <v>0.9616934191816067</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022900441146337</v>
+        <v>1.022900441146336</v>
       </c>
       <c r="J12">
-        <v>0.9704892130939872</v>
+        <v>0.9704892130939849</v>
       </c>
       <c r="K12">
-        <v>0.9863196772497165</v>
+        <v>0.9863196772497144</v>
       </c>
       <c r="L12">
-        <v>0.9677902338785012</v>
+        <v>0.9677902338784987</v>
       </c>
       <c r="M12">
-        <v>0.977593246258104</v>
+        <v>0.9775932462581016</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9385845403503045</v>
+        <v>0.9385845403503059</v>
       </c>
       <c r="D13">
-        <v>0.971224281717482</v>
+        <v>0.9712242817174832</v>
       </c>
       <c r="E13">
-        <v>0.9524147798993223</v>
+        <v>0.9524147798993237</v>
       </c>
       <c r="F13">
-        <v>0.9624112604851691</v>
+        <v>0.9624112604851704</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023208129909825</v>
+        <v>1.023208129909826</v>
       </c>
       <c r="J13">
-        <v>0.9711332820911037</v>
+        <v>0.9711332820911049</v>
       </c>
       <c r="K13">
-        <v>0.9868783860496678</v>
+        <v>0.986878386049669</v>
       </c>
       <c r="L13">
-        <v>0.9684668519713642</v>
+        <v>0.9684668519713655</v>
       </c>
       <c r="M13">
-        <v>0.9782492655995422</v>
+        <v>0.9782492655995433</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9411404137833731</v>
+        <v>0.941140413783371</v>
       </c>
       <c r="D14">
-        <v>0.9732295864198163</v>
+        <v>0.9732295864198144</v>
       </c>
       <c r="E14">
-        <v>0.9548181426878798</v>
+        <v>0.9548181426878773</v>
       </c>
       <c r="F14">
-        <v>0.9647427008356074</v>
+        <v>0.964742700835605</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024206699079611</v>
+        <v>1.02420669907961</v>
       </c>
       <c r="J14">
-        <v>0.9732242718623628</v>
+        <v>0.9732242718623607</v>
       </c>
       <c r="K14">
-        <v>0.9886923087528329</v>
+        <v>0.9886923087528311</v>
       </c>
       <c r="L14">
-        <v>0.9706637343220142</v>
+        <v>0.9706637343220119</v>
       </c>
       <c r="M14">
-        <v>0.9803795113485507</v>
+        <v>0.9803795113485484</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9426976122416155</v>
+        <v>0.9426976122416146</v>
       </c>
       <c r="D15">
-        <v>0.9744517755087317</v>
+        <v>0.9744517755087309</v>
       </c>
       <c r="E15">
-        <v>0.9562828072466224</v>
+        <v>0.9562828072466208</v>
       </c>
       <c r="F15">
-        <v>0.9661637675412845</v>
+        <v>0.9661637675412834</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024814772063146</v>
+        <v>1.024814772063145</v>
       </c>
       <c r="J15">
-        <v>0.9744981364003475</v>
+        <v>0.9744981364003467</v>
       </c>
       <c r="K15">
-        <v>0.9897974202811454</v>
+        <v>0.9897974202811446</v>
       </c>
       <c r="L15">
-        <v>0.9720022780298367</v>
+        <v>0.9720022780298356</v>
       </c>
       <c r="M15">
-        <v>0.9816776371112808</v>
+        <v>0.9816776371112795</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9515095456642084</v>
+        <v>0.9515095456642076</v>
       </c>
       <c r="D16">
-        <v>0.9813738997348205</v>
+        <v>0.98137389973482</v>
       </c>
       <c r="E16">
-        <v>0.9645765463752499</v>
+        <v>0.964576546375249</v>
       </c>
       <c r="F16">
-        <v>0.974213948195282</v>
+        <v>0.974213948195281</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028250790267615</v>
+        <v>1.028250790267614</v>
       </c>
       <c r="J16">
-        <v>0.9817050568348571</v>
+        <v>0.9817050568348563</v>
       </c>
       <c r="K16">
-        <v>0.9960501056752901</v>
+        <v>0.9960501056752898</v>
       </c>
       <c r="L16">
-        <v>0.9795775970520409</v>
+        <v>0.9795775970520401</v>
       </c>
       <c r="M16">
-        <v>0.9890268266016653</v>
+        <v>0.9890268266016642</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9568316496931027</v>
+        <v>0.9568316496931011</v>
       </c>
       <c r="D17">
-        <v>0.9855593202099139</v>
+        <v>0.9855593202099128</v>
       </c>
       <c r="E17">
-        <v>0.9695901061662263</v>
+        <v>0.9695901061662243</v>
       </c>
       <c r="F17">
-        <v>0.9790829966265713</v>
+        <v>0.9790829966265701</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.030321485593325</v>
       </c>
       <c r="J17">
-        <v>0.9860561224213213</v>
+        <v>0.98605612242132</v>
       </c>
       <c r="K17">
-        <v>0.9998253747538707</v>
+        <v>0.9998253747538697</v>
       </c>
       <c r="L17">
-        <v>0.984153201734418</v>
+        <v>0.9841532017344162</v>
       </c>
       <c r="M17">
-        <v>0.993467993386815</v>
+        <v>0.9934679933868138</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9598677488838299</v>
+        <v>0.9598677488838272</v>
       </c>
       <c r="D18">
-        <v>0.9879484828314695</v>
+        <v>0.9879484828314676</v>
       </c>
       <c r="E18">
-        <v>0.9724516660631307</v>
+        <v>0.9724516660631283</v>
       </c>
       <c r="F18">
-        <v>0.9818629887710792</v>
+        <v>0.9818629887710772</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031501047906064</v>
+        <v>1.031501047906063</v>
       </c>
       <c r="J18">
-        <v>0.9885376007993997</v>
+        <v>0.9885376007993972</v>
       </c>
       <c r="K18">
-        <v>1.00197853506625</v>
+        <v>1.001978535066248</v>
       </c>
       <c r="L18">
-        <v>0.9867634889048822</v>
+        <v>0.9867634889048799</v>
       </c>
       <c r="M18">
-        <v>0.9960023111574383</v>
+        <v>0.9960023111574363</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9608919151179774</v>
+        <v>0.9608919151179812</v>
       </c>
       <c r="D19">
-        <v>0.988754658102977</v>
+        <v>0.9887546581029804</v>
       </c>
       <c r="E19">
-        <v>0.9734171953950173</v>
+        <v>0.9734171953950213</v>
       </c>
       <c r="F19">
-        <v>0.9828011456068755</v>
+        <v>0.9828011456068791</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031898653158858</v>
+        <v>1.03189865315886</v>
       </c>
       <c r="J19">
-        <v>0.9893745564476237</v>
+        <v>0.9893745564476274</v>
       </c>
       <c r="K19">
-        <v>1.002704762877928</v>
+        <v>1.002704762877932</v>
       </c>
       <c r="L19">
-        <v>0.9876440155906376</v>
+        <v>0.9876440155906416</v>
       </c>
       <c r="M19">
-        <v>0.9968573299445979</v>
+        <v>0.9968573299446015</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9562678140839032</v>
+        <v>0.9562678140839</v>
       </c>
       <c r="D20">
-        <v>0.9851157463435297</v>
+        <v>0.9851157463435272</v>
       </c>
       <c r="E20">
-        <v>0.9690588020200835</v>
+        <v>0.9690588020200802</v>
       </c>
       <c r="F20">
-        <v>0.9785669101575974</v>
+        <v>0.9785669101575946</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030102287922313</v>
+        <v>1.030102287922312</v>
       </c>
       <c r="J20">
-        <v>0.9855952294021483</v>
+        <v>0.9855952294021454</v>
       </c>
       <c r="K20">
-        <v>0.9994254658670231</v>
+        <v>0.9994254658670204</v>
       </c>
       <c r="L20">
-        <v>0.9836684454916067</v>
+        <v>0.9836684454916035</v>
       </c>
       <c r="M20">
-        <v>0.9929974033896878</v>
+        <v>0.9929974033896848</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9403914727009476</v>
+        <v>0.9403914727009497</v>
       </c>
       <c r="D21">
-        <v>0.9726418853537898</v>
+        <v>0.9726418853537916</v>
       </c>
       <c r="E21">
-        <v>0.9541138098821483</v>
+        <v>0.9541138098821502</v>
       </c>
       <c r="F21">
-        <v>0.9640593963839236</v>
+        <v>0.9640593963839253</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023914156981103</v>
+        <v>1.023914156981104</v>
       </c>
       <c r="J21">
-        <v>0.9726115743582968</v>
+        <v>0.9726115743582988</v>
       </c>
       <c r="K21">
-        <v>0.9881607880343956</v>
+        <v>0.9881607880343972</v>
       </c>
       <c r="L21">
-        <v>0.9700199731664855</v>
+        <v>0.9700199731664875</v>
       </c>
       <c r="M21">
-        <v>0.9797552382554191</v>
+        <v>0.9797552382554209</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.929657752511613</v>
+        <v>0.9296577525116152</v>
       </c>
       <c r="D22">
-        <v>0.96422757652322</v>
+        <v>0.9642275765232219</v>
       </c>
       <c r="E22">
-        <v>0.9440268894889515</v>
+        <v>0.9440268894889541</v>
       </c>
       <c r="F22">
-        <v>0.9542781338216533</v>
+        <v>0.9542781338216551</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019715845137295</v>
+        <v>1.019715845137296</v>
       </c>
       <c r="J22">
-        <v>0.9638289153551337</v>
+        <v>0.963828915355136</v>
       </c>
       <c r="K22">
-        <v>0.9805426361063961</v>
+        <v>0.9805426361063979</v>
       </c>
       <c r="L22">
-        <v>0.9607951723790534</v>
+        <v>0.960795172379056</v>
       </c>
       <c r="M22">
-        <v>0.9708132240978302</v>
+        <v>0.9708132240978321</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9354269417527818</v>
+        <v>0.9354269417527843</v>
       </c>
       <c r="D23">
-        <v>0.9687481095564866</v>
+        <v>0.9687481095564888</v>
       </c>
       <c r="E23">
-        <v>0.9494466885399506</v>
+        <v>0.9494466885399532</v>
       </c>
       <c r="F23">
-        <v>0.9595326501890132</v>
+        <v>0.9595326501890157</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021973619569324</v>
+        <v>1.021973619569326</v>
       </c>
       <c r="J23">
-        <v>0.9685497691579417</v>
+        <v>0.9685497691579438</v>
       </c>
       <c r="K23">
-        <v>0.9846373265098051</v>
+        <v>0.9846373265098072</v>
       </c>
       <c r="L23">
-        <v>0.965752967679347</v>
+        <v>0.9657529676793494</v>
       </c>
       <c r="M23">
-        <v>0.9756182164025652</v>
+        <v>0.9756182164025674</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9565227964797093</v>
+        <v>0.9565227964797082</v>
       </c>
       <c r="D24">
-        <v>0.9853163383238099</v>
+        <v>0.9853163383238096</v>
       </c>
       <c r="E24">
-        <v>0.9692990681933735</v>
+        <v>0.9692990681933723</v>
       </c>
       <c r="F24">
-        <v>0.9788002917628253</v>
+        <v>0.9788002917628246</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.030201420644586</v>
       </c>
       <c r="J24">
-        <v>0.9858036603659693</v>
+        <v>0.9858036603659686</v>
       </c>
       <c r="K24">
-        <v>0.9996063176030914</v>
+        <v>0.999606317603091</v>
       </c>
       <c r="L24">
-        <v>0.9838876658501522</v>
+        <v>0.983887665850151</v>
       </c>
       <c r="M24">
-        <v>0.9932102151261183</v>
+        <v>0.9932102151261176</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9783602114209816</v>
+        <v>0.9783602114209802</v>
       </c>
       <c r="D25">
-        <v>1.002522221367703</v>
+        <v>1.002522221367702</v>
       </c>
       <c r="E25">
-        <v>0.9899038149227595</v>
+        <v>0.9899038149227585</v>
       </c>
       <c r="F25">
-        <v>0.998831986164311</v>
+        <v>0.99883198616431</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.038654102130949</v>
       </c>
       <c r="J25">
-        <v>1.003638450916646</v>
+        <v>1.003638450916645</v>
       </c>
       <c r="K25">
-        <v>1.015081508872099</v>
+        <v>1.015081508872098</v>
       </c>
       <c r="L25">
-        <v>1.002660909507684</v>
+        <v>1.002660909507683</v>
       </c>
       <c r="M25">
-        <v>1.011448461143454</v>
+        <v>1.011448461143453</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9941544361467572</v>
+        <v>0.9942252208873453</v>
       </c>
       <c r="D2">
-        <v>1.014995063363755</v>
+        <v>1.015052490486158</v>
       </c>
       <c r="E2">
-        <v>1.004839949428866</v>
+        <v>1.004909462561076</v>
       </c>
       <c r="F2">
-        <v>1.013374146625342</v>
+        <v>1.013435987363115</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044710476483752</v>
+        <v>1.044741343100312</v>
       </c>
       <c r="J2">
-        <v>1.016511403927594</v>
+        <v>1.01658003726864</v>
       </c>
       <c r="K2">
-        <v>1.026249372306729</v>
+        <v>1.026306028867344</v>
       </c>
       <c r="L2">
-        <v>1.016232265386919</v>
+        <v>1.016300821895789</v>
       </c>
       <c r="M2">
-        <v>1.024650250442847</v>
+        <v>1.024711258060919</v>
+      </c>
+      <c r="N2">
+        <v>1.005952620608844</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004863306479862</v>
+        <v>1.004917427091143</v>
       </c>
       <c r="D3">
-        <v>1.023462667076227</v>
+        <v>1.023506643071174</v>
       </c>
       <c r="E3">
-        <v>1.014982727445646</v>
+        <v>1.01503594212353</v>
       </c>
       <c r="F3">
-        <v>1.023259736354001</v>
+        <v>1.023307014500019</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048781616005682</v>
+        <v>1.04880527883034</v>
       </c>
       <c r="J3">
-        <v>1.025222265174237</v>
+        <v>1.025274929861753</v>
       </c>
       <c r="K3">
-        <v>1.033803888540994</v>
+        <v>1.033847333472332</v>
       </c>
       <c r="L3">
-        <v>1.025427424550311</v>
+        <v>1.025479983173174</v>
       </c>
       <c r="M3">
-        <v>1.033603409188198</v>
+        <v>1.033650116114199</v>
+      </c>
+      <c r="N3">
+        <v>1.012848828743907</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011488344574952</v>
+        <v>1.011532600171487</v>
       </c>
       <c r="D4">
-        <v>1.028704594821269</v>
+        <v>1.028740588032808</v>
       </c>
       <c r="E4">
-        <v>1.021263883181523</v>
+        <v>1.021307429773386</v>
       </c>
       <c r="F4">
-        <v>1.029385879562256</v>
+        <v>1.029424537210313</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051283317987655</v>
+        <v>1.051302699003683</v>
       </c>
       <c r="J4">
-        <v>1.030602673743558</v>
+        <v>1.030645831722762</v>
       </c>
       <c r="K4">
-        <v>1.038468497440189</v>
+        <v>1.038504085628536</v>
       </c>
       <c r="L4">
-        <v>1.031112270788661</v>
+        <v>1.03115531851457</v>
       </c>
       <c r="M4">
-        <v>1.039142121761938</v>
+        <v>1.039180345114736</v>
+      </c>
+      <c r="N4">
+        <v>1.01708909008417</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014206608189834</v>
+        <v>1.014246908164304</v>
       </c>
       <c r="D5">
-        <v>1.030855999497368</v>
+        <v>1.030888787664838</v>
       </c>
       <c r="E5">
-        <v>1.02384245223905</v>
+        <v>1.023882118111667</v>
       </c>
       <c r="F5">
-        <v>1.031901766852094</v>
+        <v>1.031936968090932</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052305625846363</v>
+        <v>1.052323286241452</v>
       </c>
       <c r="J5">
-        <v>1.032808135014796</v>
+        <v>1.032847469662622</v>
       </c>
       <c r="K5">
-        <v>1.040380121017112</v>
+        <v>1.040412551257793</v>
       </c>
       <c r="L5">
-        <v>1.033443783943061</v>
+        <v>1.033483009487572</v>
       </c>
       <c r="M5">
-        <v>1.041414486173356</v>
+        <v>1.041449304099862</v>
+      </c>
+      <c r="N5">
+        <v>1.018822571863565</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014659251996551</v>
+        <v>1.014698898320739</v>
       </c>
       <c r="D6">
-        <v>1.031214282284098</v>
+        <v>1.031246540602521</v>
       </c>
       <c r="E6">
-        <v>1.024271913458628</v>
+        <v>1.02431093783552</v>
       </c>
       <c r="F6">
-        <v>1.032320842792275</v>
+        <v>1.032355472887158</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052475613664546</v>
+        <v>1.052492989525312</v>
       </c>
       <c r="J6">
-        <v>1.033175259937573</v>
+        <v>1.033213962162805</v>
       </c>
       <c r="K6">
-        <v>1.040698306632772</v>
+        <v>1.040730214613001</v>
       </c>
       <c r="L6">
-        <v>1.033831965620831</v>
+        <v>1.033870559091049</v>
       </c>
       <c r="M6">
-        <v>1.041792864792697</v>
+        <v>1.041827119780289</v>
+      </c>
+      <c r="N6">
+        <v>1.019110858028791</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011524921742835</v>
+        <v>1.011569123764454</v>
       </c>
       <c r="D7">
-        <v>1.028733542018126</v>
+        <v>1.028769491836441</v>
       </c>
       <c r="E7">
-        <v>1.021298575193684</v>
+        <v>1.021342069240599</v>
       </c>
       <c r="F7">
-        <v>1.029419724549346</v>
+        <v>1.029458335382951</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05129709080484</v>
+        <v>1.051316448531197</v>
       </c>
       <c r="J7">
-        <v>1.030632359146477</v>
+        <v>1.030675465386297</v>
       </c>
       <c r="K7">
-        <v>1.038494229563809</v>
+        <v>1.038529775010167</v>
       </c>
       <c r="L7">
-        <v>1.031143647849406</v>
+        <v>1.031186643840577</v>
       </c>
       <c r="M7">
-        <v>1.0391726997575</v>
+        <v>1.039210877001521</v>
+      </c>
+      <c r="N7">
+        <v>1.017112441033788</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.997840406246828</v>
+        <v>0.9979053505443602</v>
       </c>
       <c r="D8">
-        <v>1.017908731092655</v>
+        <v>1.017961448648991</v>
       </c>
       <c r="E8">
-        <v>1.008329643871652</v>
+        <v>1.008393449454107</v>
       </c>
       <c r="F8">
-        <v>1.016774402368642</v>
+        <v>1.016831139186656</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046115301147586</v>
+        <v>1.046143647049584</v>
       </c>
       <c r="J8">
-        <v>1.01951143973476</v>
+        <v>1.019574489101698</v>
       </c>
       <c r="K8">
-        <v>1.028851460713973</v>
+        <v>1.028903495331417</v>
       </c>
       <c r="L8">
-        <v>1.019397954706106</v>
+        <v>1.019460913897462</v>
       </c>
       <c r="M8">
-        <v>1.027731848328764</v>
+        <v>1.027787848088855</v>
+      </c>
+      <c r="N8">
+        <v>1.008331807466993</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9710768766657757</v>
+        <v>0.9711870309017514</v>
       </c>
       <c r="D9">
-        <v>0.996778065962335</v>
+        <v>0.9968671059305012</v>
       </c>
       <c r="E9">
-        <v>0.9830255772748837</v>
+        <v>0.9831334313869137</v>
       </c>
       <c r="F9">
-        <v>0.992141235459141</v>
+        <v>0.9922374760545377</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035843843173439</v>
+        <v>1.035891592959664</v>
       </c>
       <c r="J9">
-        <v>0.9976940185514918</v>
+        <v>0.9977999491490382</v>
       </c>
       <c r="K9">
-        <v>1.009923633988659</v>
+        <v>1.010011217483346</v>
       </c>
       <c r="L9">
-        <v>0.9964001900905479</v>
+        <v>0.9965062157391159</v>
       </c>
       <c r="M9">
-        <v>1.005363115586454</v>
+        <v>1.005457762942424</v>
+      </c>
+      <c r="N9">
+        <v>0.9909429412297995</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9508984662278518</v>
+        <v>0.9510477221413742</v>
       </c>
       <c r="D10">
-        <v>0.980893554447658</v>
+        <v>0.9810137666967873</v>
       </c>
       <c r="E10">
-        <v>0.9640011058649254</v>
+        <v>0.9641468160993708</v>
       </c>
       <c r="F10">
-        <v>0.9736552250071187</v>
+        <v>0.9737856108612861</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028012804273079</v>
+        <v>1.028077148592707</v>
       </c>
       <c r="J10">
-        <v>0.9812053834841162</v>
+        <v>0.9813478049612256</v>
       </c>
       <c r="K10">
-        <v>0.9956165688022098</v>
+        <v>0.9957344989691993</v>
       </c>
       <c r="L10">
-        <v>0.9790522424591238</v>
+        <v>0.9791950577699836</v>
       </c>
       <c r="M10">
-        <v>0.9885170111847946</v>
+        <v>0.9886448733959333</v>
+      </c>
+      <c r="N10">
+        <v>0.9776882814765319</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9414386787281241</v>
+        <v>0.9416080822866827</v>
       </c>
       <c r="D11">
-        <v>0.9734636587298234</v>
+        <v>0.9735998481088717</v>
       </c>
       <c r="E11">
-        <v>0.9550986612107892</v>
+        <v>0.9552637934352985</v>
       </c>
       <c r="F11">
-        <v>0.9650148556553206</v>
+        <v>0.9651628227273534</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024323188073529</v>
+        <v>1.024396020688352</v>
       </c>
       <c r="J11">
-        <v>0.9734682731548705</v>
+        <v>0.9736292999220352</v>
       </c>
       <c r="K11">
-        <v>0.9889039840895631</v>
+        <v>0.9890374178658354</v>
       </c>
       <c r="L11">
-        <v>0.970920114625658</v>
+        <v>0.9710817333690496</v>
       </c>
       <c r="M11">
-        <v>0.9806281393925944</v>
+        <v>0.9807730429757247</v>
+      </c>
+      <c r="N11">
+        <v>0.9714418204644401</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9377973227613635</v>
+        <v>0.9379748318534962</v>
       </c>
       <c r="D12">
-        <v>0.970606820707513</v>
+        <v>0.9707494219933438</v>
       </c>
       <c r="E12">
-        <v>0.9516746949815938</v>
+        <v>0.9518476252465672</v>
       </c>
       <c r="F12">
-        <v>0.9616934191816067</v>
+        <v>0.9618484564128131</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022900441146336</v>
+        <v>1.022976677352744</v>
       </c>
       <c r="J12">
-        <v>0.9704892130939849</v>
+        <v>0.9706576893665005</v>
       </c>
       <c r="K12">
-        <v>0.9863196772497144</v>
+        <v>0.9864593241323734</v>
       </c>
       <c r="L12">
-        <v>0.9677902338784987</v>
+        <v>0.9679593896366223</v>
       </c>
       <c r="M12">
-        <v>0.9775932462581016</v>
+        <v>0.9777449921569283</v>
+      </c>
+      <c r="N12">
+        <v>0.969032706347397</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9385845403503059</v>
+        <v>0.9387602798301414</v>
       </c>
       <c r="D13">
-        <v>0.9712242817174832</v>
+        <v>0.9713654839100724</v>
       </c>
       <c r="E13">
-        <v>0.9524147798993237</v>
+        <v>0.9525860084350521</v>
       </c>
       <c r="F13">
-        <v>0.9624112604851704</v>
+        <v>0.9625647542974971</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023208129909826</v>
+        <v>1.023283623580915</v>
       </c>
       <c r="J13">
-        <v>0.9711332820911049</v>
+        <v>0.9713001336730349</v>
       </c>
       <c r="K13">
-        <v>0.986878386049669</v>
+        <v>0.9870166776313003</v>
       </c>
       <c r="L13">
-        <v>0.9684668519713655</v>
+        <v>0.9686343635645017</v>
       </c>
       <c r="M13">
-        <v>0.9782492655995433</v>
+        <v>0.9783995183275438</v>
+      </c>
+      <c r="N13">
+        <v>0.9695537333246511</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.941140413783371</v>
+        <v>0.9413104736718059</v>
       </c>
       <c r="D14">
-        <v>0.9732295864198144</v>
+        <v>0.9733662953246195</v>
       </c>
       <c r="E14">
-        <v>0.9548181426878773</v>
+        <v>0.9549839066719932</v>
       </c>
       <c r="F14">
-        <v>0.964742700835605</v>
+        <v>0.9648912404643281</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02420669907961</v>
+        <v>1.02427980753105</v>
       </c>
       <c r="J14">
-        <v>0.9732242718623607</v>
+        <v>0.9733859025825856</v>
       </c>
       <c r="K14">
-        <v>0.9886923087528311</v>
+        <v>0.9888262461288725</v>
       </c>
       <c r="L14">
-        <v>0.9706637343220119</v>
+        <v>0.9708259639422223</v>
       </c>
       <c r="M14">
-        <v>0.9803795113485484</v>
+        <v>0.9805249692609181</v>
+      </c>
+      <c r="N14">
+        <v>0.9712445813697727</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9426976122416146</v>
+        <v>0.9428642601783666</v>
       </c>
       <c r="D15">
-        <v>0.9744517755087309</v>
+        <v>0.9745857829966857</v>
       </c>
       <c r="E15">
-        <v>0.9562828072466208</v>
+        <v>0.956445286373058</v>
       </c>
       <c r="F15">
-        <v>0.9661637675412834</v>
+        <v>0.9663093305949164</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024814772063145</v>
+        <v>1.024886446108694</v>
       </c>
       <c r="J15">
-        <v>0.9744981364003467</v>
+        <v>0.9746566260064212</v>
       </c>
       <c r="K15">
-        <v>0.9897974202811446</v>
+        <v>0.9899287386966967</v>
       </c>
       <c r="L15">
-        <v>0.9720022780298356</v>
+        <v>0.9721613308585619</v>
       </c>
       <c r="M15">
-        <v>0.9816776371112795</v>
+        <v>0.9818202127723603</v>
+      </c>
+      <c r="N15">
+        <v>0.9722741517442589</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9515095456642076</v>
+        <v>0.9516575429153475</v>
       </c>
       <c r="D16">
-        <v>0.98137389973482</v>
+        <v>0.981493111977547</v>
       </c>
       <c r="E16">
-        <v>0.964576546375249</v>
+        <v>0.9647210414213178</v>
       </c>
       <c r="F16">
-        <v>0.974213948195281</v>
+        <v>0.9743432353997049</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028250790267614</v>
+        <v>1.028314602944908</v>
       </c>
       <c r="J16">
-        <v>0.9817050568348563</v>
+        <v>0.9818463117073485</v>
       </c>
       <c r="K16">
-        <v>0.9960501056752898</v>
+        <v>0.9961670643953121</v>
       </c>
       <c r="L16">
-        <v>0.9795775970520401</v>
+        <v>0.979719234331178</v>
       </c>
       <c r="M16">
-        <v>0.9890268266016642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.989153622587488</v>
+      </c>
+      <c r="N16">
+        <v>0.9780911413234158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9568316496931011</v>
+        <v>0.9569688920232921</v>
       </c>
       <c r="D17">
-        <v>0.9855593202099128</v>
+        <v>0.9856699785142127</v>
       </c>
       <c r="E17">
-        <v>0.9695901061662243</v>
+        <v>0.9697242087059174</v>
       </c>
       <c r="F17">
-        <v>0.9790829966265701</v>
+        <v>0.9792028947809913</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030321485593325</v>
+        <v>1.030380748831194</v>
       </c>
       <c r="J17">
-        <v>0.98605612242132</v>
+        <v>0.9861873877621079</v>
       </c>
       <c r="K17">
-        <v>0.9998253747538697</v>
+        <v>0.9999340184142625</v>
       </c>
       <c r="L17">
-        <v>0.9841532017344162</v>
+        <v>0.9842847565862427</v>
       </c>
       <c r="M17">
-        <v>0.9934679933868138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9935856708899664</v>
+      </c>
+      <c r="N17">
+        <v>0.9815962030031959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9598677488838272</v>
+        <v>0.9599990168902112</v>
       </c>
       <c r="D18">
-        <v>0.9879484828314676</v>
+        <v>0.9880543823126131</v>
       </c>
       <c r="E18">
-        <v>0.9724516660631283</v>
+        <v>0.972579988532796</v>
       </c>
       <c r="F18">
-        <v>0.9818629887710772</v>
+        <v>0.9819776703214803</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031501047906063</v>
+        <v>1.031557778683541</v>
       </c>
       <c r="J18">
-        <v>0.9885376007993972</v>
+        <v>0.9886633003034049</v>
       </c>
       <c r="K18">
-        <v>1.001978535066248</v>
+        <v>1.002082548499645</v>
       </c>
       <c r="L18">
-        <v>0.9867634889048799</v>
+        <v>0.9868894300699705</v>
       </c>
       <c r="M18">
-        <v>0.9960023111574363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9961149172222776</v>
+      </c>
+      <c r="N18">
+        <v>0.9835927225928112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9608919151179812</v>
+        <v>0.9610211932888203</v>
       </c>
       <c r="D19">
-        <v>0.9887546581029804</v>
+        <v>0.988858971448749</v>
       </c>
       <c r="E19">
-        <v>0.9734171953950213</v>
+        <v>0.9735435915983507</v>
       </c>
       <c r="F19">
-        <v>0.9828011456068791</v>
+        <v>0.9829140895404532</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03189865315886</v>
+        <v>1.031954539616455</v>
       </c>
       <c r="J19">
-        <v>0.9893745564476274</v>
+        <v>0.9894983994783035</v>
       </c>
       <c r="K19">
-        <v>1.002704762877932</v>
+        <v>1.002807232337446</v>
       </c>
       <c r="L19">
-        <v>0.9876440155906416</v>
+        <v>0.9877680849541526</v>
       </c>
       <c r="M19">
-        <v>0.9968573299446015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9969682459092345</v>
+      </c>
+      <c r="N19">
+        <v>0.9842656913371652</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9562678140839</v>
+        <v>0.9564061785611336</v>
       </c>
       <c r="D20">
-        <v>0.9851157463435272</v>
+        <v>0.9852272979185687</v>
       </c>
       <c r="E20">
-        <v>0.9690588020200802</v>
+        <v>0.9691939896549688</v>
       </c>
       <c r="F20">
-        <v>0.9785669101575946</v>
+        <v>0.9786877880594361</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030102287922312</v>
+        <v>1.030162026405392</v>
       </c>
       <c r="J20">
-        <v>0.9855952294021454</v>
+        <v>0.9857275388236434</v>
       </c>
       <c r="K20">
-        <v>0.9994254658670204</v>
+        <v>0.9995349783125558</v>
       </c>
       <c r="L20">
-        <v>0.9836684454916035</v>
+        <v>0.9838010537142933</v>
       </c>
       <c r="M20">
-        <v>0.9929974033896848</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9931160329601444</v>
+      </c>
+      <c r="N20">
+        <v>0.9812251817493021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9403914727009497</v>
+        <v>0.9405631865442673</v>
       </c>
       <c r="D21">
-        <v>0.9726418853537916</v>
+        <v>0.972779903204558</v>
       </c>
       <c r="E21">
-        <v>0.9541138098821502</v>
+        <v>0.9542811656464543</v>
       </c>
       <c r="F21">
-        <v>0.9640593963839253</v>
+        <v>0.9642093788089831</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023914156981104</v>
+        <v>1.023987960355948</v>
       </c>
       <c r="J21">
-        <v>0.9726115743582988</v>
+        <v>0.9727747264590639</v>
       </c>
       <c r="K21">
-        <v>0.9881607880343972</v>
+        <v>0.9882959940875887</v>
       </c>
       <c r="L21">
-        <v>0.9700199731664875</v>
+        <v>0.9701837417427844</v>
       </c>
       <c r="M21">
-        <v>0.9797552382554209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9799020928563077</v>
+      </c>
+      <c r="N21">
+        <v>0.9707492417226825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9296577525116152</v>
+        <v>0.9298541450287747</v>
       </c>
       <c r="D22">
-        <v>0.9642275765232219</v>
+        <v>0.9643850812330542</v>
       </c>
       <c r="E22">
-        <v>0.9440268894889541</v>
+        <v>0.9442179530926864</v>
       </c>
       <c r="F22">
-        <v>0.9542781338216551</v>
+        <v>0.9544496353583293</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019715845137296</v>
+        <v>1.019799986443535</v>
       </c>
       <c r="J22">
-        <v>0.963828915355136</v>
+        <v>0.9640146710684999</v>
       </c>
       <c r="K22">
-        <v>0.9805426361063979</v>
+        <v>0.9806967061037385</v>
       </c>
       <c r="L22">
-        <v>0.960795172379056</v>
+        <v>0.9609818278082503</v>
       </c>
       <c r="M22">
-        <v>0.9708132240978321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9709808811213914</v>
+      </c>
+      <c r="N22">
+        <v>0.9636392453557485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9354269417527843</v>
+        <v>0.9356098382955168</v>
       </c>
       <c r="D23">
-        <v>0.9687481095564888</v>
+        <v>0.9688949676661266</v>
       </c>
       <c r="E23">
-        <v>0.9494466885399532</v>
+        <v>0.9496247970288015</v>
       </c>
       <c r="F23">
-        <v>0.9595326501890157</v>
+        <v>0.9596923857175098</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021973619569326</v>
+        <v>1.022052114524584</v>
       </c>
       <c r="J23">
-        <v>0.9685497691579438</v>
+        <v>0.9687231859169508</v>
       </c>
       <c r="K23">
-        <v>0.9846373265098072</v>
+        <v>0.9847810955814637</v>
       </c>
       <c r="L23">
-        <v>0.9657529676793494</v>
+        <v>0.9659271244608993</v>
       </c>
       <c r="M23">
-        <v>0.9756182164025674</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9757745059147122</v>
+      </c>
+      <c r="N23">
+        <v>0.9674631871793283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9565227964797082</v>
+        <v>0.9566606529933365</v>
       </c>
       <c r="D24">
-        <v>0.9853163383238096</v>
+        <v>0.9854274855632559</v>
       </c>
       <c r="E24">
-        <v>0.9692990681933723</v>
+        <v>0.9694337646590473</v>
       </c>
       <c r="F24">
-        <v>0.9788002917628246</v>
+        <v>0.978920726164407</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030201420644586</v>
+        <v>1.030260944014329</v>
       </c>
       <c r="J24">
-        <v>0.9858036603659686</v>
+        <v>0.9859354972144611</v>
       </c>
       <c r="K24">
-        <v>0.999606317603091</v>
+        <v>0.9997154368098141</v>
       </c>
       <c r="L24">
-        <v>0.983887665850151</v>
+        <v>0.9840197972826921</v>
       </c>
       <c r="M24">
-        <v>0.9932102151261176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9933284137423906</v>
+      </c>
+      <c r="N24">
+        <v>0.9813929774551117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9783602114209802</v>
+        <v>0.9784573828564179</v>
       </c>
       <c r="D25">
-        <v>1.002522221367702</v>
+        <v>1.002600861978952</v>
       </c>
       <c r="E25">
-        <v>0.9899038149227585</v>
+        <v>0.9899990508127033</v>
       </c>
       <c r="F25">
-        <v>0.99883198616431</v>
+        <v>0.9989168842906863</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038654102130949</v>
+        <v>1.038696304668955</v>
       </c>
       <c r="J25">
-        <v>1.003638450916645</v>
+        <v>1.003732146505626</v>
       </c>
       <c r="K25">
-        <v>1.015081508872098</v>
+        <v>1.01515893664101</v>
       </c>
       <c r="L25">
-        <v>1.002660909507683</v>
+        <v>1.002754628273122</v>
       </c>
       <c r="M25">
-        <v>1.011448461143453</v>
+        <v>1.011532037536779</v>
+      </c>
+      <c r="N25">
+        <v>0.995699442374296</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9942252208873453</v>
+        <v>1.030233595385574</v>
       </c>
       <c r="D2">
-        <v>1.015052490486158</v>
+        <v>1.044695750634828</v>
       </c>
       <c r="E2">
-        <v>1.004909462561076</v>
+        <v>1.047278926014168</v>
       </c>
       <c r="F2">
-        <v>1.013435987363115</v>
+        <v>1.052612808273699</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044741343100312</v>
+        <v>1.05210098117815</v>
       </c>
       <c r="J2">
-        <v>1.01658003726864</v>
+        <v>1.051546154071858</v>
       </c>
       <c r="K2">
-        <v>1.026306028867344</v>
+        <v>1.055565635602124</v>
       </c>
       <c r="L2">
-        <v>1.016300821895789</v>
+        <v>1.058116660360561</v>
       </c>
       <c r="M2">
-        <v>1.024711258060919</v>
+        <v>1.063384777307595</v>
       </c>
       <c r="N2">
-        <v>1.005952620608844</v>
+        <v>1.05303947022467</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004917427091143</v>
+        <v>1.039442865753532</v>
       </c>
       <c r="D3">
-        <v>1.023506643071174</v>
+        <v>1.052054322462199</v>
       </c>
       <c r="E3">
-        <v>1.01503594212353</v>
+        <v>1.055949058737724</v>
       </c>
       <c r="F3">
-        <v>1.023307014500019</v>
+        <v>1.061122201818141</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04880527883034</v>
+        <v>1.054826471820345</v>
       </c>
       <c r="J3">
-        <v>1.025274929861753</v>
+        <v>1.058913127377286</v>
       </c>
       <c r="K3">
-        <v>1.033847333472332</v>
+        <v>1.062061817626902</v>
       </c>
       <c r="L3">
-        <v>1.025479983173174</v>
+        <v>1.065912816233598</v>
       </c>
       <c r="M3">
-        <v>1.033650116114199</v>
+        <v>1.071028475559321</v>
       </c>
       <c r="N3">
-        <v>1.012848828743907</v>
+        <v>1.060416905477195</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011532600171487</v>
+        <v>1.045197772194832</v>
       </c>
       <c r="D4">
-        <v>1.028740588032808</v>
+        <v>1.056654082267668</v>
       </c>
       <c r="E4">
-        <v>1.021307429773386</v>
+        <v>1.061372854331791</v>
       </c>
       <c r="F4">
-        <v>1.029424537210313</v>
+        <v>1.066445427131375</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051302699003683</v>
+        <v>1.05651532169543</v>
       </c>
       <c r="J4">
-        <v>1.030645831722762</v>
+        <v>1.063511952728479</v>
       </c>
       <c r="K4">
-        <v>1.038504085628536</v>
+        <v>1.06611364336288</v>
       </c>
       <c r="L4">
-        <v>1.03115531851457</v>
+        <v>1.070782965369763</v>
       </c>
       <c r="M4">
-        <v>1.039180345114736</v>
+        <v>1.075802975902844</v>
       </c>
       <c r="N4">
-        <v>1.01708909008417</v>
+        <v>1.06502226168788</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014246908164304</v>
+        <v>1.047571511309503</v>
       </c>
       <c r="D5">
-        <v>1.030888787664838</v>
+        <v>1.058551546532421</v>
       </c>
       <c r="E5">
-        <v>1.023882118111667</v>
+        <v>1.063611315687728</v>
       </c>
       <c r="F5">
-        <v>1.031936968090932</v>
+        <v>1.068642360664142</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052323286241452</v>
+        <v>1.057208412379731</v>
       </c>
       <c r="J5">
-        <v>1.032847469662622</v>
+        <v>1.065407606363355</v>
       </c>
       <c r="K5">
-        <v>1.040412551257793</v>
+        <v>1.067782971603227</v>
       </c>
       <c r="L5">
-        <v>1.033483009487572</v>
+        <v>1.072791273003401</v>
       </c>
       <c r="M5">
-        <v>1.041449304099862</v>
+        <v>1.077771730004698</v>
       </c>
       <c r="N5">
-        <v>1.018822571863565</v>
+        <v>1.066920607368351</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014698898320739</v>
+        <v>1.047967485297351</v>
       </c>
       <c r="D6">
-        <v>1.031246540602521</v>
+        <v>1.05886807850103</v>
       </c>
       <c r="E6">
-        <v>1.02431093783552</v>
+        <v>1.063984797042094</v>
       </c>
       <c r="F6">
-        <v>1.032355472887158</v>
+        <v>1.069008911477372</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052492989525312</v>
+        <v>1.057323821115104</v>
       </c>
       <c r="J6">
-        <v>1.033213962162805</v>
+        <v>1.065723754068401</v>
       </c>
       <c r="K6">
-        <v>1.040730214613001</v>
+        <v>1.068061322980056</v>
       </c>
       <c r="L6">
-        <v>1.033870559091049</v>
+        <v>1.073126256322037</v>
       </c>
       <c r="M6">
-        <v>1.041827119780289</v>
+        <v>1.078100108988454</v>
       </c>
       <c r="N6">
-        <v>1.019110858028791</v>
+        <v>1.067237204039402</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011569123764454</v>
+        <v>1.045229665443171</v>
       </c>
       <c r="D7">
-        <v>1.028769491836441</v>
+        <v>1.056679575763486</v>
       </c>
       <c r="E7">
-        <v>1.021342069240599</v>
+        <v>1.061402924989863</v>
       </c>
       <c r="F7">
-        <v>1.029458335382951</v>
+        <v>1.066474940026554</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051316448531197</v>
+        <v>1.056524647986854</v>
       </c>
       <c r="J7">
-        <v>1.030675465386297</v>
+        <v>1.063537427469014</v>
       </c>
       <c r="K7">
-        <v>1.038529775010167</v>
+        <v>1.066136080039039</v>
       </c>
       <c r="L7">
-        <v>1.031186643840577</v>
+        <v>1.070809950793176</v>
       </c>
       <c r="M7">
-        <v>1.039210877001521</v>
+        <v>1.075829430303792</v>
       </c>
       <c r="N7">
-        <v>1.017112441033788</v>
+        <v>1.065047772605468</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9979053505443602</v>
+        <v>1.033390232494463</v>
       </c>
       <c r="D8">
-        <v>1.017961448648991</v>
+        <v>1.047217652711221</v>
       </c>
       <c r="E8">
-        <v>1.008393449454107</v>
+        <v>1.050249475065238</v>
       </c>
       <c r="F8">
-        <v>1.016831139186656</v>
+        <v>1.055528277253266</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046143647049584</v>
+        <v>1.053038172785192</v>
       </c>
       <c r="J8">
-        <v>1.019574489101698</v>
+        <v>1.054072283421478</v>
       </c>
       <c r="K8">
-        <v>1.028903495331417</v>
+        <v>1.057793873117618</v>
       </c>
       <c r="L8">
-        <v>1.019460913897462</v>
+        <v>1.060789231305096</v>
       </c>
       <c r="M8">
-        <v>1.027787848088855</v>
+        <v>1.066005163912752</v>
       </c>
       <c r="N8">
-        <v>1.008331807466993</v>
+        <v>1.055569186967717</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9711870309017514</v>
+        <v>1.010798593598649</v>
       </c>
       <c r="D9">
-        <v>0.9968671059305012</v>
+        <v>1.029181161769943</v>
       </c>
       <c r="E9">
-        <v>0.9831334313869137</v>
+        <v>1.029019550139476</v>
       </c>
       <c r="F9">
-        <v>0.9922374760545377</v>
+        <v>1.034692762523331</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035891592959664</v>
+        <v>1.046271846781812</v>
       </c>
       <c r="J9">
-        <v>0.9977999491490382</v>
+        <v>1.035975704944583</v>
       </c>
       <c r="K9">
-        <v>1.010011217483346</v>
+        <v>1.041817894209794</v>
       </c>
       <c r="L9">
-        <v>0.9965062157391159</v>
+        <v>1.041658719137191</v>
       </c>
       <c r="M9">
-        <v>1.005457762942424</v>
+        <v>1.047246977946655</v>
       </c>
       <c r="N9">
-        <v>0.9909429412297995</v>
+        <v>1.037446909273678</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9510477221413742</v>
+        <v>0.9943041684716771</v>
       </c>
       <c r="D10">
-        <v>0.9810137666967873</v>
+        <v>1.016037123053955</v>
       </c>
       <c r="E10">
-        <v>0.9641468160993708</v>
+        <v>1.013563999418539</v>
       </c>
       <c r="F10">
-        <v>0.9737856108612861</v>
+        <v>1.019526441430994</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028077148592707</v>
+        <v>1.041260246772777</v>
       </c>
       <c r="J10">
-        <v>0.9813478049612256</v>
+        <v>1.02274560831701</v>
       </c>
       <c r="K10">
-        <v>0.9957344989691993</v>
+        <v>1.030122736083074</v>
       </c>
       <c r="L10">
-        <v>0.9791950577699836</v>
+        <v>1.027692595505003</v>
       </c>
       <c r="M10">
-        <v>0.9886448733959333</v>
+        <v>1.033551868318881</v>
       </c>
       <c r="N10">
-        <v>0.9776882814765319</v>
+        <v>1.024198024391382</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9416080822866827</v>
+        <v>0.9867470044782305</v>
       </c>
       <c r="D11">
-        <v>0.9735998481088717</v>
+        <v>1.010024090728158</v>
       </c>
       <c r="E11">
-        <v>0.9552637934352985</v>
+        <v>1.006495761134576</v>
       </c>
       <c r="F11">
-        <v>0.9651628227273534</v>
+        <v>1.012591396473594</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024396020688352</v>
+        <v>1.038948819895459</v>
       </c>
       <c r="J11">
-        <v>0.9736292999220352</v>
+        <v>1.016681709286201</v>
       </c>
       <c r="K11">
-        <v>0.9890374178658354</v>
+        <v>1.024759411321606</v>
       </c>
       <c r="L11">
-        <v>0.9710817333690496</v>
+        <v>1.021296207867738</v>
       </c>
       <c r="M11">
-        <v>0.9807730429757247</v>
+        <v>1.027279700893946</v>
       </c>
       <c r="N11">
-        <v>0.9714418204644401</v>
+        <v>1.01812551392841</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9379748318534962</v>
+        <v>0.9838698223184822</v>
       </c>
       <c r="D12">
-        <v>0.9707494219933438</v>
+        <v>1.007736489617762</v>
       </c>
       <c r="E12">
-        <v>0.9518476252465672</v>
+        <v>1.003806904791594</v>
       </c>
       <c r="F12">
-        <v>0.9618484564128131</v>
+        <v>1.009953390015597</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022976677352744</v>
+        <v>1.038066681533473</v>
       </c>
       <c r="J12">
-        <v>0.9706576893665005</v>
+        <v>1.01437288369199</v>
       </c>
       <c r="K12">
-        <v>0.9864593241323734</v>
+        <v>1.022716956632379</v>
       </c>
       <c r="L12">
-        <v>0.9679593896366223</v>
+        <v>1.018861532147684</v>
       </c>
       <c r="M12">
-        <v>0.9777449921569283</v>
+        <v>1.024892351291552</v>
       </c>
       <c r="N12">
-        <v>0.969032706347397</v>
+        <v>1.015813409537028</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9387602798301414</v>
+        <v>0.9844903005468805</v>
       </c>
       <c r="D13">
-        <v>0.9713654839100724</v>
+        <v>1.008229739603986</v>
       </c>
       <c r="E13">
-        <v>0.9525860084350521</v>
+        <v>1.004386667154011</v>
       </c>
       <c r="F13">
-        <v>0.9625647542974971</v>
+        <v>1.010522179355804</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023283623580915</v>
+        <v>1.038257011790182</v>
       </c>
       <c r="J13">
-        <v>0.9713001336730349</v>
+        <v>1.01487079709131</v>
       </c>
       <c r="K13">
-        <v>0.9870166776313003</v>
+        <v>1.023157440930005</v>
       </c>
       <c r="L13">
-        <v>0.9686343635645017</v>
+        <v>1.01938655212597</v>
       </c>
       <c r="M13">
-        <v>0.9783995183275438</v>
+        <v>1.025407163247738</v>
       </c>
       <c r="N13">
-        <v>0.9695537333246511</v>
+        <v>1.016312030030487</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9413104736718059</v>
+        <v>0.9865106559367156</v>
       </c>
       <c r="D14">
-        <v>0.9733662953246195</v>
+        <v>1.009836137445374</v>
       </c>
       <c r="E14">
-        <v>0.9549839066719932</v>
+        <v>1.006274837161631</v>
       </c>
       <c r="F14">
-        <v>0.9648912404643281</v>
+        <v>1.012374646529125</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02427980753105</v>
+        <v>1.038876397859081</v>
       </c>
       <c r="J14">
-        <v>0.9733859025825856</v>
+        <v>1.016492050983392</v>
       </c>
       <c r="K14">
-        <v>0.9888262461288725</v>
+        <v>1.024591641125221</v>
       </c>
       <c r="L14">
-        <v>0.9708259639422223</v>
+        <v>1.021096196456641</v>
       </c>
       <c r="M14">
-        <v>0.9805249692609181</v>
+        <v>1.027083576307727</v>
       </c>
       <c r="N14">
-        <v>0.9712445813697727</v>
+        <v>1.017935586289056</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9428642601783666</v>
+        <v>0.9877459166360587</v>
       </c>
       <c r="D15">
-        <v>0.9745857829966857</v>
+        <v>1.010818534193519</v>
       </c>
       <c r="E15">
-        <v>0.956445286373058</v>
+        <v>1.007429572229306</v>
       </c>
       <c r="F15">
-        <v>0.9663093305949164</v>
+        <v>1.013507572226792</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024886446108694</v>
+        <v>1.039254821929971</v>
       </c>
       <c r="J15">
-        <v>0.9746566260064212</v>
+        <v>1.017483282689556</v>
       </c>
       <c r="K15">
-        <v>0.9899287386966967</v>
+        <v>1.025468462008785</v>
       </c>
       <c r="L15">
-        <v>0.9721613308585619</v>
+        <v>1.022141568011874</v>
       </c>
       <c r="M15">
-        <v>0.9818202127723603</v>
+        <v>1.028108635102126</v>
       </c>
       <c r="N15">
-        <v>0.9722741517442589</v>
+        <v>1.018928225657939</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9516575429153475</v>
+        <v>0.9947963369523324</v>
       </c>
       <c r="D16">
-        <v>0.981493111977547</v>
+        <v>1.016428941938136</v>
       </c>
       <c r="E16">
-        <v>0.9647210414213178</v>
+        <v>1.014024611492048</v>
       </c>
       <c r="F16">
-        <v>0.9743432353997049</v>
+        <v>1.019978396174947</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028314602944908</v>
+        <v>1.041410479951068</v>
       </c>
       <c r="J16">
-        <v>0.9818463117073485</v>
+        <v>1.023140493260153</v>
       </c>
       <c r="K16">
-        <v>0.9961670643953121</v>
+        <v>1.030471944149363</v>
       </c>
       <c r="L16">
-        <v>0.979719234331178</v>
+        <v>1.028109233535386</v>
       </c>
       <c r="M16">
-        <v>0.989153622587488</v>
+        <v>1.033960419430648</v>
       </c>
       <c r="N16">
-        <v>0.9780911413234158</v>
+        <v>1.024593470116437</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9569688920232921</v>
+        <v>0.99910270629973</v>
       </c>
       <c r="D17">
-        <v>0.9856699785142127</v>
+        <v>1.019858327621881</v>
       </c>
       <c r="E17">
-        <v>0.9697242087059174</v>
+        <v>1.018056344455077</v>
       </c>
       <c r="F17">
-        <v>0.9792028947809913</v>
+        <v>1.023934459318365</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030380748831194</v>
+        <v>1.042723292707463</v>
       </c>
       <c r="J17">
-        <v>0.9861873877621079</v>
+        <v>1.026595409904635</v>
       </c>
       <c r="K17">
-        <v>0.9999340184142625</v>
+        <v>1.0335269026021</v>
       </c>
       <c r="L17">
-        <v>0.9842847565862427</v>
+        <v>1.031755018026908</v>
       </c>
       <c r="M17">
-        <v>0.9935856708899664</v>
+        <v>1.037535453420066</v>
       </c>
       <c r="N17">
-        <v>0.9815962030031959</v>
+        <v>1.028053293138839</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9599990168902112</v>
+        <v>1.001575090858752</v>
       </c>
       <c r="D18">
-        <v>0.9880543823126131</v>
+        <v>1.021828041304937</v>
       </c>
       <c r="E18">
-        <v>0.972579988532796</v>
+        <v>1.020372244695542</v>
       </c>
       <c r="F18">
-        <v>0.9819776703214803</v>
+        <v>1.026206976329161</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031557778683541</v>
+        <v>1.043475570796068</v>
       </c>
       <c r="J18">
-        <v>0.9886633003034049</v>
+        <v>1.028578724938159</v>
       </c>
       <c r="K18">
-        <v>1.002082548499645</v>
+        <v>1.03528033913935</v>
       </c>
       <c r="L18">
-        <v>0.9868894300699705</v>
+        <v>1.033848354178173</v>
       </c>
       <c r="M18">
-        <v>0.9961149172222776</v>
+        <v>1.039588173088751</v>
       </c>
       <c r="N18">
-        <v>0.9835927225928112</v>
+        <v>1.0300394247072</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9610211932888203</v>
+        <v>1.002411633502176</v>
       </c>
       <c r="D19">
-        <v>0.988858971448749</v>
+        <v>1.022494634136342</v>
       </c>
       <c r="E19">
-        <v>0.9735435915983507</v>
+        <v>1.021156035803255</v>
       </c>
       <c r="F19">
-        <v>0.9829140895404532</v>
+        <v>1.026976097762312</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031954539616455</v>
+        <v>1.043729859058931</v>
       </c>
       <c r="J19">
-        <v>0.9894983994783035</v>
+        <v>1.029249744411661</v>
       </c>
       <c r="K19">
-        <v>1.002807232337446</v>
+        <v>1.035873533851845</v>
       </c>
       <c r="L19">
-        <v>0.9877680849541526</v>
+        <v>1.034556673696051</v>
       </c>
       <c r="M19">
-        <v>0.9969682459092345</v>
+        <v>1.040282749667088</v>
       </c>
       <c r="N19">
-        <v>0.9842656913371652</v>
+        <v>1.030711397105321</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9564061785611336</v>
+        <v>0.998644805742206</v>
       </c>
       <c r="D20">
-        <v>0.9852272979185687</v>
+        <v>1.019493589575049</v>
       </c>
       <c r="E20">
-        <v>0.9691939896549688</v>
+        <v>1.017627520814516</v>
       </c>
       <c r="F20">
-        <v>0.9786877880594361</v>
+        <v>1.023513675175878</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030162026405392</v>
+        <v>1.042583848492566</v>
       </c>
       <c r="J20">
-        <v>0.9857275388236434</v>
+        <v>1.026228067994691</v>
       </c>
       <c r="K20">
-        <v>0.9995349783125558</v>
+        <v>1.033202114693175</v>
       </c>
       <c r="L20">
-        <v>0.9838010537142933</v>
+        <v>1.031367335045034</v>
       </c>
       <c r="M20">
-        <v>0.9931160329601444</v>
+        <v>1.037155292935021</v>
       </c>
       <c r="N20">
-        <v>0.9812251817493021</v>
+        <v>1.027685429561248</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9405631865442673</v>
+        <v>0.9859177165397024</v>
       </c>
       <c r="D21">
-        <v>0.972779903204558</v>
+        <v>1.009364638075391</v>
       </c>
       <c r="E21">
-        <v>0.9542811656464543</v>
+        <v>1.005720630027205</v>
       </c>
       <c r="F21">
-        <v>0.9642093788089831</v>
+        <v>1.011830913379936</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023987960355948</v>
+        <v>1.038694675566719</v>
       </c>
       <c r="J21">
-        <v>0.9727747264590639</v>
+        <v>1.016016243797541</v>
       </c>
       <c r="K21">
-        <v>0.9882959940875887</v>
+        <v>1.0241707402311</v>
       </c>
       <c r="L21">
-        <v>0.9701837417427844</v>
+        <v>1.020594427813271</v>
       </c>
       <c r="M21">
-        <v>0.9799020928563077</v>
+        <v>1.026591559352823</v>
       </c>
       <c r="N21">
-        <v>0.9707492417226825</v>
+        <v>1.017459103402425</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9298541450287747</v>
+        <v>0.9775050877288061</v>
       </c>
       <c r="D22">
-        <v>0.9643850812330542</v>
+        <v>1.002679539808859</v>
       </c>
       <c r="E22">
-        <v>0.9442179530926864</v>
+        <v>0.997863103769455</v>
       </c>
       <c r="F22">
-        <v>0.9544496353583293</v>
+        <v>1.004122383632389</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019799986443535</v>
+        <v>1.036111546304832</v>
       </c>
       <c r="J22">
-        <v>0.9640146710684999</v>
+        <v>1.009265370095879</v>
       </c>
       <c r="K22">
-        <v>0.9806967061037385</v>
+        <v>1.018198100729225</v>
       </c>
       <c r="L22">
-        <v>0.9609818278082503</v>
+        <v>1.013477012183703</v>
       </c>
       <c r="M22">
-        <v>0.9709808811213914</v>
+        <v>1.019612615269829</v>
       </c>
       <c r="N22">
-        <v>0.9636392453557485</v>
+        <v>1.010698642685771</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9356098382955168</v>
+        <v>0.9820066805010181</v>
       </c>
       <c r="D23">
-        <v>0.9688949676661266</v>
+        <v>1.006255659343349</v>
       </c>
       <c r="E23">
-        <v>0.9496247970288015</v>
+        <v>1.00206636259532</v>
       </c>
       <c r="F23">
-        <v>0.9596923857175098</v>
+        <v>1.008245820928398</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022052114524584</v>
+        <v>1.037494869991776</v>
       </c>
       <c r="J23">
-        <v>0.9687231859169508</v>
+        <v>1.012877765931444</v>
       </c>
       <c r="K23">
-        <v>0.9847810955814637</v>
+        <v>1.021394236570584</v>
       </c>
       <c r="L23">
-        <v>0.9659271244608993</v>
+        <v>1.017285130056333</v>
       </c>
       <c r="M23">
-        <v>0.9757745059147122</v>
+        <v>1.023346608295901</v>
       </c>
       <c r="N23">
-        <v>0.9674631871793283</v>
+        <v>1.01431616853777</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9566606529933365</v>
+        <v>0.9988518326294442</v>
       </c>
       <c r="D24">
-        <v>0.9854274855632559</v>
+        <v>1.019658493103099</v>
       </c>
       <c r="E24">
-        <v>0.9694337646590473</v>
+        <v>1.017821397702402</v>
       </c>
       <c r="F24">
-        <v>0.978920726164407</v>
+        <v>1.023703917044717</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030260944014329</v>
+        <v>1.042646898765429</v>
       </c>
       <c r="J24">
-        <v>0.9859354972144611</v>
+        <v>1.026394152063207</v>
       </c>
       <c r="K24">
-        <v>0.9997154368098141</v>
+        <v>1.033348959956114</v>
       </c>
       <c r="L24">
-        <v>0.9840197972826921</v>
+        <v>1.031542614392784</v>
       </c>
       <c r="M24">
-        <v>0.9933284137423906</v>
+        <v>1.037327171189406</v>
       </c>
       <c r="N24">
-        <v>0.9813929774551117</v>
+        <v>1.027851749488191</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9784573828564179</v>
+        <v>1.016869444677557</v>
       </c>
       <c r="D25">
-        <v>1.002600861978952</v>
+        <v>1.03402472427754</v>
       </c>
       <c r="E25">
-        <v>0.9899990508127033</v>
+        <v>1.03471761141765</v>
       </c>
       <c r="F25">
-        <v>0.9989168842906863</v>
+        <v>1.040284731391127</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038696304668955</v>
+        <v>1.048102629744377</v>
       </c>
       <c r="J25">
-        <v>1.003732146505626</v>
+        <v>1.040842122964132</v>
       </c>
       <c r="K25">
-        <v>1.01515893664101</v>
+        <v>1.046116851669697</v>
       </c>
       <c r="L25">
-        <v>1.002754628273122</v>
+        <v>1.046799868324373</v>
       </c>
       <c r="M25">
-        <v>1.011532037536779</v>
+        <v>1.052288285040231</v>
       </c>
       <c r="N25">
-        <v>0.995699442374296</v>
+        <v>1.042320238165002</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030233595385574</v>
+        <v>1.006741321445781</v>
       </c>
       <c r="D2">
-        <v>1.044695750634828</v>
+        <v>1.0271104105069</v>
       </c>
       <c r="E2">
-        <v>1.047278926014168</v>
+        <v>1.024673732892066</v>
       </c>
       <c r="F2">
-        <v>1.052612808273699</v>
+        <v>1.031859424151493</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05210098117815</v>
+        <v>1.050276391548907</v>
       </c>
       <c r="J2">
-        <v>1.051546154071858</v>
+        <v>1.028722253476428</v>
       </c>
       <c r="K2">
-        <v>1.055565635602124</v>
+        <v>1.03820454528383</v>
       </c>
       <c r="L2">
-        <v>1.058116660360561</v>
+        <v>1.035799701067693</v>
       </c>
       <c r="M2">
-        <v>1.063384777307595</v>
+        <v>1.042892056977645</v>
       </c>
       <c r="N2">
-        <v>1.05303947022467</v>
+        <v>1.013416176150286</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039442865753532</v>
+        <v>1.011139391152905</v>
       </c>
       <c r="D3">
-        <v>1.052054322462199</v>
+        <v>1.03043330232294</v>
       </c>
       <c r="E3">
-        <v>1.055949058737724</v>
+        <v>1.028614158613546</v>
       </c>
       <c r="F3">
-        <v>1.061122201818141</v>
+        <v>1.035873234801427</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054826471820345</v>
+        <v>1.05147162197237</v>
       </c>
       <c r="J3">
-        <v>1.058913127377286</v>
+        <v>1.031330923693441</v>
       </c>
       <c r="K3">
-        <v>1.062061817626902</v>
+        <v>1.04069104624696</v>
       </c>
       <c r="L3">
-        <v>1.065912816233598</v>
+        <v>1.038893552596077</v>
       </c>
       <c r="M3">
-        <v>1.071028475559321</v>
+        <v>1.04606679830241</v>
       </c>
       <c r="N3">
-        <v>1.060416905477195</v>
+        <v>1.01428944145318</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045197772194832</v>
+        <v>1.013928224006648</v>
       </c>
       <c r="D4">
-        <v>1.056654082267668</v>
+        <v>1.032540520108303</v>
       </c>
       <c r="E4">
-        <v>1.061372854331791</v>
+        <v>1.031117809676822</v>
       </c>
       <c r="F4">
-        <v>1.066445427131375</v>
+        <v>1.03842256390184</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05651532169543</v>
+        <v>1.052214610532967</v>
       </c>
       <c r="J4">
-        <v>1.063511952728479</v>
+        <v>1.032982232363133</v>
       </c>
       <c r="K4">
-        <v>1.06611364336288</v>
+        <v>1.042261453447611</v>
       </c>
       <c r="L4">
-        <v>1.070782965369763</v>
+        <v>1.040854634024422</v>
       </c>
       <c r="M4">
-        <v>1.075802975902844</v>
+        <v>1.048078365480792</v>
       </c>
       <c r="N4">
-        <v>1.06502226168788</v>
+        <v>1.014842114219068</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047571511309503</v>
+        <v>1.015087467357003</v>
       </c>
       <c r="D5">
-        <v>1.058551546532421</v>
+        <v>1.033416416871439</v>
       </c>
       <c r="E5">
-        <v>1.063611315687728</v>
+        <v>1.032159676170235</v>
       </c>
       <c r="F5">
-        <v>1.068642360664142</v>
+        <v>1.03948320762641</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057208412379731</v>
+        <v>1.052519819866918</v>
       </c>
       <c r="J5">
-        <v>1.065407606363355</v>
+        <v>1.033667917943893</v>
       </c>
       <c r="K5">
-        <v>1.067782971603227</v>
+        <v>1.042912671875913</v>
       </c>
       <c r="L5">
-        <v>1.072791273003401</v>
+        <v>1.041669587816288</v>
       </c>
       <c r="M5">
-        <v>1.077771730004698</v>
+        <v>1.048914105549881</v>
       </c>
       <c r="N5">
-        <v>1.066920607368351</v>
+        <v>1.015071575590271</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047967485297351</v>
+        <v>1.015281349571859</v>
       </c>
       <c r="D6">
-        <v>1.05886807850103</v>
+        <v>1.033562907060255</v>
       </c>
       <c r="E6">
-        <v>1.063984797042094</v>
+        <v>1.03233399470143</v>
       </c>
       <c r="F6">
-        <v>1.069008911477372</v>
+        <v>1.039660654157814</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057323821115104</v>
+        <v>1.052570650809249</v>
       </c>
       <c r="J6">
-        <v>1.065723754068401</v>
+        <v>1.033782554886179</v>
       </c>
       <c r="K6">
-        <v>1.068061322980056</v>
+        <v>1.043021494503767</v>
       </c>
       <c r="L6">
-        <v>1.073126256322037</v>
+        <v>1.041805874239011</v>
       </c>
       <c r="M6">
-        <v>1.078100108988454</v>
+        <v>1.049053856575459</v>
       </c>
       <c r="N6">
-        <v>1.067237204039402</v>
+        <v>1.015109936500139</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045229665443171</v>
+        <v>1.01394376506704</v>
       </c>
       <c r="D7">
-        <v>1.056679575763486</v>
+        <v>1.032552262705671</v>
       </c>
       <c r="E7">
-        <v>1.061402924989863</v>
+        <v>1.031131772601944</v>
       </c>
       <c r="F7">
-        <v>1.066474940026554</v>
+        <v>1.038436779393635</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056524647986854</v>
+        <v>1.052218716646576</v>
       </c>
       <c r="J7">
-        <v>1.063537427469014</v>
+        <v>1.032991427693168</v>
       </c>
       <c r="K7">
-        <v>1.066136080039039</v>
+        <v>1.042270190035426</v>
       </c>
       <c r="L7">
-        <v>1.070809950793176</v>
+        <v>1.040865560365924</v>
       </c>
       <c r="M7">
-        <v>1.075829430303792</v>
+        <v>1.048089571282204</v>
       </c>
       <c r="N7">
-        <v>1.065047772605468</v>
+        <v>1.014845191510585</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033390232494463</v>
+        <v>1.008239762938214</v>
       </c>
       <c r="D8">
-        <v>1.047217652711221</v>
+        <v>1.028242466293236</v>
       </c>
       <c r="E8">
-        <v>1.050249475065238</v>
+        <v>1.026015179281734</v>
       </c>
       <c r="F8">
-        <v>1.055528277253266</v>
+        <v>1.033226049635068</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053038172785192</v>
+        <v>1.050686705129758</v>
       </c>
       <c r="J8">
-        <v>1.054072283421478</v>
+        <v>1.02961161755076</v>
       </c>
       <c r="K8">
-        <v>1.057793873117618</v>
+        <v>1.039052996494789</v>
       </c>
       <c r="L8">
-        <v>1.060789231305096</v>
+        <v>1.036853922019635</v>
       </c>
       <c r="M8">
-        <v>1.066005163912752</v>
+        <v>1.043974003034639</v>
       </c>
       <c r="N8">
-        <v>1.055569186967717</v>
+        <v>1.013713916921324</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010798593598649</v>
+        <v>0.9977297517708628</v>
       </c>
       <c r="D9">
-        <v>1.029181161769943</v>
+        <v>1.020305315798322</v>
       </c>
       <c r="E9">
-        <v>1.029019550139476</v>
+        <v>1.01662918354995</v>
       </c>
       <c r="F9">
-        <v>1.034692762523331</v>
+        <v>1.023660013552518</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046271846781812</v>
+        <v>1.047747745768364</v>
       </c>
       <c r="J9">
-        <v>1.035975704944583</v>
+        <v>1.023362933853784</v>
       </c>
       <c r="K9">
-        <v>1.041817894209794</v>
+        <v>1.033077324967102</v>
       </c>
       <c r="L9">
-        <v>1.041658719137191</v>
+        <v>1.029458104612848</v>
       </c>
       <c r="M9">
-        <v>1.047246977946655</v>
+        <v>1.036380542079223</v>
       </c>
       <c r="N9">
-        <v>1.037446909273678</v>
+        <v>1.011621619862627</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9943041684716771</v>
+        <v>0.9903816059675735</v>
       </c>
       <c r="D10">
-        <v>1.016037123053955</v>
+        <v>1.014762599278656</v>
       </c>
       <c r="E10">
-        <v>1.013563999418539</v>
+        <v>1.01009783078717</v>
       </c>
       <c r="F10">
-        <v>1.019526441430994</v>
+        <v>1.016998638064183</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041260246772777</v>
+        <v>1.045617830110438</v>
       </c>
       <c r="J10">
-        <v>1.02274560831701</v>
+        <v>1.018982105081671</v>
       </c>
       <c r="K10">
-        <v>1.030122736083074</v>
+        <v>1.028870329750511</v>
       </c>
       <c r="L10">
-        <v>1.027692595505003</v>
+        <v>1.024287128253979</v>
       </c>
       <c r="M10">
-        <v>1.033551868318881</v>
+        <v>1.031067612903162</v>
       </c>
       <c r="N10">
-        <v>1.024198024391382</v>
+        <v>1.010154402213701</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9867470044782305</v>
+        <v>0.9871108104734471</v>
       </c>
       <c r="D11">
-        <v>1.010024090728158</v>
+        <v>1.012297920462992</v>
       </c>
       <c r="E11">
-        <v>1.006495761134576</v>
+        <v>1.007198590404354</v>
       </c>
       <c r="F11">
-        <v>1.012591396473594</v>
+        <v>1.014040611552315</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038948819895459</v>
+        <v>1.044652741245172</v>
       </c>
       <c r="J11">
-        <v>1.016681709286201</v>
+        <v>1.017029802247269</v>
       </c>
       <c r="K11">
-        <v>1.024759411321606</v>
+        <v>1.026991583719715</v>
       </c>
       <c r="L11">
-        <v>1.021296207867738</v>
+        <v>1.021986016820308</v>
       </c>
       <c r="M11">
-        <v>1.027279700893946</v>
+        <v>1.028702512653528</v>
       </c>
       <c r="N11">
-        <v>1.01812551392841</v>
+        <v>1.009500496377299</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9838698223184822</v>
+        <v>0.9858817870265942</v>
       </c>
       <c r="D12">
-        <v>1.007736489617762</v>
+        <v>1.0113722567037</v>
       </c>
       <c r="E12">
-        <v>1.003806904791594</v>
+        <v>1.006110439451106</v>
       </c>
       <c r="F12">
-        <v>1.009953390015597</v>
+        <v>1.012930241018996</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038066681533473</v>
+        <v>1.044287614911018</v>
       </c>
       <c r="J12">
-        <v>1.01437288369199</v>
+        <v>1.016295911176089</v>
       </c>
       <c r="K12">
-        <v>1.022716956632379</v>
+        <v>1.026284777938368</v>
       </c>
       <c r="L12">
-        <v>1.018861532147684</v>
+        <v>1.021121501989839</v>
       </c>
       <c r="M12">
-        <v>1.024892351291552</v>
+        <v>1.027813841060086</v>
       </c>
       <c r="N12">
-        <v>1.015813409537028</v>
+        <v>1.009254682880945</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9844903005468805</v>
+        <v>0.9861460673120114</v>
       </c>
       <c r="D13">
-        <v>1.008229739603986</v>
+        <v>1.011571282760507</v>
       </c>
       <c r="E13">
-        <v>1.004386667154011</v>
+        <v>1.006344369719588</v>
       </c>
       <c r="F13">
-        <v>1.010522179355804</v>
+        <v>1.013168955003782</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038257011790182</v>
+        <v>1.044366240276256</v>
       </c>
       <c r="J13">
-        <v>1.01487079709131</v>
+        <v>1.016453734559565</v>
       </c>
       <c r="K13">
-        <v>1.023157440930005</v>
+        <v>1.026436801811939</v>
       </c>
       <c r="L13">
-        <v>1.01938655212597</v>
+        <v>1.021307393596151</v>
       </c>
       <c r="M13">
-        <v>1.025407163247738</v>
+        <v>1.028004932111795</v>
       </c>
       <c r="N13">
-        <v>1.016312030030487</v>
+        <v>1.009307545212018</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9865106559367156</v>
+        <v>0.9870095111555601</v>
       </c>
       <c r="D14">
-        <v>1.009836137445374</v>
+        <v>1.012221615086508</v>
       </c>
       <c r="E14">
-        <v>1.006274837161631</v>
+        <v>1.007108876242974</v>
       </c>
       <c r="F14">
-        <v>1.012374646529125</v>
+        <v>1.013949068604983</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038876397859081</v>
+        <v>1.04462269673399</v>
       </c>
       <c r="J14">
-        <v>1.016492050983392</v>
+        <v>1.016969318849332</v>
       </c>
       <c r="K14">
-        <v>1.024591641125221</v>
+        <v>1.026933343910241</v>
       </c>
       <c r="L14">
-        <v>1.021096196456641</v>
+        <v>1.021914758012447</v>
       </c>
       <c r="M14">
-        <v>1.027083576307727</v>
+        <v>1.028629265021643</v>
       </c>
       <c r="N14">
-        <v>1.017935586289056</v>
+        <v>1.009480237787511</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9877459166360587</v>
+        <v>0.9875396156530496</v>
       </c>
       <c r="D15">
-        <v>1.010818534193519</v>
+        <v>1.012620944097766</v>
       </c>
       <c r="E15">
-        <v>1.007429572229306</v>
+        <v>1.007578406667756</v>
       </c>
       <c r="F15">
-        <v>1.013507572226792</v>
+        <v>1.014428163888204</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039254821929971</v>
+        <v>1.044779820209912</v>
       </c>
       <c r="J15">
-        <v>1.017483282689556</v>
+        <v>1.017285819610724</v>
       </c>
       <c r="K15">
-        <v>1.025468462008785</v>
+        <v>1.027238081387862</v>
       </c>
       <c r="L15">
-        <v>1.022141568011874</v>
+        <v>1.022287665165631</v>
       </c>
       <c r="M15">
-        <v>1.028108635102126</v>
+        <v>1.0290125752543</v>
       </c>
       <c r="N15">
-        <v>1.018928225657939</v>
+        <v>1.009586247899437</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9947963369523324</v>
+        <v>0.9905967413309419</v>
       </c>
       <c r="D16">
-        <v>1.016428941938136</v>
+        <v>1.014924771297123</v>
       </c>
       <c r="E16">
-        <v>1.014024611492048</v>
+        <v>1.010288698512498</v>
       </c>
       <c r="F16">
-        <v>1.019978396174947</v>
+        <v>1.017193353993226</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041410479951068</v>
+        <v>1.045680959583604</v>
       </c>
       <c r="J16">
-        <v>1.023140493260153</v>
+        <v>1.019110472817373</v>
       </c>
       <c r="K16">
-        <v>1.030471944149363</v>
+        <v>1.028993781366706</v>
       </c>
       <c r="L16">
-        <v>1.028109233535386</v>
+        <v>1.024438499822276</v>
       </c>
       <c r="M16">
-        <v>1.033960419430648</v>
+        <v>1.031223177255824</v>
       </c>
       <c r="N16">
-        <v>1.024593470116437</v>
+        <v>1.010197397145697</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.99910270629973</v>
+        <v>0.9924900657584155</v>
       </c>
       <c r="D17">
-        <v>1.019858327621881</v>
+        <v>1.016352278266722</v>
       </c>
       <c r="E17">
-        <v>1.018056344455077</v>
+        <v>1.011969368662332</v>
       </c>
       <c r="F17">
-        <v>1.023934459318365</v>
+        <v>1.018907787805986</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042723292707463</v>
+        <v>1.046234608114586</v>
       </c>
       <c r="J17">
-        <v>1.026595409904635</v>
+        <v>1.020239930428088</v>
       </c>
       <c r="K17">
-        <v>1.0335269026021</v>
+        <v>1.030079541528723</v>
       </c>
       <c r="L17">
-        <v>1.031755018026908</v>
+        <v>1.025770736530804</v>
       </c>
       <c r="M17">
-        <v>1.037535453420066</v>
+        <v>1.032592222592573</v>
       </c>
       <c r="N17">
-        <v>1.028053293138839</v>
+        <v>1.010575688070812</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001575090858752</v>
+        <v>0.9935858747826702</v>
       </c>
       <c r="D18">
-        <v>1.021828041304937</v>
+        <v>1.017178714150319</v>
       </c>
       <c r="E18">
-        <v>1.020372244695542</v>
+        <v>1.012942852566609</v>
       </c>
       <c r="F18">
-        <v>1.026206976329161</v>
+        <v>1.019900726408657</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043475570796068</v>
+        <v>1.046553425643833</v>
       </c>
       <c r="J18">
-        <v>1.028578724938159</v>
+        <v>1.020893409409346</v>
       </c>
       <c r="K18">
-        <v>1.03528033913935</v>
+        <v>1.030707365658929</v>
       </c>
       <c r="L18">
-        <v>1.033848354178173</v>
+        <v>1.026541853774841</v>
       </c>
       <c r="M18">
-        <v>1.039588173088751</v>
+        <v>1.03338456699131</v>
       </c>
       <c r="N18">
-        <v>1.0300394247072</v>
+        <v>1.010794554292945</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002411633502176</v>
+        <v>0.9939580910884758</v>
       </c>
       <c r="D19">
-        <v>1.022494634136342</v>
+        <v>1.017459468469962</v>
       </c>
       <c r="E19">
-        <v>1.021156035803255</v>
+        <v>1.013273644566353</v>
       </c>
       <c r="F19">
-        <v>1.026976097762312</v>
+        <v>1.02023811171207</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043729859058931</v>
+        <v>1.046661442306798</v>
       </c>
       <c r="J19">
-        <v>1.029249744411661</v>
+        <v>1.021115339110652</v>
       </c>
       <c r="K19">
-        <v>1.035873533851845</v>
+        <v>1.030920518815176</v>
       </c>
       <c r="L19">
-        <v>1.034556673696051</v>
+        <v>1.026803788360813</v>
       </c>
       <c r="M19">
-        <v>1.040282749667088</v>
+        <v>1.033653698603444</v>
       </c>
       <c r="N19">
-        <v>1.030711397105321</v>
+        <v>1.01086888316659</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.998644805742206</v>
+        <v>0.9922878179271555</v>
       </c>
       <c r="D20">
-        <v>1.019493589575049</v>
+        <v>1.016199765297062</v>
       </c>
       <c r="E20">
-        <v>1.017627520814516</v>
+        <v>1.011789758271644</v>
       </c>
       <c r="F20">
-        <v>1.023513675175878</v>
+        <v>1.018724579695619</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042583848492566</v>
+        <v>1.046175634148598</v>
       </c>
       <c r="J20">
-        <v>1.026228067994691</v>
+        <v>1.020119302824198</v>
       </c>
       <c r="K20">
-        <v>1.033202114693175</v>
+        <v>1.029963619363819</v>
       </c>
       <c r="L20">
-        <v>1.031367335045034</v>
+        <v>1.025628419192744</v>
       </c>
       <c r="M20">
-        <v>1.037155292935021</v>
+        <v>1.032445981207313</v>
       </c>
       <c r="N20">
-        <v>1.027685429561248</v>
+        <v>1.010535286527794</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9859177165397024</v>
+        <v>0.9867556439575443</v>
       </c>
       <c r="D21">
-        <v>1.009364638075391</v>
+        <v>1.012030393077657</v>
       </c>
       <c r="E21">
-        <v>1.005720630027205</v>
+        <v>1.006884063189948</v>
       </c>
       <c r="F21">
-        <v>1.011830913379936</v>
+        <v>1.013719670337596</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038694675566719</v>
+        <v>1.044547362062373</v>
       </c>
       <c r="J21">
-        <v>1.016016243797541</v>
+        <v>1.016817736153347</v>
       </c>
       <c r="K21">
-        <v>1.0241707402311</v>
+        <v>1.026787375033949</v>
       </c>
       <c r="L21">
-        <v>1.020594427813271</v>
+        <v>1.021736178127777</v>
       </c>
       <c r="M21">
-        <v>1.026591559352823</v>
+        <v>1.028445699141299</v>
       </c>
       <c r="N21">
-        <v>1.017459103402425</v>
+        <v>1.009429465932131</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9775050877288061</v>
+        <v>0.9831953421785936</v>
       </c>
       <c r="D22">
-        <v>1.002679539808859</v>
+        <v>1.009349839148492</v>
       </c>
       <c r="E22">
-        <v>0.997863103769455</v>
+        <v>1.003734299449337</v>
       </c>
       <c r="F22">
-        <v>1.004122383632389</v>
+        <v>1.010505300540452</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036111546304832</v>
+        <v>1.043485013768595</v>
       </c>
       <c r="J22">
-        <v>1.009265370095879</v>
+        <v>1.014691247608626</v>
       </c>
       <c r="K22">
-        <v>1.018198100729225</v>
+        <v>1.024738321860908</v>
       </c>
       <c r="L22">
-        <v>1.013477012183703</v>
+        <v>1.019232140353554</v>
       </c>
       <c r="M22">
-        <v>1.019612615269829</v>
+        <v>1.025871479041628</v>
       </c>
       <c r="N22">
-        <v>1.010698642685771</v>
+        <v>1.008717205413509</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9820066805010181</v>
+        <v>0.9850907569126482</v>
       </c>
       <c r="D23">
-        <v>1.006255659343349</v>
+        <v>1.010776615531959</v>
       </c>
       <c r="E23">
-        <v>1.00206636259532</v>
+        <v>1.005410440478092</v>
       </c>
       <c r="F23">
-        <v>1.008245820928398</v>
+        <v>1.012215905098454</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037494869991776</v>
+        <v>1.044051918504397</v>
       </c>
       <c r="J23">
-        <v>1.012877765931444</v>
+        <v>1.015823482171356</v>
       </c>
       <c r="K23">
-        <v>1.021394236570584</v>
+        <v>1.025829628075486</v>
       </c>
       <c r="L23">
-        <v>1.017285130056333</v>
+        <v>1.020565126222627</v>
       </c>
       <c r="M23">
-        <v>1.023346608295901</v>
+        <v>1.027241886734603</v>
       </c>
       <c r="N23">
-        <v>1.01431616853777</v>
+        <v>1.009096444366206</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9988518326294442</v>
+        <v>0.9923792313389895</v>
       </c>
       <c r="D24">
-        <v>1.019658493103099</v>
+        <v>1.01626869848463</v>
       </c>
       <c r="E24">
-        <v>1.017821397702402</v>
+        <v>1.011870937519313</v>
       </c>
       <c r="F24">
-        <v>1.023703917044717</v>
+        <v>1.018807385336011</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042646898765429</v>
+        <v>1.046202294650119</v>
       </c>
       <c r="J24">
-        <v>1.026394152063207</v>
+        <v>1.020173825640561</v>
       </c>
       <c r="K24">
-        <v>1.033348959956114</v>
+        <v>1.030016016512024</v>
       </c>
       <c r="L24">
-        <v>1.031542614392784</v>
+        <v>1.025692744637946</v>
       </c>
       <c r="M24">
-        <v>1.037327171189406</v>
+        <v>1.032512080509857</v>
       </c>
       <c r="N24">
-        <v>1.027851749488191</v>
+        <v>1.010553547751109</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016869444677557</v>
+        <v>1.000504481643595</v>
       </c>
       <c r="D25">
-        <v>1.03402472427754</v>
+        <v>1.022399943368566</v>
       </c>
       <c r="E25">
-        <v>1.03471761141765</v>
+        <v>1.0191020355175</v>
       </c>
       <c r="F25">
-        <v>1.040284731391127</v>
+        <v>1.026181135529155</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048102629744377</v>
+        <v>1.048536860060661</v>
       </c>
       <c r="J25">
-        <v>1.040842122964132</v>
+        <v>1.025014879888449</v>
       </c>
       <c r="K25">
-        <v>1.046116851669697</v>
+        <v>1.034660203199367</v>
       </c>
       <c r="L25">
-        <v>1.046799868324373</v>
+        <v>1.031410881277728</v>
       </c>
       <c r="M25">
-        <v>1.052288285040231</v>
+        <v>1.038386176866849</v>
       </c>
       <c r="N25">
-        <v>1.042320238165002</v>
+        <v>1.012174826693455</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006741321445781</v>
+        <v>1.036832614200507</v>
       </c>
       <c r="D2">
-        <v>1.0271104105069</v>
+        <v>1.04360942655794</v>
       </c>
       <c r="E2">
-        <v>1.024673732892066</v>
+        <v>1.049888901486318</v>
       </c>
       <c r="F2">
-        <v>1.031859424151493</v>
+        <v>1.056273112988516</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050276391548907</v>
+        <v>1.036448201176315</v>
       </c>
       <c r="J2">
-        <v>1.028722253476428</v>
+        <v>1.041938781660735</v>
       </c>
       <c r="K2">
-        <v>1.03820454528383</v>
+        <v>1.046382809617151</v>
       </c>
       <c r="L2">
-        <v>1.035799701067693</v>
+        <v>1.052644705478561</v>
       </c>
       <c r="M2">
-        <v>1.042892056977645</v>
+        <v>1.059011276876586</v>
       </c>
       <c r="N2">
-        <v>1.013416176150286</v>
+        <v>1.017916632886698</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011139391152905</v>
+        <v>1.037765880905275</v>
       </c>
       <c r="D3">
-        <v>1.03043330232294</v>
+        <v>1.044323704529178</v>
       </c>
       <c r="E3">
-        <v>1.028614158613546</v>
+        <v>1.050777955198726</v>
       </c>
       <c r="F3">
-        <v>1.035873234801427</v>
+        <v>1.057173847742474</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05147162197237</v>
+        <v>1.036611809523158</v>
       </c>
       <c r="J3">
-        <v>1.031330923693441</v>
+        <v>1.042516258011636</v>
       </c>
       <c r="K3">
-        <v>1.04069104624696</v>
+        <v>1.046908410412822</v>
       </c>
       <c r="L3">
-        <v>1.038893552596077</v>
+        <v>1.053345897677314</v>
       </c>
       <c r="M3">
-        <v>1.04606679830241</v>
+        <v>1.059725396140532</v>
       </c>
       <c r="N3">
-        <v>1.01428944145318</v>
+        <v>1.0181089297731</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013928224006648</v>
+        <v>1.038370150449938</v>
       </c>
       <c r="D4">
-        <v>1.032540520108303</v>
+        <v>1.044785823312586</v>
       </c>
       <c r="E4">
-        <v>1.031117809676822</v>
+        <v>1.051353905757179</v>
       </c>
       <c r="F4">
-        <v>1.03842256390184</v>
+        <v>1.057757233915329</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052214610532967</v>
+        <v>1.036715888985716</v>
       </c>
       <c r="J4">
-        <v>1.032982232363133</v>
+        <v>1.042889683197503</v>
       </c>
       <c r="K4">
-        <v>1.042261453447611</v>
+        <v>1.047247770740151</v>
       </c>
       <c r="L4">
-        <v>1.040854634024422</v>
+        <v>1.053799652200669</v>
       </c>
       <c r="M4">
-        <v>1.048078365480792</v>
+        <v>1.060187393988776</v>
       </c>
       <c r="N4">
-        <v>1.014842114219068</v>
+        <v>1.018233242534517</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015087467357003</v>
+        <v>1.03862427609896</v>
       </c>
       <c r="D5">
-        <v>1.033416416871439</v>
+        <v>1.044980080508854</v>
       </c>
       <c r="E5">
-        <v>1.032159676170235</v>
+        <v>1.05159619510375</v>
       </c>
       <c r="F5">
-        <v>1.03948320762641</v>
+        <v>1.0580026197267</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052519819866918</v>
+        <v>1.036759215629298</v>
       </c>
       <c r="J5">
-        <v>1.033667917943893</v>
+        <v>1.043046612482485</v>
       </c>
       <c r="K5">
-        <v>1.042912671875913</v>
+        <v>1.047390259819355</v>
       </c>
       <c r="L5">
-        <v>1.041669587816288</v>
+        <v>1.053990418039532</v>
       </c>
       <c r="M5">
-        <v>1.048914105549881</v>
+        <v>1.06038159618306</v>
       </c>
       <c r="N5">
-        <v>1.015071575590271</v>
+        <v>1.018285475414527</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015281349571859</v>
+        <v>1.038666950202338</v>
       </c>
       <c r="D6">
-        <v>1.033562907060255</v>
+        <v>1.045012696073362</v>
       </c>
       <c r="E6">
-        <v>1.03233399470143</v>
+        <v>1.051636885875081</v>
       </c>
       <c r="F6">
-        <v>1.039660654157814</v>
+        <v>1.058043828678095</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052570650809249</v>
+        <v>1.036766465221502</v>
       </c>
       <c r="J6">
-        <v>1.033782554886179</v>
+        <v>1.043072958129156</v>
       </c>
       <c r="K6">
-        <v>1.043021494503767</v>
+        <v>1.047414173889723</v>
       </c>
       <c r="L6">
-        <v>1.041805874239011</v>
+        <v>1.054022448863036</v>
       </c>
       <c r="M6">
-        <v>1.049053856575459</v>
+        <v>1.060414202274536</v>
       </c>
       <c r="N6">
-        <v>1.015109936500139</v>
+        <v>1.018294243879592</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01394376506704</v>
+        <v>1.038373545734158</v>
       </c>
       <c r="D7">
-        <v>1.032552262705671</v>
+        <v>1.044788419057621</v>
       </c>
       <c r="E7">
-        <v>1.031131772601944</v>
+        <v>1.051357142613503</v>
       </c>
       <c r="F7">
-        <v>1.038436779393635</v>
+        <v>1.057760512262643</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052218716646576</v>
+        <v>1.036716469602596</v>
       </c>
       <c r="J7">
-        <v>1.032991427693168</v>
+        <v>1.042891780326128</v>
       </c>
       <c r="K7">
-        <v>1.042270190035426</v>
+        <v>1.047249675387142</v>
       </c>
       <c r="L7">
-        <v>1.040865560365924</v>
+        <v>1.053802201195496</v>
       </c>
       <c r="M7">
-        <v>1.048089571282204</v>
+        <v>1.060189989014958</v>
       </c>
       <c r="N7">
-        <v>1.014845191510585</v>
+        <v>1.018233940584135</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008239762938214</v>
+        <v>1.037147935970127</v>
       </c>
       <c r="D8">
-        <v>1.028242466293236</v>
+        <v>1.043850833054272</v>
       </c>
       <c r="E8">
-        <v>1.026015179281734</v>
+        <v>1.050189221044367</v>
       </c>
       <c r="F8">
-        <v>1.033226049635068</v>
+        <v>1.056577405594753</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050686705129758</v>
+        <v>1.036503862739687</v>
       </c>
       <c r="J8">
-        <v>1.02961161755076</v>
+        <v>1.042133991686692</v>
       </c>
       <c r="K8">
-        <v>1.039052996494789</v>
+        <v>1.046560591067584</v>
       </c>
       <c r="L8">
-        <v>1.036853922019635</v>
+        <v>1.052881668402462</v>
       </c>
       <c r="M8">
-        <v>1.043974003034639</v>
+        <v>1.059252633637205</v>
       </c>
       <c r="N8">
-        <v>1.013713916921324</v>
+        <v>1.017981644341732</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9977297517708628</v>
+        <v>1.034991241026021</v>
       </c>
       <c r="D9">
-        <v>1.020305315798322</v>
+        <v>1.042198242687991</v>
       </c>
       <c r="E9">
-        <v>1.01662918354995</v>
+        <v>1.048136415883399</v>
       </c>
       <c r="F9">
-        <v>1.023660013552518</v>
+        <v>1.054496904849935</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047747745768364</v>
+        <v>1.036115576891601</v>
       </c>
       <c r="J9">
-        <v>1.023362933853784</v>
+        <v>1.040796874796531</v>
       </c>
       <c r="K9">
-        <v>1.033077324967102</v>
+        <v>1.045340732694574</v>
       </c>
       <c r="L9">
-        <v>1.029458104612848</v>
+        <v>1.051259904827268</v>
       </c>
       <c r="M9">
-        <v>1.036380542079223</v>
+        <v>1.057600300917688</v>
       </c>
       <c r="N9">
-        <v>1.011621619862627</v>
+        <v>1.017536193480158</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9903816059675735</v>
+        <v>1.033555515673857</v>
       </c>
       <c r="D10">
-        <v>1.014762599278656</v>
+        <v>1.041096307675584</v>
       </c>
       <c r="E10">
-        <v>1.01009783078717</v>
+        <v>1.046771476265163</v>
       </c>
       <c r="F10">
-        <v>1.016998638064183</v>
+        <v>1.053112875184948</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045617830110438</v>
+        <v>1.035847590228416</v>
       </c>
       <c r="J10">
-        <v>1.018982105081671</v>
+        <v>1.039904317392146</v>
       </c>
       <c r="K10">
-        <v>1.028870329750511</v>
+        <v>1.044523796018747</v>
       </c>
       <c r="L10">
-        <v>1.024287128253979</v>
+        <v>1.050179025972451</v>
       </c>
       <c r="M10">
-        <v>1.031067612903162</v>
+        <v>1.056498425394026</v>
       </c>
       <c r="N10">
-        <v>1.010154402213701</v>
+        <v>1.017238662391476</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9871108104734471</v>
+        <v>1.032934334970543</v>
       </c>
       <c r="D11">
-        <v>1.012297920462992</v>
+        <v>1.040619127078086</v>
       </c>
       <c r="E11">
-        <v>1.007198590404354</v>
+        <v>1.046181313412571</v>
       </c>
       <c r="F11">
-        <v>1.014040611552315</v>
+        <v>1.052514298401298</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044652741245172</v>
+        <v>1.035729392926006</v>
       </c>
       <c r="J11">
-        <v>1.017029802247269</v>
+        <v>1.039517571062288</v>
       </c>
       <c r="K11">
-        <v>1.026991583719715</v>
+        <v>1.044169190804944</v>
       </c>
       <c r="L11">
-        <v>1.021986016820308</v>
+        <v>1.049711079016798</v>
       </c>
       <c r="M11">
-        <v>1.028702512653528</v>
+        <v>1.056021241306863</v>
       </c>
       <c r="N11">
-        <v>1.009500496377299</v>
+        <v>1.017109699141921</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9858817870265942</v>
+        <v>1.032703676582799</v>
       </c>
       <c r="D12">
-        <v>1.0113722567037</v>
+        <v>1.040441877111642</v>
       </c>
       <c r="E12">
-        <v>1.006110439451106</v>
+        <v>1.045962232019209</v>
       </c>
       <c r="F12">
-        <v>1.012930241018996</v>
+        <v>1.052292069555515</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044287614911018</v>
+        <v>1.035685165777556</v>
       </c>
       <c r="J12">
-        <v>1.016295911176089</v>
+        <v>1.039373877720019</v>
       </c>
       <c r="K12">
-        <v>1.026284777938368</v>
+        <v>1.044037345620259</v>
       </c>
       <c r="L12">
-        <v>1.021121501989839</v>
+        <v>1.04953727599162</v>
       </c>
       <c r="M12">
-        <v>1.027813841060086</v>
+        <v>1.055843985432822</v>
       </c>
       <c r="N12">
-        <v>1.009254682880945</v>
+        <v>1.01706177723898</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9861460673120114</v>
+        <v>1.032753150144732</v>
       </c>
       <c r="D13">
-        <v>1.011571282760507</v>
+        <v>1.040479897981441</v>
       </c>
       <c r="E13">
-        <v>1.006344369719588</v>
+        <v>1.046009219754544</v>
       </c>
       <c r="F13">
-        <v>1.013168955003782</v>
+        <v>1.052339733431115</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044366240276256</v>
+        <v>1.035694667274646</v>
       </c>
       <c r="J13">
-        <v>1.016453734559565</v>
+        <v>1.03940470215766</v>
       </c>
       <c r="K13">
-        <v>1.026436801811939</v>
+        <v>1.044065632680343</v>
       </c>
       <c r="L13">
-        <v>1.021307393596151</v>
+        <v>1.04957455670928</v>
       </c>
       <c r="M13">
-        <v>1.028004932111795</v>
+        <v>1.055882007781956</v>
       </c>
       <c r="N13">
-        <v>1.009307545212018</v>
+        <v>1.0170720575132</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9870095111555601</v>
+        <v>1.032915267124583</v>
       </c>
       <c r="D14">
-        <v>1.012221615086508</v>
+        <v>1.040604475610476</v>
       </c>
       <c r="E14">
-        <v>1.007108876242974</v>
+        <v>1.046163201388266</v>
       </c>
       <c r="F14">
-        <v>1.013949068604983</v>
+        <v>1.052495926658954</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04462269673399</v>
+        <v>1.035725743689478</v>
       </c>
       <c r="J14">
-        <v>1.016969318849332</v>
+        <v>1.039505694106188</v>
       </c>
       <c r="K14">
-        <v>1.026933343910241</v>
+        <v>1.044158295066325</v>
       </c>
       <c r="L14">
-        <v>1.021914758012447</v>
+        <v>1.049696712126184</v>
       </c>
       <c r="M14">
-        <v>1.028629265021643</v>
+        <v>1.056006589446246</v>
       </c>
       <c r="N14">
-        <v>1.009480237787511</v>
+        <v>1.017105738292217</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9875396156530496</v>
+        <v>1.033015162818014</v>
       </c>
       <c r="D15">
-        <v>1.012620944097766</v>
+        <v>1.040681231533897</v>
       </c>
       <c r="E15">
-        <v>1.007578406667756</v>
+        <v>1.046258092004354</v>
       </c>
       <c r="F15">
-        <v>1.014428163888204</v>
+        <v>1.052592176978796</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044779820209912</v>
+        <v>1.035744848060651</v>
       </c>
       <c r="J15">
-        <v>1.017285819610724</v>
+        <v>1.039567913502074</v>
       </c>
       <c r="K15">
-        <v>1.027238081387862</v>
+        <v>1.044215370357775</v>
       </c>
       <c r="L15">
-        <v>1.022287665165631</v>
+        <v>1.049771977909122</v>
       </c>
       <c r="M15">
-        <v>1.0290125752543</v>
+        <v>1.056083347238417</v>
       </c>
       <c r="N15">
-        <v>1.009586247899437</v>
+        <v>1.017126487597313</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9905967413309419</v>
+        <v>1.033596751964687</v>
       </c>
       <c r="D16">
-        <v>1.014924771297123</v>
+        <v>1.041127975959725</v>
       </c>
       <c r="E16">
-        <v>1.010288698512498</v>
+        <v>1.046810661775146</v>
       </c>
       <c r="F16">
-        <v>1.017193353993226</v>
+        <v>1.053152615990989</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045680959583604</v>
+        <v>1.03585538920223</v>
       </c>
       <c r="J16">
-        <v>1.019110472817373</v>
+        <v>1.03992997901402</v>
       </c>
       <c r="K16">
-        <v>1.028993781366706</v>
+        <v>1.044547311844207</v>
       </c>
       <c r="L16">
-        <v>1.024438499822276</v>
+        <v>1.050210083872419</v>
       </c>
       <c r="M16">
-        <v>1.031223177255824</v>
+        <v>1.056530093274942</v>
       </c>
       <c r="N16">
-        <v>1.010197397145697</v>
+        <v>1.01724721854342</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9924900657584155</v>
+        <v>1.033961701456086</v>
       </c>
       <c r="D17">
-        <v>1.016352278266722</v>
+        <v>1.0414081984884</v>
       </c>
       <c r="E17">
-        <v>1.011969368662332</v>
+        <v>1.047157506777074</v>
       </c>
       <c r="F17">
-        <v>1.018907787805986</v>
+        <v>1.053504357631081</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046234608114586</v>
+        <v>1.035924151664955</v>
       </c>
       <c r="J17">
-        <v>1.020239930428088</v>
+        <v>1.04015702340867</v>
       </c>
       <c r="K17">
-        <v>1.030079541528723</v>
+        <v>1.044755298845896</v>
       </c>
       <c r="L17">
-        <v>1.025770736530804</v>
+        <v>1.05048491861538</v>
       </c>
       <c r="M17">
-        <v>1.032592222592573</v>
+        <v>1.05681030882926</v>
       </c>
       <c r="N17">
-        <v>1.010575688070812</v>
+        <v>1.017322915246056</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9935858747826702</v>
+        <v>1.034174618288883</v>
       </c>
       <c r="D18">
-        <v>1.017178714150319</v>
+        <v>1.041571644027425</v>
       </c>
       <c r="E18">
-        <v>1.012942852566609</v>
+        <v>1.047359898965082</v>
       </c>
       <c r="F18">
-        <v>1.019900726408657</v>
+        <v>1.053709591679058</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046553425643833</v>
+        <v>1.035964051450091</v>
       </c>
       <c r="J18">
-        <v>1.020893409409346</v>
+        <v>1.040289429112779</v>
       </c>
       <c r="K18">
-        <v>1.030707365658929</v>
+        <v>1.044876530490211</v>
       </c>
       <c r="L18">
-        <v>1.026541853774841</v>
+        <v>1.050645232780442</v>
       </c>
       <c r="M18">
-        <v>1.03338456699131</v>
+        <v>1.056973747492615</v>
       </c>
       <c r="N18">
-        <v>1.010794554292945</v>
+        <v>1.017367055252827</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9939580910884758</v>
+        <v>1.034247225532929</v>
       </c>
       <c r="D19">
-        <v>1.017459468469962</v>
+        <v>1.04162737409002</v>
       </c>
       <c r="E19">
-        <v>1.013273644566353</v>
+        <v>1.047428923568398</v>
       </c>
       <c r="F19">
-        <v>1.02023811171207</v>
+        <v>1.053779582861436</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046661442306798</v>
+        <v>1.035977620910604</v>
       </c>
       <c r="J19">
-        <v>1.021115339110652</v>
+        <v>1.040334571689292</v>
       </c>
       <c r="K19">
-        <v>1.030920518815176</v>
+        <v>1.04491785312444</v>
       </c>
       <c r="L19">
-        <v>1.026803788360813</v>
+        <v>1.050699897039466</v>
       </c>
       <c r="M19">
-        <v>1.033653698603444</v>
+        <v>1.057029474741197</v>
       </c>
       <c r="N19">
-        <v>1.01086888316659</v>
+        <v>1.017382103706146</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9922878179271555</v>
+        <v>1.033922540860673</v>
       </c>
       <c r="D20">
-        <v>1.016199765297062</v>
+        <v>1.041378133616519</v>
       </c>
       <c r="E20">
-        <v>1.011789758271644</v>
+        <v>1.047120284957667</v>
       </c>
       <c r="F20">
-        <v>1.018724579695619</v>
+        <v>1.053466611923901</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046175634148598</v>
+        <v>1.035916795633046</v>
       </c>
       <c r="J20">
-        <v>1.020119302824198</v>
+        <v>1.04013266631908</v>
       </c>
       <c r="K20">
-        <v>1.029963619363819</v>
+        <v>1.044732992453651</v>
       </c>
       <c r="L20">
-        <v>1.025628419192744</v>
+        <v>1.050455430642483</v>
       </c>
       <c r="M20">
-        <v>1.032445981207313</v>
+        <v>1.056780244997636</v>
       </c>
       <c r="N20">
-        <v>1.010535286527794</v>
+        <v>1.017314795006761</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9867556439575443</v>
+        <v>1.032867525614746</v>
       </c>
       <c r="D21">
-        <v>1.012030393077657</v>
+        <v>1.040567790698038</v>
       </c>
       <c r="E21">
-        <v>1.006884063189948</v>
+        <v>1.046117853997349</v>
       </c>
       <c r="F21">
-        <v>1.013719670337596</v>
+        <v>1.052449928619461</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044547362062373</v>
+        <v>1.035716601381869</v>
       </c>
       <c r="J21">
-        <v>1.016817736153347</v>
+        <v>1.039475955550336</v>
       </c>
       <c r="K21">
-        <v>1.026787375033949</v>
+        <v>1.044131011855771</v>
       </c>
       <c r="L21">
-        <v>1.021736178127777</v>
+        <v>1.049660740023664</v>
       </c>
       <c r="M21">
-        <v>1.028445699141299</v>
+        <v>1.055969903474554</v>
       </c>
       <c r="N21">
-        <v>1.009429465932131</v>
+        <v>1.017095820669592</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9831953421785936</v>
+        <v>1.032204634605932</v>
       </c>
       <c r="D22">
-        <v>1.009349839148492</v>
+        <v>1.040058274420084</v>
       </c>
       <c r="E22">
-        <v>1.003734299449337</v>
+        <v>1.045488346611166</v>
       </c>
       <c r="F22">
-        <v>1.010505300540452</v>
+        <v>1.051811332132807</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043485013768595</v>
+        <v>1.035588860519665</v>
       </c>
       <c r="J22">
-        <v>1.014691247608626</v>
+        <v>1.039062832959123</v>
       </c>
       <c r="K22">
-        <v>1.024738321860908</v>
+        <v>1.043751776847495</v>
       </c>
       <c r="L22">
-        <v>1.019232140353554</v>
+        <v>1.049161164078144</v>
       </c>
       <c r="M22">
-        <v>1.025871479041628</v>
+        <v>1.055460361288199</v>
       </c>
       <c r="N22">
-        <v>1.008717205413509</v>
+        <v>1.016958031852138</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9850907569126482</v>
+        <v>1.0325560037347</v>
       </c>
       <c r="D23">
-        <v>1.010776615531959</v>
+        <v>1.040328380186124</v>
       </c>
       <c r="E23">
-        <v>1.005410440478092</v>
+        <v>1.045821987807661</v>
       </c>
       <c r="F23">
-        <v>1.012215905098454</v>
+        <v>1.052149803753389</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044051918504397</v>
+        <v>1.035656755462967</v>
       </c>
       <c r="J23">
-        <v>1.015823482171356</v>
+        <v>1.039281857818598</v>
       </c>
       <c r="K23">
-        <v>1.025829628075486</v>
+        <v>1.043952886830726</v>
       </c>
       <c r="L23">
-        <v>1.020565126222627</v>
+        <v>1.049425990990794</v>
       </c>
       <c r="M23">
-        <v>1.027241886734603</v>
+        <v>1.055730483399617</v>
       </c>
       <c r="N23">
-        <v>1.009096444366206</v>
+        <v>1.017031086705884</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9923792313389895</v>
+        <v>1.033940235699931</v>
       </c>
       <c r="D24">
-        <v>1.01626869848463</v>
+        <v>1.041391718649018</v>
       </c>
       <c r="E24">
-        <v>1.011870937519313</v>
+        <v>1.047137103638205</v>
       </c>
       <c r="F24">
-        <v>1.018807385336011</v>
+        <v>1.053483667370858</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046202294650119</v>
+        <v>1.035920120150575</v>
       </c>
       <c r="J24">
-        <v>1.020173825640561</v>
+        <v>1.040143672318145</v>
       </c>
       <c r="K24">
-        <v>1.030016016512024</v>
+        <v>1.044743072010715</v>
       </c>
       <c r="L24">
-        <v>1.025692744637946</v>
+        <v>1.050468754964423</v>
       </c>
       <c r="M24">
-        <v>1.032512080509857</v>
+        <v>1.05679382956873</v>
       </c>
       <c r="N24">
-        <v>1.010553547751109</v>
+        <v>1.017318464232329</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000504481643595</v>
+        <v>1.035548437946586</v>
       </c>
       <c r="D25">
-        <v>1.022399943368566</v>
+        <v>1.04262552018734</v>
       </c>
       <c r="E25">
-        <v>1.0191020355175</v>
+        <v>1.048666487502889</v>
       </c>
       <c r="F25">
-        <v>1.026181135529155</v>
+        <v>1.055034247125942</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048536860060661</v>
+        <v>1.036217570491877</v>
       </c>
       <c r="J25">
-        <v>1.025014879888449</v>
+        <v>1.041142758086058</v>
       </c>
       <c r="K25">
-        <v>1.034660203199367</v>
+        <v>1.045656752177976</v>
       </c>
       <c r="L25">
-        <v>1.031410881277728</v>
+        <v>1.051679122599801</v>
       </c>
       <c r="M25">
-        <v>1.038386176866849</v>
+        <v>1.058027530708901</v>
       </c>
       <c r="N25">
-        <v>1.012174826693455</v>
+        <v>1.017651454257335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036832614200507</v>
+        <v>1.006741321445782</v>
       </c>
       <c r="D2">
-        <v>1.04360942655794</v>
+        <v>1.027110410506902</v>
       </c>
       <c r="E2">
-        <v>1.049888901486318</v>
+        <v>1.024673732892067</v>
       </c>
       <c r="F2">
-        <v>1.056273112988516</v>
+        <v>1.031859424151494</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036448201176315</v>
+        <v>1.050276391548908</v>
       </c>
       <c r="J2">
-        <v>1.041938781660735</v>
+        <v>1.028722253476429</v>
       </c>
       <c r="K2">
-        <v>1.046382809617151</v>
+        <v>1.038204545283831</v>
       </c>
       <c r="L2">
-        <v>1.052644705478561</v>
+        <v>1.035799701067694</v>
       </c>
       <c r="M2">
-        <v>1.059011276876586</v>
+        <v>1.042892056977646</v>
       </c>
       <c r="N2">
-        <v>1.017916632886698</v>
+        <v>1.013416176150286</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037765880905275</v>
+        <v>1.011139391152904</v>
       </c>
       <c r="D3">
-        <v>1.044323704529178</v>
+        <v>1.03043330232294</v>
       </c>
       <c r="E3">
-        <v>1.050777955198726</v>
+        <v>1.028614158613545</v>
       </c>
       <c r="F3">
-        <v>1.057173847742474</v>
+        <v>1.035873234801427</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036611809523158</v>
+        <v>1.051471621972369</v>
       </c>
       <c r="J3">
-        <v>1.042516258011636</v>
+        <v>1.031330923693441</v>
       </c>
       <c r="K3">
-        <v>1.046908410412822</v>
+        <v>1.04069104624696</v>
       </c>
       <c r="L3">
-        <v>1.053345897677314</v>
+        <v>1.038893552596076</v>
       </c>
       <c r="M3">
-        <v>1.059725396140532</v>
+        <v>1.04606679830241</v>
       </c>
       <c r="N3">
-        <v>1.0181089297731</v>
+        <v>1.01428944145318</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038370150449938</v>
+        <v>1.013928224006648</v>
       </c>
       <c r="D4">
-        <v>1.044785823312586</v>
+        <v>1.032540520108302</v>
       </c>
       <c r="E4">
-        <v>1.051353905757179</v>
+        <v>1.031117809676822</v>
       </c>
       <c r="F4">
-        <v>1.057757233915329</v>
+        <v>1.03842256390184</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036715888985716</v>
+        <v>1.052214610532967</v>
       </c>
       <c r="J4">
-        <v>1.042889683197503</v>
+        <v>1.032982232363133</v>
       </c>
       <c r="K4">
-        <v>1.047247770740151</v>
+        <v>1.042261453447611</v>
       </c>
       <c r="L4">
-        <v>1.053799652200669</v>
+        <v>1.040854634024422</v>
       </c>
       <c r="M4">
-        <v>1.060187393988776</v>
+        <v>1.048078365480792</v>
       </c>
       <c r="N4">
-        <v>1.018233242534517</v>
+        <v>1.014842114219068</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03862427609896</v>
+        <v>1.015087467357003</v>
       </c>
       <c r="D5">
-        <v>1.044980080508854</v>
+        <v>1.033416416871439</v>
       </c>
       <c r="E5">
-        <v>1.05159619510375</v>
+        <v>1.032159676170235</v>
       </c>
       <c r="F5">
-        <v>1.0580026197267</v>
+        <v>1.039483207626409</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036759215629298</v>
+        <v>1.052519819866918</v>
       </c>
       <c r="J5">
-        <v>1.043046612482485</v>
+        <v>1.033667917943893</v>
       </c>
       <c r="K5">
-        <v>1.047390259819355</v>
+        <v>1.042912671875912</v>
       </c>
       <c r="L5">
-        <v>1.053990418039532</v>
+        <v>1.041669587816288</v>
       </c>
       <c r="M5">
-        <v>1.06038159618306</v>
+        <v>1.048914105549881</v>
       </c>
       <c r="N5">
-        <v>1.018285475414527</v>
+        <v>1.015071575590271</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038666950202338</v>
+        <v>1.01528134957186</v>
       </c>
       <c r="D6">
-        <v>1.045012696073362</v>
+        <v>1.033562907060255</v>
       </c>
       <c r="E6">
-        <v>1.051636885875081</v>
+        <v>1.032333994701431</v>
       </c>
       <c r="F6">
-        <v>1.058043828678095</v>
+        <v>1.039660654157814</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036766465221502</v>
+        <v>1.052570650809249</v>
       </c>
       <c r="J6">
-        <v>1.043072958129156</v>
+        <v>1.033782554886179</v>
       </c>
       <c r="K6">
-        <v>1.047414173889723</v>
+        <v>1.043021494503767</v>
       </c>
       <c r="L6">
-        <v>1.054022448863036</v>
+        <v>1.041805874239011</v>
       </c>
       <c r="M6">
-        <v>1.060414202274536</v>
+        <v>1.049053856575459</v>
       </c>
       <c r="N6">
-        <v>1.018294243879592</v>
+        <v>1.015109936500139</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038373545734158</v>
+        <v>1.01394376506704</v>
       </c>
       <c r="D7">
-        <v>1.044788419057621</v>
+        <v>1.032552262705671</v>
       </c>
       <c r="E7">
-        <v>1.051357142613503</v>
+        <v>1.031131772601944</v>
       </c>
       <c r="F7">
-        <v>1.057760512262643</v>
+        <v>1.038436779393635</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036716469602596</v>
+        <v>1.052218716646576</v>
       </c>
       <c r="J7">
-        <v>1.042891780326128</v>
+        <v>1.032991427693168</v>
       </c>
       <c r="K7">
-        <v>1.047249675387142</v>
+        <v>1.042270190035426</v>
       </c>
       <c r="L7">
-        <v>1.053802201195496</v>
+        <v>1.040865560365924</v>
       </c>
       <c r="M7">
-        <v>1.060189989014958</v>
+        <v>1.048089571282203</v>
       </c>
       <c r="N7">
-        <v>1.018233940584135</v>
+        <v>1.014845191510585</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037147935970127</v>
+        <v>1.008239762938214</v>
       </c>
       <c r="D8">
-        <v>1.043850833054272</v>
+        <v>1.028242466293236</v>
       </c>
       <c r="E8">
-        <v>1.050189221044367</v>
+        <v>1.026015179281735</v>
       </c>
       <c r="F8">
-        <v>1.056577405594753</v>
+        <v>1.033226049635069</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036503862739687</v>
+        <v>1.050686705129759</v>
       </c>
       <c r="J8">
-        <v>1.042133991686692</v>
+        <v>1.02961161755076</v>
       </c>
       <c r="K8">
-        <v>1.046560591067584</v>
+        <v>1.039052996494789</v>
       </c>
       <c r="L8">
-        <v>1.052881668402462</v>
+        <v>1.036853922019635</v>
       </c>
       <c r="M8">
-        <v>1.059252633637205</v>
+        <v>1.043974003034639</v>
       </c>
       <c r="N8">
-        <v>1.017981644341732</v>
+        <v>1.013713916921324</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034991241026021</v>
+        <v>0.9977297517708621</v>
       </c>
       <c r="D9">
-        <v>1.042198242687991</v>
+        <v>1.020305315798322</v>
       </c>
       <c r="E9">
-        <v>1.048136415883399</v>
+        <v>1.016629183549949</v>
       </c>
       <c r="F9">
-        <v>1.054496904849935</v>
+        <v>1.023660013552518</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036115576891601</v>
+        <v>1.047747745768364</v>
       </c>
       <c r="J9">
-        <v>1.040796874796531</v>
+        <v>1.023362933853783</v>
       </c>
       <c r="K9">
-        <v>1.045340732694574</v>
+        <v>1.033077324967101</v>
       </c>
       <c r="L9">
-        <v>1.051259904827268</v>
+        <v>1.029458104612847</v>
       </c>
       <c r="M9">
-        <v>1.057600300917688</v>
+        <v>1.036380542079222</v>
       </c>
       <c r="N9">
-        <v>1.017536193480158</v>
+        <v>1.011621619862627</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033555515673857</v>
+        <v>0.990381605967574</v>
       </c>
       <c r="D10">
-        <v>1.041096307675584</v>
+        <v>1.014762599278657</v>
       </c>
       <c r="E10">
-        <v>1.046771476265163</v>
+        <v>1.01009783078717</v>
       </c>
       <c r="F10">
-        <v>1.053112875184948</v>
+        <v>1.016998638064184</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035847590228416</v>
+        <v>1.045617830110439</v>
       </c>
       <c r="J10">
-        <v>1.039904317392146</v>
+        <v>1.018982105081672</v>
       </c>
       <c r="K10">
-        <v>1.044523796018747</v>
+        <v>1.028870329750512</v>
       </c>
       <c r="L10">
-        <v>1.050179025972451</v>
+        <v>1.02428712825398</v>
       </c>
       <c r="M10">
-        <v>1.056498425394026</v>
+        <v>1.031067612903162</v>
       </c>
       <c r="N10">
-        <v>1.017238662391476</v>
+        <v>1.010154402213701</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032934334970543</v>
+        <v>0.9871108104734473</v>
       </c>
       <c r="D11">
-        <v>1.040619127078086</v>
+        <v>1.012297920462992</v>
       </c>
       <c r="E11">
-        <v>1.046181313412571</v>
+        <v>1.007198590404355</v>
       </c>
       <c r="F11">
-        <v>1.052514298401298</v>
+        <v>1.014040611552316</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035729392926006</v>
+        <v>1.044652741245173</v>
       </c>
       <c r="J11">
-        <v>1.039517571062288</v>
+        <v>1.01702980224727</v>
       </c>
       <c r="K11">
-        <v>1.044169190804944</v>
+        <v>1.026991583719715</v>
       </c>
       <c r="L11">
-        <v>1.049711079016798</v>
+        <v>1.021986016820308</v>
       </c>
       <c r="M11">
-        <v>1.056021241306863</v>
+        <v>1.028702512653529</v>
       </c>
       <c r="N11">
-        <v>1.017109699141921</v>
+        <v>1.009500496377299</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032703676582799</v>
+        <v>0.9858817870265936</v>
       </c>
       <c r="D12">
-        <v>1.040441877111642</v>
+        <v>1.0113722567037</v>
       </c>
       <c r="E12">
-        <v>1.045962232019209</v>
+        <v>1.006110439451105</v>
       </c>
       <c r="F12">
-        <v>1.052292069555515</v>
+        <v>1.012930241018995</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035685165777556</v>
+        <v>1.044287614911017</v>
       </c>
       <c r="J12">
-        <v>1.039373877720019</v>
+        <v>1.016295911176088</v>
       </c>
       <c r="K12">
-        <v>1.044037345620259</v>
+        <v>1.026284777938368</v>
       </c>
       <c r="L12">
-        <v>1.04953727599162</v>
+        <v>1.021121501989838</v>
       </c>
       <c r="M12">
-        <v>1.055843985432822</v>
+        <v>1.027813841060085</v>
       </c>
       <c r="N12">
-        <v>1.01706177723898</v>
+        <v>1.009254682880945</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032753150144732</v>
+        <v>0.9861460673120113</v>
       </c>
       <c r="D13">
-        <v>1.040479897981441</v>
+        <v>1.011571282760507</v>
       </c>
       <c r="E13">
-        <v>1.046009219754544</v>
+        <v>1.006344369719588</v>
       </c>
       <c r="F13">
-        <v>1.052339733431115</v>
+        <v>1.013168955003782</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035694667274646</v>
+        <v>1.044366240276255</v>
       </c>
       <c r="J13">
-        <v>1.03940470215766</v>
+        <v>1.016453734559565</v>
       </c>
       <c r="K13">
-        <v>1.044065632680343</v>
+        <v>1.026436801811939</v>
       </c>
       <c r="L13">
-        <v>1.04957455670928</v>
+        <v>1.021307393596151</v>
       </c>
       <c r="M13">
-        <v>1.055882007781956</v>
+        <v>1.028004932111795</v>
       </c>
       <c r="N13">
-        <v>1.0170720575132</v>
+        <v>1.009307545212018</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032915267124583</v>
+        <v>0.9870095111555607</v>
       </c>
       <c r="D14">
-        <v>1.040604475610476</v>
+        <v>1.012221615086508</v>
       </c>
       <c r="E14">
-        <v>1.046163201388266</v>
+        <v>1.007108876242974</v>
       </c>
       <c r="F14">
-        <v>1.052495926658954</v>
+        <v>1.013949068604983</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035725743689478</v>
+        <v>1.04462269673399</v>
       </c>
       <c r="J14">
-        <v>1.039505694106188</v>
+        <v>1.016969318849332</v>
       </c>
       <c r="K14">
-        <v>1.044158295066325</v>
+        <v>1.026933343910241</v>
       </c>
       <c r="L14">
-        <v>1.049696712126184</v>
+        <v>1.021914758012447</v>
       </c>
       <c r="M14">
-        <v>1.056006589446246</v>
+        <v>1.028629265021643</v>
       </c>
       <c r="N14">
-        <v>1.017105738292217</v>
+        <v>1.009480237787511</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033015162818014</v>
+        <v>0.98753961565305</v>
       </c>
       <c r="D15">
-        <v>1.040681231533897</v>
+        <v>1.012620944097767</v>
       </c>
       <c r="E15">
-        <v>1.046258092004354</v>
+        <v>1.007578406667756</v>
       </c>
       <c r="F15">
-        <v>1.052592176978796</v>
+        <v>1.014428163888205</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035744848060651</v>
+        <v>1.044779820209912</v>
       </c>
       <c r="J15">
-        <v>1.039567913502074</v>
+        <v>1.017285819610724</v>
       </c>
       <c r="K15">
-        <v>1.044215370357775</v>
+        <v>1.027238081387862</v>
       </c>
       <c r="L15">
-        <v>1.049771977909122</v>
+        <v>1.022287665165631</v>
       </c>
       <c r="M15">
-        <v>1.056083347238417</v>
+        <v>1.0290125752543</v>
       </c>
       <c r="N15">
-        <v>1.017126487597313</v>
+        <v>1.009586247899437</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033596751964687</v>
+        <v>0.9905967413309407</v>
       </c>
       <c r="D16">
-        <v>1.041127975959725</v>
+        <v>1.014924771297122</v>
       </c>
       <c r="E16">
-        <v>1.046810661775146</v>
+        <v>1.010288698512497</v>
       </c>
       <c r="F16">
-        <v>1.053152615990989</v>
+        <v>1.017193353993225</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03585538920223</v>
+        <v>1.045680959583603</v>
       </c>
       <c r="J16">
-        <v>1.03992997901402</v>
+        <v>1.019110472817372</v>
       </c>
       <c r="K16">
-        <v>1.044547311844207</v>
+        <v>1.028993781366705</v>
       </c>
       <c r="L16">
-        <v>1.050210083872419</v>
+        <v>1.024438499822275</v>
       </c>
       <c r="M16">
-        <v>1.056530093274942</v>
+        <v>1.031223177255823</v>
       </c>
       <c r="N16">
-        <v>1.01724721854342</v>
+        <v>1.010197397145697</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033961701456086</v>
+        <v>0.9924900657584156</v>
       </c>
       <c r="D17">
-        <v>1.0414081984884</v>
+        <v>1.016352278266722</v>
       </c>
       <c r="E17">
-        <v>1.047157506777074</v>
+        <v>1.011969368662331</v>
       </c>
       <c r="F17">
-        <v>1.053504357631081</v>
+        <v>1.018907787805986</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035924151664955</v>
+        <v>1.046234608114586</v>
       </c>
       <c r="J17">
-        <v>1.04015702340867</v>
+        <v>1.020239930428088</v>
       </c>
       <c r="K17">
-        <v>1.044755298845896</v>
+        <v>1.030079541528723</v>
       </c>
       <c r="L17">
-        <v>1.05048491861538</v>
+        <v>1.025770736530804</v>
       </c>
       <c r="M17">
-        <v>1.05681030882926</v>
+        <v>1.032592222592573</v>
       </c>
       <c r="N17">
-        <v>1.017322915246056</v>
+        <v>1.010575688070812</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034174618288883</v>
+        <v>0.9935858747826699</v>
       </c>
       <c r="D18">
-        <v>1.041571644027425</v>
+        <v>1.017178714150319</v>
       </c>
       <c r="E18">
-        <v>1.047359898965082</v>
+        <v>1.012942852566609</v>
       </c>
       <c r="F18">
-        <v>1.053709591679058</v>
+        <v>1.019900726408657</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035964051450091</v>
+        <v>1.046553425643833</v>
       </c>
       <c r="J18">
-        <v>1.040289429112779</v>
+        <v>1.020893409409345</v>
       </c>
       <c r="K18">
-        <v>1.044876530490211</v>
+        <v>1.030707365658928</v>
       </c>
       <c r="L18">
-        <v>1.050645232780442</v>
+        <v>1.02654185377484</v>
       </c>
       <c r="M18">
-        <v>1.056973747492615</v>
+        <v>1.033384566991309</v>
       </c>
       <c r="N18">
-        <v>1.017367055252827</v>
+        <v>1.010794554292944</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034247225532929</v>
+        <v>0.9939580910884754</v>
       </c>
       <c r="D19">
-        <v>1.04162737409002</v>
+        <v>1.017459468469961</v>
       </c>
       <c r="E19">
-        <v>1.047428923568398</v>
+        <v>1.013273644566353</v>
       </c>
       <c r="F19">
-        <v>1.053779582861436</v>
+        <v>1.020238111712069</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035977620910604</v>
+        <v>1.046661442306798</v>
       </c>
       <c r="J19">
-        <v>1.040334571689292</v>
+        <v>1.021115339110652</v>
       </c>
       <c r="K19">
-        <v>1.04491785312444</v>
+        <v>1.030920518815175</v>
       </c>
       <c r="L19">
-        <v>1.050699897039466</v>
+        <v>1.026803788360813</v>
       </c>
       <c r="M19">
-        <v>1.057029474741197</v>
+        <v>1.033653698603444</v>
       </c>
       <c r="N19">
-        <v>1.017382103706146</v>
+        <v>1.01086888316659</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033922540860673</v>
+        <v>0.9922878179271574</v>
       </c>
       <c r="D20">
-        <v>1.041378133616519</v>
+        <v>1.016199765297063</v>
       </c>
       <c r="E20">
-        <v>1.047120284957667</v>
+        <v>1.011789758271646</v>
       </c>
       <c r="F20">
-        <v>1.053466611923901</v>
+        <v>1.01872457969562</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035916795633046</v>
+        <v>1.046175634148599</v>
       </c>
       <c r="J20">
-        <v>1.04013266631908</v>
+        <v>1.020119302824199</v>
       </c>
       <c r="K20">
-        <v>1.044732992453651</v>
+        <v>1.02996361936382</v>
       </c>
       <c r="L20">
-        <v>1.050455430642483</v>
+        <v>1.025628419192746</v>
       </c>
       <c r="M20">
-        <v>1.056780244997636</v>
+        <v>1.032445981207315</v>
       </c>
       <c r="N20">
-        <v>1.017314795006761</v>
+        <v>1.010535286527795</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032867525614746</v>
+        <v>0.9867556439575442</v>
       </c>
       <c r="D21">
-        <v>1.040567790698038</v>
+        <v>1.012030393077657</v>
       </c>
       <c r="E21">
-        <v>1.046117853997349</v>
+        <v>1.006884063189948</v>
       </c>
       <c r="F21">
-        <v>1.052449928619461</v>
+        <v>1.013719670337596</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035716601381869</v>
+        <v>1.044547362062373</v>
       </c>
       <c r="J21">
-        <v>1.039475955550336</v>
+        <v>1.016817736153347</v>
       </c>
       <c r="K21">
-        <v>1.044131011855771</v>
+        <v>1.026787375033949</v>
       </c>
       <c r="L21">
-        <v>1.049660740023664</v>
+        <v>1.021736178127777</v>
       </c>
       <c r="M21">
-        <v>1.055969903474554</v>
+        <v>1.028445699141299</v>
       </c>
       <c r="N21">
-        <v>1.017095820669592</v>
+        <v>1.009429465932131</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032204634605932</v>
+        <v>0.9831953421785943</v>
       </c>
       <c r="D22">
-        <v>1.040058274420084</v>
+        <v>1.009349839148493</v>
       </c>
       <c r="E22">
-        <v>1.045488346611166</v>
+        <v>1.003734299449338</v>
       </c>
       <c r="F22">
-        <v>1.051811332132807</v>
+        <v>1.010505300540453</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035588860519665</v>
+        <v>1.043485013768596</v>
       </c>
       <c r="J22">
-        <v>1.039062832959123</v>
+        <v>1.014691247608627</v>
       </c>
       <c r="K22">
-        <v>1.043751776847495</v>
+        <v>1.024738321860909</v>
       </c>
       <c r="L22">
-        <v>1.049161164078144</v>
+        <v>1.019232140353554</v>
       </c>
       <c r="M22">
-        <v>1.055460361288199</v>
+        <v>1.025871479041629</v>
       </c>
       <c r="N22">
-        <v>1.016958031852138</v>
+        <v>1.008717205413509</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.0325560037347</v>
+        <v>0.9850907569126474</v>
       </c>
       <c r="D23">
-        <v>1.040328380186124</v>
+        <v>1.010776615531958</v>
       </c>
       <c r="E23">
-        <v>1.045821987807661</v>
+        <v>1.005410440478091</v>
       </c>
       <c r="F23">
-        <v>1.052149803753389</v>
+        <v>1.012215905098453</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035656755462967</v>
+        <v>1.044051918504397</v>
       </c>
       <c r="J23">
-        <v>1.039281857818598</v>
+        <v>1.015823482171355</v>
       </c>
       <c r="K23">
-        <v>1.043952886830726</v>
+        <v>1.025829628075485</v>
       </c>
       <c r="L23">
-        <v>1.049425990990794</v>
+        <v>1.020565126222625</v>
       </c>
       <c r="M23">
-        <v>1.055730483399617</v>
+        <v>1.027241886734602</v>
       </c>
       <c r="N23">
-        <v>1.017031086705884</v>
+        <v>1.009096444366206</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033940235699931</v>
+        <v>0.9923792313389883</v>
       </c>
       <c r="D24">
-        <v>1.041391718649018</v>
+        <v>1.016268698484629</v>
       </c>
       <c r="E24">
-        <v>1.047137103638205</v>
+        <v>1.011870937519312</v>
       </c>
       <c r="F24">
-        <v>1.053483667370858</v>
+        <v>1.01880738533601</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035920120150575</v>
+        <v>1.046202294650119</v>
       </c>
       <c r="J24">
-        <v>1.040143672318145</v>
+        <v>1.02017382564056</v>
       </c>
       <c r="K24">
-        <v>1.044743072010715</v>
+        <v>1.030016016512022</v>
       </c>
       <c r="L24">
-        <v>1.050468754964423</v>
+        <v>1.025692744637944</v>
       </c>
       <c r="M24">
-        <v>1.05679382956873</v>
+        <v>1.032512080509855</v>
       </c>
       <c r="N24">
-        <v>1.017318464232329</v>
+        <v>1.010553547751109</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035548437946586</v>
+        <v>1.000504481643596</v>
       </c>
       <c r="D25">
-        <v>1.04262552018734</v>
+        <v>1.022399943368567</v>
       </c>
       <c r="E25">
-        <v>1.048666487502889</v>
+        <v>1.0191020355175</v>
       </c>
       <c r="F25">
-        <v>1.055034247125942</v>
+        <v>1.026181135529155</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036217570491877</v>
+        <v>1.048536860060661</v>
       </c>
       <c r="J25">
-        <v>1.041142758086058</v>
+        <v>1.025014879888449</v>
       </c>
       <c r="K25">
-        <v>1.045656752177976</v>
+        <v>1.034660203199368</v>
       </c>
       <c r="L25">
-        <v>1.051679122599801</v>
+        <v>1.031410881277728</v>
       </c>
       <c r="M25">
-        <v>1.058027530708901</v>
+        <v>1.038386176866849</v>
       </c>
       <c r="N25">
-        <v>1.017651454257335</v>
+        <v>1.012174826693455</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006741321445782</v>
+        <v>1.00914200742851</v>
       </c>
       <c r="D2">
-        <v>1.027110410506902</v>
+        <v>1.029997064146833</v>
       </c>
       <c r="E2">
-        <v>1.024673732892067</v>
+        <v>1.027745847979994</v>
       </c>
       <c r="F2">
-        <v>1.031859424151494</v>
+        <v>1.036354324036534</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050276391548908</v>
+        <v>1.047055742127336</v>
       </c>
       <c r="J2">
-        <v>1.028722253476429</v>
+        <v>1.031052678981726</v>
       </c>
       <c r="K2">
-        <v>1.038204545283831</v>
+        <v>1.041053730826587</v>
       </c>
       <c r="L2">
-        <v>1.035799701067694</v>
+        <v>1.038831712305355</v>
       </c>
       <c r="M2">
-        <v>1.042892056977646</v>
+        <v>1.047329394464967</v>
       </c>
       <c r="N2">
-        <v>1.013416176150286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014080820876736</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.046030410622591</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040098824917368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011139391152904</v>
+        <v>1.012783019799142</v>
       </c>
       <c r="D3">
-        <v>1.03043330232294</v>
+        <v>1.032400230251459</v>
       </c>
       <c r="E3">
-        <v>1.028614158613545</v>
+        <v>1.0307624677541</v>
       </c>
       <c r="F3">
-        <v>1.035873234801427</v>
+        <v>1.039089181332364</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051471621972369</v>
+        <v>1.047620286924055</v>
       </c>
       <c r="J3">
-        <v>1.031330923693441</v>
+        <v>1.032931170559617</v>
       </c>
       <c r="K3">
-        <v>1.04069104624696</v>
+        <v>1.042634671636882</v>
       </c>
       <c r="L3">
-        <v>1.038893552596076</v>
+        <v>1.041016304320141</v>
       </c>
       <c r="M3">
-        <v>1.04606679830241</v>
+        <v>1.049245193864069</v>
       </c>
       <c r="N3">
-        <v>1.01428944145318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014727456518828</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047546624319062</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041214023398266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013928224006648</v>
+        <v>1.015100751071516</v>
       </c>
       <c r="D4">
-        <v>1.032540520108302</v>
+        <v>1.033933163389052</v>
       </c>
       <c r="E4">
-        <v>1.031117809676822</v>
+        <v>1.032688634365107</v>
       </c>
       <c r="F4">
-        <v>1.03842256390184</v>
+        <v>1.04083620708465</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052214610532967</v>
+        <v>1.04796998994894</v>
       </c>
       <c r="J4">
-        <v>1.032982232363133</v>
+        <v>1.034125910062771</v>
       </c>
       <c r="K4">
-        <v>1.042261453447611</v>
+        <v>1.043638593658747</v>
       </c>
       <c r="L4">
-        <v>1.040854634024422</v>
+        <v>1.042407916434076</v>
       </c>
       <c r="M4">
-        <v>1.048078365480792</v>
+        <v>1.050465544015822</v>
       </c>
       <c r="N4">
-        <v>1.014842114219068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015138511057387</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048512439689999</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041924772469676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015087467357003</v>
+        <v>1.016069267164637</v>
       </c>
       <c r="D5">
-        <v>1.033416416871439</v>
+        <v>1.034576313712794</v>
       </c>
       <c r="E5">
-        <v>1.032159676170235</v>
+        <v>1.033495384670456</v>
       </c>
       <c r="F5">
-        <v>1.039483207626409</v>
+        <v>1.041568239548664</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052519819866918</v>
+        <v>1.048115104090044</v>
       </c>
       <c r="J5">
-        <v>1.033667917943893</v>
+        <v>1.034626284093289</v>
       </c>
       <c r="K5">
-        <v>1.042912671875912</v>
+        <v>1.044060000558992</v>
       </c>
       <c r="L5">
-        <v>1.041669587816288</v>
+        <v>1.042990782914983</v>
       </c>
       <c r="M5">
-        <v>1.048914105549881</v>
+        <v>1.050976890811745</v>
       </c>
       <c r="N5">
-        <v>1.015071575590271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015310903415579</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048917131850115</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042229890054237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01528134957186</v>
+        <v>1.016235068643072</v>
       </c>
       <c r="D6">
-        <v>1.033562907060255</v>
+        <v>1.034688714143913</v>
       </c>
       <c r="E6">
-        <v>1.032333994701431</v>
+        <v>1.033634145266738</v>
       </c>
       <c r="F6">
-        <v>1.039660654157814</v>
+        <v>1.041694323812646</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052570650809249</v>
+        <v>1.048141438498493</v>
       </c>
       <c r="J6">
-        <v>1.033782554886179</v>
+        <v>1.034713627680794</v>
       </c>
       <c r="K6">
-        <v>1.043021494503767</v>
+        <v>1.044135158664655</v>
       </c>
       <c r="L6">
-        <v>1.041805874239011</v>
+        <v>1.043091963375842</v>
       </c>
       <c r="M6">
-        <v>1.049053856575459</v>
+        <v>1.051065927862203</v>
       </c>
       <c r="N6">
-        <v>1.015109936500139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015341346323227</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048987597892033</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042291750853979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01394376506704</v>
+        <v>1.015123685605532</v>
       </c>
       <c r="D7">
-        <v>1.032552262705671</v>
+        <v>1.033954431665141</v>
       </c>
       <c r="E7">
-        <v>1.031131772601944</v>
+        <v>1.032709264089461</v>
       </c>
       <c r="F7">
-        <v>1.038436779393635</v>
+        <v>1.040855358367705</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052218716646576</v>
+        <v>1.047977818114644</v>
       </c>
       <c r="J7">
-        <v>1.032991427693168</v>
+        <v>1.034142329020552</v>
       </c>
       <c r="K7">
-        <v>1.042270190035426</v>
+        <v>1.043656755697533</v>
       </c>
       <c r="L7">
-        <v>1.040865560365924</v>
+        <v>1.042425441720335</v>
       </c>
       <c r="M7">
-        <v>1.048089571282203</v>
+        <v>1.050481641353813</v>
       </c>
       <c r="N7">
-        <v>1.014845191510585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01514513310352</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048525179514039</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041957667338747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008239762938214</v>
+        <v>1.010393096945128</v>
       </c>
       <c r="D8">
-        <v>1.028242466293236</v>
+        <v>1.030829606373451</v>
       </c>
       <c r="E8">
-        <v>1.026015179281735</v>
+        <v>1.028783080748206</v>
       </c>
       <c r="F8">
-        <v>1.033226049635069</v>
+        <v>1.037295013799611</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050686705129759</v>
+        <v>1.047257123456147</v>
       </c>
       <c r="J8">
-        <v>1.02961161755076</v>
+        <v>1.031704053851463</v>
       </c>
       <c r="K8">
-        <v>1.039052996494789</v>
+        <v>1.041607556743792</v>
       </c>
       <c r="L8">
-        <v>1.036853922019635</v>
+        <v>1.039586786099088</v>
       </c>
       <c r="M8">
-        <v>1.043974003034639</v>
+        <v>1.047992430040053</v>
       </c>
       <c r="N8">
-        <v>1.013713916921324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014306355340453</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046555154651954</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040513277276745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9977297517708621</v>
+        <v>1.001735874026749</v>
       </c>
       <c r="D9">
-        <v>1.020305315798322</v>
+        <v>1.025128384958294</v>
       </c>
       <c r="E9">
-        <v>1.016629183549949</v>
+        <v>1.021643591289136</v>
       </c>
       <c r="F9">
-        <v>1.023660013552518</v>
+        <v>1.030826594084848</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047747745768364</v>
+        <v>1.045856478589514</v>
       </c>
       <c r="J9">
-        <v>1.023362933853783</v>
+        <v>1.027227482670362</v>
       </c>
       <c r="K9">
-        <v>1.033077324967101</v>
+        <v>1.037826515259532</v>
       </c>
       <c r="L9">
-        <v>1.029458104612847</v>
+        <v>1.03439501177473</v>
       </c>
       <c r="M9">
-        <v>1.036380542079222</v>
+        <v>1.043438574312175</v>
       </c>
       <c r="N9">
-        <v>1.011621619862627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012763197523934</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042951104263146</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037836671115177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.990381605967574</v>
+        <v>0.9958055601822522</v>
       </c>
       <c r="D10">
-        <v>1.014762599278657</v>
+        <v>1.021264043151575</v>
       </c>
       <c r="E10">
-        <v>1.01009783078717</v>
+        <v>1.016813367229046</v>
       </c>
       <c r="F10">
-        <v>1.016998638064184</v>
+        <v>1.026488321302283</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045617830110439</v>
+        <v>1.044866831273589</v>
       </c>
       <c r="J10">
-        <v>1.018982105081672</v>
+        <v>1.024186588745</v>
       </c>
       <c r="K10">
-        <v>1.028870329750512</v>
+        <v>1.035259696884787</v>
       </c>
       <c r="L10">
-        <v>1.02428712825398</v>
+        <v>1.03088554485435</v>
       </c>
       <c r="M10">
-        <v>1.031067612903162</v>
+        <v>1.040395242191134</v>
       </c>
       <c r="N10">
-        <v>1.010154402213701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011719194012003</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.040593821772959</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036038566271529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9871108104734473</v>
+        <v>0.9936927918504675</v>
       </c>
       <c r="D11">
-        <v>1.012297920462992</v>
+        <v>1.020048559099794</v>
       </c>
       <c r="E11">
-        <v>1.007198590404355</v>
+        <v>1.015307592610086</v>
       </c>
       <c r="F11">
-        <v>1.014040611552316</v>
+        <v>1.025402371402472</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044652741245173</v>
+        <v>1.044641147942047</v>
       </c>
       <c r="J11">
-        <v>1.01702980224727</v>
+        <v>1.023330332571596</v>
       </c>
       <c r="K11">
-        <v>1.026991583719715</v>
+        <v>1.034602040466005</v>
       </c>
       <c r="L11">
-        <v>1.021986016820308</v>
+        <v>1.02994649084212</v>
       </c>
       <c r="M11">
-        <v>1.028702512653529</v>
+        <v>1.039860625880236</v>
       </c>
       <c r="N11">
-        <v>1.009500496377299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011467402428237</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040605874070529</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035606391888231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9858817870265936</v>
+        <v>0.9930919445110178</v>
       </c>
       <c r="D12">
-        <v>1.0113722567037</v>
+        <v>1.019772616430155</v>
       </c>
       <c r="E12">
-        <v>1.006110439451105</v>
+        <v>1.014974156290373</v>
       </c>
       <c r="F12">
-        <v>1.012930241018995</v>
+        <v>1.025299362937</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044287614911017</v>
+        <v>1.044637028565823</v>
       </c>
       <c r="J12">
-        <v>1.016295911176088</v>
+        <v>1.023191570668576</v>
       </c>
       <c r="K12">
-        <v>1.026284777938368</v>
+        <v>1.034530561519917</v>
       </c>
       <c r="L12">
-        <v>1.021121501989838</v>
+        <v>1.029819990157809</v>
       </c>
       <c r="M12">
-        <v>1.027813841060085</v>
+        <v>1.039957404333838</v>
       </c>
       <c r="N12">
-        <v>1.009254682880945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011453896109752</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041008060800751</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035555854045582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9861460673120113</v>
+        <v>0.993628018894173</v>
       </c>
       <c r="D13">
-        <v>1.011571282760507</v>
+        <v>1.020217572189485</v>
       </c>
       <c r="E13">
-        <v>1.006344369719588</v>
+        <v>1.015535008079821</v>
       </c>
       <c r="F13">
-        <v>1.013168955003782</v>
+        <v>1.025966214200957</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044366240276255</v>
+        <v>1.044815169546306</v>
       </c>
       <c r="J13">
-        <v>1.016453734559565</v>
+        <v>1.02361090478408</v>
       </c>
       <c r="K13">
-        <v>1.026436801811939</v>
+        <v>1.034924652634026</v>
       </c>
       <c r="L13">
-        <v>1.021307393596151</v>
+        <v>1.030327457807411</v>
       </c>
       <c r="M13">
-        <v>1.028004932111795</v>
+        <v>1.040569872953742</v>
       </c>
       <c r="N13">
-        <v>1.009307545212018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011629293078218</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041768397639976</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035831998719807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9870095111555607</v>
+        <v>0.9945193445825843</v>
       </c>
       <c r="D14">
-        <v>1.012221615086508</v>
+        <v>1.02085719260216</v>
       </c>
       <c r="E14">
-        <v>1.007108876242974</v>
+        <v>1.016333407392157</v>
       </c>
       <c r="F14">
-        <v>1.013949068604983</v>
+        <v>1.026782567116003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04462269673399</v>
+        <v>1.045022814122191</v>
       </c>
       <c r="J14">
-        <v>1.016969318849332</v>
+        <v>1.024157898855692</v>
       </c>
       <c r="K14">
-        <v>1.026933343910241</v>
+        <v>1.035412675580625</v>
       </c>
       <c r="L14">
-        <v>1.021914758012447</v>
+        <v>1.030970309805468</v>
       </c>
       <c r="M14">
-        <v>1.028629265021643</v>
+        <v>1.041232811829341</v>
       </c>
       <c r="N14">
-        <v>1.009480237787511</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011837979289467</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042465407844565</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.036178469261531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.98753961565305</v>
+        <v>0.9949887118530873</v>
       </c>
       <c r="D15">
-        <v>1.012620944097767</v>
+        <v>1.021176872035943</v>
       </c>
       <c r="E15">
-        <v>1.007578406667756</v>
+        <v>1.016730602043399</v>
       </c>
       <c r="F15">
-        <v>1.014428163888205</v>
+        <v>1.027161261861031</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044779820209912</v>
+        <v>1.045116291399131</v>
       </c>
       <c r="J15">
-        <v>1.017285819610724</v>
+        <v>1.024419101851177</v>
       </c>
       <c r="K15">
-        <v>1.027238081387862</v>
+        <v>1.03564040349256</v>
       </c>
       <c r="L15">
-        <v>1.022287665165631</v>
+        <v>1.031273538819576</v>
       </c>
       <c r="M15">
-        <v>1.0290125752543</v>
+        <v>1.041519324767026</v>
       </c>
       <c r="N15">
-        <v>1.009586247899437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011932448774591</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042729331687667</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036345343354963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9905967413309407</v>
+        <v>0.9973948991224322</v>
       </c>
       <c r="D16">
-        <v>1.014924771297122</v>
+        <v>1.022730342484688</v>
       </c>
       <c r="E16">
-        <v>1.010288698512497</v>
+        <v>1.018671081097389</v>
       </c>
       <c r="F16">
-        <v>1.017193353993225</v>
+        <v>1.028892177701939</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045680959583603</v>
+        <v>1.045516398466452</v>
       </c>
       <c r="J16">
-        <v>1.019110472817372</v>
+        <v>1.025635140830712</v>
       </c>
       <c r="K16">
-        <v>1.028993781366705</v>
+        <v>1.036665463883142</v>
       </c>
       <c r="L16">
-        <v>1.024438499822275</v>
+        <v>1.032675499886112</v>
       </c>
       <c r="M16">
-        <v>1.031223177255823</v>
+        <v>1.042723454463666</v>
       </c>
       <c r="N16">
-        <v>1.010197397145697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012343974714519</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043642438533606</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037073257952371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9924900657584156</v>
+        <v>0.9987755134930987</v>
       </c>
       <c r="D17">
-        <v>1.016352278266722</v>
+        <v>1.02358819021283</v>
       </c>
       <c r="E17">
-        <v>1.011969368662331</v>
+        <v>1.019742469724292</v>
       </c>
       <c r="F17">
-        <v>1.018907787805986</v>
+        <v>1.029789436737738</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046234608114586</v>
+        <v>1.045711977426141</v>
       </c>
       <c r="J17">
-        <v>1.020239930428088</v>
+        <v>1.02628082837221</v>
       </c>
       <c r="K17">
-        <v>1.030079541528723</v>
+        <v>1.037194898419278</v>
       </c>
       <c r="L17">
-        <v>1.025770736530804</v>
+        <v>1.033412975761252</v>
       </c>
       <c r="M17">
-        <v>1.032592222592573</v>
+        <v>1.043294559846545</v>
       </c>
       <c r="N17">
-        <v>1.010575688070812</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.0125500246041</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043965114557094</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037450171371525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9935858747826699</v>
+        <v>0.9993909557227602</v>
       </c>
       <c r="D18">
-        <v>1.017178714150319</v>
+        <v>1.023907494900366</v>
       </c>
       <c r="E18">
-        <v>1.012942852566609</v>
+        <v>1.020141413252809</v>
       </c>
       <c r="F18">
-        <v>1.019900726408657</v>
+        <v>1.03001490844991</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046553425643833</v>
+        <v>1.045742372048116</v>
       </c>
       <c r="J18">
-        <v>1.020893409409345</v>
+        <v>1.026476991778983</v>
       </c>
       <c r="K18">
-        <v>1.030707365658928</v>
+        <v>1.037325931111241</v>
       </c>
       <c r="L18">
-        <v>1.02654185377484</v>
+        <v>1.033621306341841</v>
       </c>
       <c r="M18">
-        <v>1.033384566991309</v>
+        <v>1.043334905659985</v>
       </c>
       <c r="N18">
-        <v>1.010794554292944</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012590781969138</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043759938748925</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037531198168876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9939580910884754</v>
+        <v>0.9993313353964884</v>
       </c>
       <c r="D19">
-        <v>1.017459468469961</v>
+        <v>1.023761324300589</v>
       </c>
       <c r="E19">
-        <v>1.013273644566353</v>
+        <v>1.019946242618088</v>
       </c>
       <c r="F19">
-        <v>1.020238111712069</v>
+        <v>1.029645462337135</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046661442306798</v>
+        <v>1.045636098104353</v>
       </c>
       <c r="J19">
-        <v>1.021115339110652</v>
+        <v>1.026284852773841</v>
       </c>
       <c r="K19">
-        <v>1.030920518815175</v>
+        <v>1.037119720788379</v>
       </c>
       <c r="L19">
-        <v>1.026803788360813</v>
+        <v>1.033366590035092</v>
       </c>
       <c r="M19">
-        <v>1.033653698603444</v>
+        <v>1.042909463148229</v>
       </c>
       <c r="N19">
-        <v>1.01086888316659</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012492555571205</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043098986021021</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037391786827269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9922878179271574</v>
+        <v>0.9973684056353047</v>
       </c>
       <c r="D20">
-        <v>1.016199765297063</v>
+        <v>1.022296674634962</v>
       </c>
       <c r="E20">
-        <v>1.011789758271646</v>
+        <v>1.018089147928379</v>
       </c>
       <c r="F20">
-        <v>1.01872457969562</v>
+        <v>1.027636504019667</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046175634148599</v>
+        <v>1.045142547284315</v>
       </c>
       <c r="J20">
-        <v>1.020119302824199</v>
+        <v>1.02500114910093</v>
       </c>
       <c r="K20">
-        <v>1.02996361936382</v>
+        <v>1.035958475744183</v>
       </c>
       <c r="L20">
-        <v>1.025628419192746</v>
+        <v>1.031821208108511</v>
       </c>
       <c r="M20">
-        <v>1.032445981207315</v>
+        <v>1.041210203519207</v>
       </c>
       <c r="N20">
-        <v>1.010535286527795</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012002024837592</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041228253904537</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036574661679044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9867556439575442</v>
+        <v>0.9928253704472675</v>
       </c>
       <c r="D21">
-        <v>1.012030393077657</v>
+        <v>1.019312338191272</v>
       </c>
       <c r="E21">
-        <v>1.006884063189948</v>
+        <v>1.014360879131956</v>
       </c>
       <c r="F21">
-        <v>1.013719670337596</v>
+        <v>1.024237956617841</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044547362062373</v>
+        <v>1.044340808466554</v>
       </c>
       <c r="J21">
-        <v>1.016817736153347</v>
+        <v>1.022626153117732</v>
       </c>
       <c r="K21">
-        <v>1.026787375033949</v>
+        <v>1.033936842370635</v>
       </c>
       <c r="L21">
-        <v>1.021736178127777</v>
+        <v>1.029075194004777</v>
       </c>
       <c r="M21">
-        <v>1.028445699141299</v>
+        <v>1.038774237055887</v>
       </c>
       <c r="N21">
-        <v>1.009429465932131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011178534146628</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039259597145804</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.035148519494184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9831953421785943</v>
+        <v>0.9899362640814099</v>
       </c>
       <c r="D22">
-        <v>1.009349839148493</v>
+        <v>1.017423108656221</v>
       </c>
       <c r="E22">
-        <v>1.003734299449338</v>
+        <v>1.01200911064427</v>
       </c>
       <c r="F22">
-        <v>1.010505300540453</v>
+        <v>1.02211161756854</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043485013768596</v>
+        <v>1.043825383748816</v>
       </c>
       <c r="J22">
-        <v>1.014691247608627</v>
+        <v>1.021124608885489</v>
       </c>
       <c r="K22">
-        <v>1.024738321860909</v>
+        <v>1.032657135701415</v>
       </c>
       <c r="L22">
-        <v>1.019232140353554</v>
+        <v>1.027346360523169</v>
       </c>
       <c r="M22">
-        <v>1.025871479041629</v>
+        <v>1.037257407191683</v>
       </c>
       <c r="N22">
-        <v>1.008717205413509</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010658863773552</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.038059124932571</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034230212053578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9850907569126474</v>
+        <v>0.9914633552775475</v>
       </c>
       <c r="D23">
-        <v>1.010776615531958</v>
+        <v>1.018415831350926</v>
       </c>
       <c r="E23">
-        <v>1.005410440478091</v>
+        <v>1.013249890142553</v>
       </c>
       <c r="F23">
-        <v>1.012215905098453</v>
+        <v>1.023233063089694</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044051918504397</v>
+        <v>1.04409490206489</v>
       </c>
       <c r="J23">
-        <v>1.015823482171355</v>
+        <v>1.021914082915965</v>
       </c>
       <c r="K23">
-        <v>1.025829628075485</v>
+        <v>1.033326512148768</v>
       </c>
       <c r="L23">
-        <v>1.020565126222625</v>
+        <v>1.028256514656124</v>
       </c>
       <c r="M23">
-        <v>1.027241886734602</v>
+        <v>1.038055412539593</v>
       </c>
       <c r="N23">
-        <v>1.009096444366206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.0109310229793</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.038690694530039</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03469385691479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9923792313389883</v>
+        <v>0.9973798173249759</v>
       </c>
       <c r="D24">
-        <v>1.016268698484629</v>
+        <v>1.022281228412392</v>
       </c>
       <c r="E24">
-        <v>1.011870937519312</v>
+        <v>1.018075941013809</v>
       </c>
       <c r="F24">
-        <v>1.01880738533601</v>
+        <v>1.027597913944445</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046202294650119</v>
+        <v>1.045125814142976</v>
       </c>
       <c r="J24">
-        <v>1.02017382564056</v>
+        <v>1.024979103444189</v>
       </c>
       <c r="K24">
-        <v>1.030016016512022</v>
+        <v>1.035928041743938</v>
       </c>
       <c r="L24">
-        <v>1.025692744637944</v>
+        <v>1.031792888547022</v>
       </c>
       <c r="M24">
-        <v>1.032512080509855</v>
+        <v>1.041157113870225</v>
       </c>
       <c r="N24">
-        <v>1.010553547751109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011989131655484</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041145485157197</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036525764136769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000504481643596</v>
+        <v>1.004028097067996</v>
       </c>
       <c r="D25">
-        <v>1.022399943368567</v>
+        <v>1.026643839068221</v>
       </c>
       <c r="E25">
-        <v>1.0191020355175</v>
+        <v>1.023530598036436</v>
       </c>
       <c r="F25">
-        <v>1.026181135529155</v>
+        <v>1.032535989759507</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048536860060661</v>
+        <v>1.046242611097556</v>
       </c>
       <c r="J25">
-        <v>1.025014879888449</v>
+        <v>1.02842065597435</v>
       </c>
       <c r="K25">
-        <v>1.034660203199368</v>
+        <v>1.038842158749842</v>
       </c>
       <c r="L25">
-        <v>1.031410881277728</v>
+        <v>1.035774292134039</v>
       </c>
       <c r="M25">
-        <v>1.038386176866849</v>
+        <v>1.044649381555789</v>
       </c>
       <c r="N25">
-        <v>1.012174826693455</v>
+        <v>1.013176376346058</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043909373139464</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038583330454015</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00914200742851</v>
+        <v>1.008688428445718</v>
       </c>
       <c r="D2">
-        <v>1.029997064146833</v>
+        <v>1.029055044966864</v>
       </c>
       <c r="E2">
-        <v>1.027745847979994</v>
+        <v>1.027248193802368</v>
       </c>
       <c r="F2">
-        <v>1.036354324036534</v>
+        <v>1.035760149716159</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047055742127336</v>
+        <v>1.046682876387958</v>
       </c>
       <c r="J2">
-        <v>1.031052678981726</v>
+        <v>1.030612339665509</v>
       </c>
       <c r="K2">
-        <v>1.041053730826587</v>
+        <v>1.040123909917612</v>
       </c>
       <c r="L2">
-        <v>1.038831712305355</v>
+        <v>1.038340534191333</v>
       </c>
       <c r="M2">
-        <v>1.047329394464967</v>
+        <v>1.046742793433025</v>
       </c>
       <c r="N2">
-        <v>1.014080820876736</v>
+        <v>1.015190597432703</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046030410622591</v>
+        <v>1.045566158616108</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040098824917368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039450120476874</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022688052038104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012783019799142</v>
+        <v>1.012192761391027</v>
       </c>
       <c r="D3">
-        <v>1.032400230251459</v>
+        <v>1.031292963123915</v>
       </c>
       <c r="E3">
-        <v>1.0307624677541</v>
+        <v>1.030130993481312</v>
       </c>
       <c r="F3">
-        <v>1.039089181332364</v>
+        <v>1.038369003631432</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047620286924055</v>
+        <v>1.047176603341926</v>
       </c>
       <c r="J3">
-        <v>1.032931170559617</v>
+        <v>1.032356469378323</v>
       </c>
       <c r="K3">
-        <v>1.042634671636882</v>
+        <v>1.041540508948728</v>
       </c>
       <c r="L3">
-        <v>1.041016304320141</v>
+        <v>1.040392328688439</v>
       </c>
       <c r="M3">
-        <v>1.049245193864069</v>
+        <v>1.048533400317127</v>
       </c>
       <c r="N3">
-        <v>1.014727456518828</v>
+        <v>1.015667398945866</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047546624319062</v>
+        <v>1.046983292673603</v>
       </c>
       <c r="Q3">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R3">
-        <v>1.041214023398266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04044883950377</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022970605487657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015100751071516</v>
+        <v>1.014424498331903</v>
       </c>
       <c r="D4">
-        <v>1.033933163389052</v>
+        <v>1.032721365725089</v>
       </c>
       <c r="E4">
-        <v>1.032688634365107</v>
+        <v>1.031972785006862</v>
       </c>
       <c r="F4">
-        <v>1.04083620708465</v>
+        <v>1.040036490022496</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.04796998994894</v>
+        <v>1.047481467103073</v>
       </c>
       <c r="J4">
-        <v>1.034125910062771</v>
+        <v>1.033466285178929</v>
       </c>
       <c r="K4">
-        <v>1.043638593658747</v>
+        <v>1.042440282963018</v>
       </c>
       <c r="L4">
-        <v>1.042407916434076</v>
+        <v>1.04170005321533</v>
       </c>
       <c r="M4">
-        <v>1.050465544015822</v>
+        <v>1.049674578826215</v>
       </c>
       <c r="N4">
-        <v>1.015138511057387</v>
+        <v>1.015970693835812</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048512439689999</v>
+        <v>1.04788645036911</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041924772469676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041086029455895</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023147740062939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016069267164637</v>
+        <v>1.015357308517625</v>
       </c>
       <c r="D5">
-        <v>1.034576313712794</v>
+        <v>1.033321040987132</v>
       </c>
       <c r="E5">
-        <v>1.033495384670456</v>
+        <v>1.032744469109242</v>
       </c>
       <c r="F5">
-        <v>1.041568239548664</v>
+        <v>1.040735458754261</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048115104090044</v>
+        <v>1.047607913698803</v>
       </c>
       <c r="J5">
-        <v>1.034626284093289</v>
+        <v>1.033931312458548</v>
       </c>
       <c r="K5">
-        <v>1.044060000558992</v>
+        <v>1.042818330985008</v>
       </c>
       <c r="L5">
-        <v>1.042990782914983</v>
+        <v>1.042248020904639</v>
       </c>
       <c r="M5">
-        <v>1.050976890811745</v>
+        <v>1.050152982446194</v>
       </c>
       <c r="N5">
-        <v>1.015310903415579</v>
+        <v>1.016097980848181</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048917131850115</v>
+        <v>1.048265070833178</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042229890054237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041361198953132</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023222030399137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016235068643072</v>
+        <v>1.015517006374002</v>
       </c>
       <c r="D6">
-        <v>1.034688714143913</v>
+        <v>1.033426069329016</v>
       </c>
       <c r="E6">
-        <v>1.033634145266738</v>
+        <v>1.032877241841634</v>
       </c>
       <c r="F6">
-        <v>1.041694323812646</v>
+        <v>1.040855913599126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048141438498493</v>
+        <v>1.047631070726319</v>
       </c>
       <c r="J6">
-        <v>1.034713627680794</v>
+        <v>1.034012610657067</v>
       </c>
       <c r="K6">
-        <v>1.044135158664655</v>
+        <v>1.042886134911441</v>
       </c>
       <c r="L6">
-        <v>1.043091963375842</v>
+        <v>1.042343240755992</v>
       </c>
       <c r="M6">
-        <v>1.051065927862203</v>
+        <v>1.050236409380188</v>
       </c>
       <c r="N6">
-        <v>1.015341346323227</v>
+        <v>1.016120510291448</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048987597892033</v>
+        <v>1.048331096953527</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042291750853979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041418727485194</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023235848046847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015123685605532</v>
+        <v>1.014454314283345</v>
       </c>
       <c r="D7">
-        <v>1.033954431665141</v>
+        <v>1.032747241558542</v>
       </c>
       <c r="E7">
-        <v>1.032709264089461</v>
+        <v>1.031999613794854</v>
       </c>
       <c r="F7">
-        <v>1.040855358367705</v>
+        <v>1.040060465199818</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047977818114644</v>
+        <v>1.047491386403568</v>
       </c>
       <c r="J7">
-        <v>1.034142329020552</v>
+        <v>1.033489409200476</v>
       </c>
       <c r="K7">
-        <v>1.043656755697533</v>
+        <v>1.042462996048563</v>
       </c>
       <c r="L7">
-        <v>1.042425441720335</v>
+        <v>1.041723705321542</v>
       </c>
       <c r="M7">
-        <v>1.050481641353813</v>
+        <v>1.049695443932028</v>
       </c>
       <c r="N7">
-        <v>1.01514513310352</v>
+        <v>1.016003669572791</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048525179514039</v>
+        <v>1.047902963534243</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041957667338747</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041124138621226</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023154219229848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010393096945128</v>
+        <v>1.009916199934489</v>
       </c>
       <c r="D8">
-        <v>1.030829606373451</v>
+        <v>1.029847862489074</v>
       </c>
       <c r="E8">
-        <v>1.028783080748206</v>
+        <v>1.028260928301747</v>
       </c>
       <c r="F8">
-        <v>1.037295013799611</v>
+        <v>1.036674645829658</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047257123456147</v>
+        <v>1.046867682303686</v>
       </c>
       <c r="J8">
-        <v>1.031704053851463</v>
+        <v>1.031240613200803</v>
       </c>
       <c r="K8">
-        <v>1.041607556743792</v>
+        <v>1.040638151910787</v>
       </c>
       <c r="L8">
-        <v>1.039586786099088</v>
+        <v>1.039071225286641</v>
       </c>
       <c r="M8">
-        <v>1.047992430040053</v>
+        <v>1.047379735221517</v>
       </c>
       <c r="N8">
-        <v>1.014306355340453</v>
+        <v>1.015442111090475</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046555154651954</v>
+        <v>1.046070251652406</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040513277276745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039838847818872</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022794682050342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001735874026749</v>
+        <v>1.001593949029838</v>
       </c>
       <c r="D9">
-        <v>1.025128384958294</v>
+        <v>1.024546159442982</v>
       </c>
       <c r="E9">
-        <v>1.021643591289136</v>
+        <v>1.021447863794282</v>
       </c>
       <c r="F9">
-        <v>1.030826594084848</v>
+        <v>1.030512598063513</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045856478589514</v>
+        <v>1.045638125303286</v>
       </c>
       <c r="J9">
-        <v>1.027227482670362</v>
+        <v>1.027090546135212</v>
       </c>
       <c r="K9">
-        <v>1.037826515259532</v>
+        <v>1.037253161094064</v>
       </c>
       <c r="L9">
-        <v>1.03439501177473</v>
+        <v>1.034202291148649</v>
       </c>
       <c r="M9">
-        <v>1.043438574312175</v>
+        <v>1.04312929395973</v>
       </c>
       <c r="N9">
-        <v>1.012763197523934</v>
+        <v>1.014315831366824</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042951104263146</v>
+        <v>1.042706330388288</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037836671115177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037441997875016</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02210520419055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9958055601822522</v>
+        <v>0.9959312631859808</v>
       </c>
       <c r="D10">
-        <v>1.021264043151575</v>
+        <v>1.020981451548914</v>
       </c>
       <c r="E10">
-        <v>1.016813367229046</v>
+        <v>1.016874670613171</v>
       </c>
       <c r="F10">
-        <v>1.026488321302283</v>
+        <v>1.026410970085941</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044866831273589</v>
+        <v>1.044776942058496</v>
       </c>
       <c r="J10">
-        <v>1.024186588745</v>
+        <v>1.024307245566975</v>
       </c>
       <c r="K10">
-        <v>1.035259696884787</v>
+        <v>1.034981938467456</v>
       </c>
       <c r="L10">
-        <v>1.03088554485435</v>
+        <v>1.030945788316636</v>
       </c>
       <c r="M10">
-        <v>1.040395242191134</v>
+        <v>1.040319196263881</v>
       </c>
       <c r="N10">
-        <v>1.011719194012003</v>
+        <v>1.013674887751074</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040593821772959</v>
+        <v>1.040533640258624</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036038566271529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035854575924223</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021638906887205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9936927918504675</v>
+        <v>0.9939435675962395</v>
       </c>
       <c r="D11">
-        <v>1.020048559099794</v>
+        <v>1.019886036763527</v>
       </c>
       <c r="E11">
-        <v>1.015307592610086</v>
+        <v>1.0154854764488</v>
       </c>
       <c r="F11">
-        <v>1.025402371402472</v>
+        <v>1.025427885157107</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044641147942047</v>
+        <v>1.044600816561447</v>
       </c>
       <c r="J11">
-        <v>1.023330332571596</v>
+        <v>1.023570489925228</v>
       </c>
       <c r="K11">
-        <v>1.034602040466005</v>
+        <v>1.03444242918198</v>
       </c>
       <c r="L11">
-        <v>1.02994649084212</v>
+        <v>1.030121151059916</v>
       </c>
       <c r="M11">
-        <v>1.039860625880236</v>
+        <v>1.039885688915517</v>
       </c>
       <c r="N11">
-        <v>1.011467402428237</v>
+        <v>1.013733752219236</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040605874070529</v>
+        <v>1.040625698627451</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035606391888231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035509146687148</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021572401778802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9930919445110178</v>
+        <v>0.9933741339210485</v>
       </c>
       <c r="D12">
-        <v>1.019772616430155</v>
+        <v>1.019636970969269</v>
       </c>
       <c r="E12">
-        <v>1.014974156290373</v>
+        <v>1.015180622513882</v>
       </c>
       <c r="F12">
-        <v>1.025299362937</v>
+        <v>1.02534962557037</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044637028565823</v>
+        <v>1.044606093160862</v>
       </c>
       <c r="J12">
-        <v>1.023191570668576</v>
+        <v>1.023461583782762</v>
       </c>
       <c r="K12">
-        <v>1.034530561519917</v>
+        <v>1.034397385761099</v>
       </c>
       <c r="L12">
-        <v>1.029819990157809</v>
+        <v>1.030022652448526</v>
       </c>
       <c r="M12">
-        <v>1.039957404333838</v>
+        <v>1.040006764819935</v>
       </c>
       <c r="N12">
-        <v>1.011453896109752</v>
+        <v>1.013830323702943</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041008060800751</v>
+        <v>1.041047091192291</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035555854045582</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035477300242317</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021595359214044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.993628018894173</v>
+        <v>0.9938596069766443</v>
       </c>
       <c r="D13">
-        <v>1.020217572189485</v>
+        <v>1.02002991820798</v>
       </c>
       <c r="E13">
-        <v>1.015535008079821</v>
+        <v>1.015693410438893</v>
       </c>
       <c r="F13">
-        <v>1.025966214200957</v>
+        <v>1.025973989108203</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044815169546306</v>
+        <v>1.044759448099204</v>
       </c>
       <c r="J13">
-        <v>1.02361090478408</v>
+        <v>1.023832551204225</v>
       </c>
       <c r="K13">
-        <v>1.034924652634026</v>
+        <v>1.034740400221461</v>
       </c>
       <c r="L13">
-        <v>1.030327457807411</v>
+        <v>1.030482955531028</v>
       </c>
       <c r="M13">
-        <v>1.040569872953742</v>
+        <v>1.040577509004526</v>
       </c>
       <c r="N13">
-        <v>1.011629293078218</v>
+        <v>1.013930653532723</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041768397639976</v>
+        <v>1.04177443411742</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035831998719807</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03571708506287</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021692985269364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9945193445825843</v>
+        <v>0.9946791223011421</v>
       </c>
       <c r="D14">
-        <v>1.02085719260216</v>
+        <v>1.020598113243073</v>
       </c>
       <c r="E14">
-        <v>1.016333407392157</v>
+        <v>1.016424130272707</v>
       </c>
       <c r="F14">
-        <v>1.026782567116003</v>
+        <v>1.02673078542307</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045022814122191</v>
+        <v>1.044934723506735</v>
       </c>
       <c r="J14">
-        <v>1.024157898855692</v>
+        <v>1.024310916701904</v>
       </c>
       <c r="K14">
-        <v>1.035412675580625</v>
+        <v>1.035158233844365</v>
       </c>
       <c r="L14">
-        <v>1.030970309805468</v>
+        <v>1.031059390587593</v>
       </c>
       <c r="M14">
-        <v>1.041232811829341</v>
+        <v>1.041181942989624</v>
       </c>
       <c r="N14">
-        <v>1.011837979289467</v>
+        <v>1.014004179059932</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042465407844565</v>
+        <v>1.042425200241748</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036178469261531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036014061893014</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021795775440441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9949887118530873</v>
+        <v>0.9951137748144889</v>
       </c>
       <c r="D15">
-        <v>1.021176872035943</v>
+        <v>1.020883621758902</v>
       </c>
       <c r="E15">
-        <v>1.016730602043399</v>
+        <v>1.016788681505382</v>
       </c>
       <c r="F15">
-        <v>1.027161261861031</v>
+        <v>1.027080772371603</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045116291399131</v>
+        <v>1.045013115478582</v>
       </c>
       <c r="J15">
-        <v>1.024419101851177</v>
+        <v>1.024538920032642</v>
       </c>
       <c r="K15">
-        <v>1.03564040349256</v>
+        <v>1.035352362683958</v>
       </c>
       <c r="L15">
-        <v>1.031273538819576</v>
+        <v>1.031330575232448</v>
       </c>
       <c r="M15">
-        <v>1.041519324767026</v>
+        <v>1.041440243257192</v>
       </c>
       <c r="N15">
-        <v>1.011932448774591</v>
+        <v>1.014027822705697</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042729331687667</v>
+        <v>1.042666825946559</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036345343354963</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036157747915885</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021839513158475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9973948991224322</v>
+        <v>0.9973639887466448</v>
       </c>
       <c r="D16">
-        <v>1.022730342484688</v>
+        <v>1.022282502880636</v>
       </c>
       <c r="E16">
-        <v>1.018671081097389</v>
+        <v>1.018582388659266</v>
       </c>
       <c r="F16">
-        <v>1.028892177701939</v>
+        <v>1.028681960473857</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045516398466452</v>
+        <v>1.045346992576074</v>
       </c>
       <c r="J16">
-        <v>1.025635140830712</v>
+        <v>1.02560546203127</v>
       </c>
       <c r="K16">
-        <v>1.036665463883142</v>
+        <v>1.036225234668805</v>
       </c>
       <c r="L16">
-        <v>1.032675499886112</v>
+        <v>1.032588329524155</v>
       </c>
       <c r="M16">
-        <v>1.042723454463666</v>
+        <v>1.042516753583775</v>
       </c>
       <c r="N16">
-        <v>1.012343974714519</v>
+        <v>1.014106925998595</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043642438533606</v>
+        <v>1.04347905824427</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037073257952371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036778357389285</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022014010258266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9987755134930987</v>
+        <v>0.9986714424629158</v>
       </c>
       <c r="D17">
-        <v>1.02358819021283</v>
+        <v>1.023065503650431</v>
       </c>
       <c r="E17">
-        <v>1.019742469724292</v>
+        <v>1.019584621498024</v>
       </c>
       <c r="F17">
-        <v>1.029789436737738</v>
+        <v>1.029517251722776</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045711977426141</v>
+        <v>1.045511385010135</v>
       </c>
       <c r="J17">
-        <v>1.02628082837221</v>
+        <v>1.02618077108728</v>
       </c>
       <c r="K17">
-        <v>1.037194898419278</v>
+        <v>1.036680846616607</v>
       </c>
       <c r="L17">
-        <v>1.033412975761252</v>
+        <v>1.033257759373667</v>
       </c>
       <c r="M17">
-        <v>1.043294559846545</v>
+        <v>1.043026800616446</v>
       </c>
       <c r="N17">
-        <v>1.0125500246041</v>
+        <v>1.014158188042133</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043965114557094</v>
+        <v>1.043753451578034</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037450171371525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03710332227414</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022094778416431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9993909557227602</v>
+        <v>0.9992676705174816</v>
       </c>
       <c r="D18">
-        <v>1.023907494900366</v>
+        <v>1.023364412829125</v>
       </c>
       <c r="E18">
-        <v>1.020141413252809</v>
+        <v>1.01996544030594</v>
       </c>
       <c r="F18">
-        <v>1.03001490844991</v>
+        <v>1.0297258521426</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045742372048116</v>
+        <v>1.045534646033183</v>
       </c>
       <c r="J18">
-        <v>1.026476991778983</v>
+        <v>1.026358372955449</v>
       </c>
       <c r="K18">
-        <v>1.037325931111241</v>
+        <v>1.036791675481702</v>
       </c>
       <c r="L18">
-        <v>1.033621306341841</v>
+        <v>1.033448219283548</v>
       </c>
       <c r="M18">
-        <v>1.043334905659985</v>
+        <v>1.043050474593143</v>
       </c>
       <c r="N18">
-        <v>1.012590781969138</v>
+        <v>1.014146434829817</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043759938748925</v>
+        <v>1.043535050071709</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037531198168876</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037168930891178</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022094084444062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9993313353964884</v>
+        <v>0.9992299136287509</v>
       </c>
       <c r="D19">
-        <v>1.023761324300589</v>
+        <v>1.023241392158514</v>
       </c>
       <c r="E19">
-        <v>1.019946242618088</v>
+        <v>1.019791345467289</v>
       </c>
       <c r="F19">
-        <v>1.029645462337135</v>
+        <v>1.029374750103556</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045636098104353</v>
+        <v>1.045440321521147</v>
       </c>
       <c r="J19">
-        <v>1.026284852773841</v>
+        <v>1.026187247919365</v>
       </c>
       <c r="K19">
-        <v>1.037119720788379</v>
+        <v>1.03660819662126</v>
       </c>
       <c r="L19">
-        <v>1.033366590035092</v>
+        <v>1.033214220753851</v>
       </c>
       <c r="M19">
-        <v>1.042909463148229</v>
+        <v>1.042643063436195</v>
       </c>
       <c r="N19">
-        <v>1.012492555571205</v>
+        <v>1.01406509226167</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043098986021021</v>
+        <v>1.042888285583804</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037391786827269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037046216430397</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022026124338573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9973684056353047</v>
+        <v>0.9974009474766707</v>
       </c>
       <c r="D20">
-        <v>1.022296674634962</v>
+        <v>1.021919115629584</v>
       </c>
       <c r="E20">
-        <v>1.018089147928379</v>
+        <v>1.018062356275197</v>
       </c>
       <c r="F20">
-        <v>1.027636504019667</v>
+        <v>1.027480541694081</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045142547284315</v>
+        <v>1.045011302562201</v>
       </c>
       <c r="J20">
-        <v>1.02500114910093</v>
+        <v>1.025032427195024</v>
       </c>
       <c r="K20">
-        <v>1.035958475744183</v>
+        <v>1.035587190949983</v>
       </c>
       <c r="L20">
-        <v>1.031821208108511</v>
+        <v>1.031794866232702</v>
       </c>
       <c r="M20">
-        <v>1.041210203519207</v>
+        <v>1.041056797716672</v>
       </c>
       <c r="N20">
-        <v>1.012002024837592</v>
+        <v>1.013776186411291</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041228253904537</v>
+        <v>1.04110684959262</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036574661679044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036328638268084</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021766092733028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9928253704472675</v>
+        <v>0.9931773083013326</v>
       </c>
       <c r="D21">
-        <v>1.019312338191272</v>
+        <v>1.019249036473458</v>
       </c>
       <c r="E21">
-        <v>1.014360879131956</v>
+        <v>1.01463432032961</v>
       </c>
       <c r="F21">
-        <v>1.024237956617841</v>
+        <v>1.024346900556194</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044340808466554</v>
+        <v>1.044347382526116</v>
       </c>
       <c r="J21">
-        <v>1.022626153117732</v>
+        <v>1.022963079217541</v>
       </c>
       <c r="K21">
-        <v>1.033936842370635</v>
+        <v>1.033874681676284</v>
       </c>
       <c r="L21">
-        <v>1.029075194004777</v>
+        <v>1.029343645699724</v>
       </c>
       <c r="M21">
-        <v>1.038774237055887</v>
+        <v>1.038881242125073</v>
       </c>
       <c r="N21">
-        <v>1.011178534146628</v>
+        <v>1.013625877286002</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039259597145804</v>
+        <v>1.039344284624653</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035148519494184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035121389422816</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021410424197894</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9899362640814099</v>
+        <v>0.9904908367357419</v>
       </c>
       <c r="D22">
-        <v>1.017423108656221</v>
+        <v>1.017559559006333</v>
       </c>
       <c r="E22">
-        <v>1.01200911064427</v>
+        <v>1.012472626906371</v>
       </c>
       <c r="F22">
-        <v>1.02211161756854</v>
+        <v>1.022388841797604</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043825383748816</v>
+        <v>1.043919731783357</v>
       </c>
       <c r="J22">
-        <v>1.021124608885489</v>
+        <v>1.021654145669197</v>
       </c>
       <c r="K22">
-        <v>1.032657135701415</v>
+        <v>1.032791003048971</v>
       </c>
       <c r="L22">
-        <v>1.027346360523169</v>
+        <v>1.027800982856724</v>
       </c>
       <c r="M22">
-        <v>1.037257407191683</v>
+        <v>1.037529447155187</v>
       </c>
       <c r="N22">
-        <v>1.010658863773552</v>
+        <v>1.013525767316216</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.038059124932571</v>
+        <v>1.03827442702384</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034230212053578</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034340386580333</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021184423315719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9914633552775475</v>
+        <v>0.9918977209351536</v>
       </c>
       <c r="D23">
-        <v>1.018415831350926</v>
+        <v>1.018436803762072</v>
       </c>
       <c r="E23">
-        <v>1.013249890142553</v>
+        <v>1.013601098780901</v>
       </c>
       <c r="F23">
-        <v>1.023233063089694</v>
+        <v>1.023411650187616</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04409490206489</v>
+        <v>1.04413829721925</v>
       </c>
       <c r="J23">
-        <v>1.021914082915965</v>
+        <v>1.022329415669412</v>
       </c>
       <c r="K23">
-        <v>1.033326512148768</v>
+        <v>1.033347097638162</v>
       </c>
       <c r="L23">
-        <v>1.028256514656124</v>
+        <v>1.028601160082546</v>
       </c>
       <c r="M23">
-        <v>1.038055412539593</v>
+        <v>1.038230745771815</v>
       </c>
       <c r="N23">
-        <v>1.0109310229793</v>
+        <v>1.013533118439154</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038690694530039</v>
+        <v>1.038829459363616</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03469385691479</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034722994206033</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02129830192075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9973798173249759</v>
+        <v>0.9974137701230273</v>
       </c>
       <c r="D24">
-        <v>1.022281228412392</v>
+        <v>1.02190506959097</v>
       </c>
       <c r="E24">
-        <v>1.018075941013809</v>
+        <v>1.018050532326374</v>
       </c>
       <c r="F24">
-        <v>1.027597913944445</v>
+        <v>1.027443098724078</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045125814142976</v>
+        <v>1.044995493188527</v>
       </c>
       <c r="J24">
-        <v>1.024979103444189</v>
+        <v>1.0250117395996</v>
       </c>
       <c r="K24">
-        <v>1.035928041743938</v>
+        <v>1.03555812608932</v>
       </c>
       <c r="L24">
-        <v>1.031792888547022</v>
+        <v>1.031767905886158</v>
       </c>
       <c r="M24">
-        <v>1.041157113870225</v>
+        <v>1.041004833364691</v>
       </c>
       <c r="N24">
-        <v>1.011989131655484</v>
+        <v>1.013762654869583</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041145485157197</v>
+        <v>1.041024965444925</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036525764136769</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036278040004672</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021754211896071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004028097067996</v>
+        <v>1.003786763166625</v>
       </c>
       <c r="D25">
-        <v>1.026643839068221</v>
+        <v>1.025948492316603</v>
       </c>
       <c r="E25">
-        <v>1.023530598036436</v>
+        <v>1.023238905141678</v>
       </c>
       <c r="F25">
-        <v>1.032535989759507</v>
+        <v>1.032133310859703</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046242611097556</v>
+        <v>1.045975576456886</v>
       </c>
       <c r="J25">
-        <v>1.02842065597435</v>
+        <v>1.028187356230865</v>
       </c>
       <c r="K25">
-        <v>1.038842158749842</v>
+        <v>1.038156916147828</v>
       </c>
       <c r="L25">
-        <v>1.035774292134039</v>
+        <v>1.035486868516672</v>
       </c>
       <c r="M25">
-        <v>1.044649381555789</v>
+        <v>1.044252467680721</v>
       </c>
       <c r="N25">
-        <v>1.013176376346058</v>
+        <v>1.014584409233873</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043909373139464</v>
+        <v>1.043595243828668</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038583330454015</v>
+        <v>1.038112344567989</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022292853597443</v>
       </c>
     </row>
   </sheetData>
